--- a/Covid_19_Dataset_and_References/References/82.xlsx
+++ b/Covid_19_Dataset_and_References/References/82.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="129">
   <si>
     <t>Doi</t>
   </si>
@@ -523,6 +523,19 @@
   </si>
   <si>
     <t>[Agostiniani%R.%coreGivesNoEmail%1,  Armocida%B.%coreGivesNoEmail%1,  Arrighini%A.%coreGivesNoEmail%1,  Arrigo%S.%coreGivesNoEmail%1,  Barbi%E.%coreGivesNoEmail%1,  Barbieri%M. A.%coreGivesNoEmail%1,  Biban%P.%coreGivesNoEmail%1,  Binotti%M.%coreGivesNoEmail%1,  Buonsenso%D.%coreGivesNoEmail%1,  Cantoni%B.%coreGivesNoEmail%1,  Chiossi%M.%coreGivesNoEmail%1,  Covi%B.%coreGivesNoEmail%1,  Da%Dalt L.%coreGivesNoEmail%1,  Fasoli%S.%coreGivesNoEmail%1,  Felici%E.%coreGivesNoEmail%1,  Giacchero%R.%coreGivesNoEmail%1,  Lanari%M.%coreGivesNoEmail%1,  Lazzerini%M.%coreGivesNoEmail%1,  Lenge%M.%coreGivesNoEmail%1,  Magista%A. M.%coreGivesNoEmail%1,  Marchetti%F.%coreGivesNoEmail%1,  Mariani%I.%coreGivesNoEmail%1,  Masi%S.%coreGivesNoEmail%1,  Miorin%E.%coreGivesNoEmail%1,  Musolino%A. M.%coreGivesNoEmail%1,  Nicoloso%F.%coreGivesNoEmail%1,  Parri%N.%coreGivesNoEmail%1,  Pilotto%C.%coreGivesNoEmail%1,  Plebani%A.%coreGivesNoEmail%1,  Raggi%M.%coreGivesNoEmail%1,  Romanengo%M.%coreGivesNoEmail%1,  Urbino%A.%coreGivesNoEmail%1,  Verdoni%L.%coreGivesNoEmail%1,  Zoia%E.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We report epidemiological and clinical investigations on ten pediatric SARS-CoV-2 infection cases confirmed by real-time reverse transcription PCR assay of SARS-CoV-2 RNA.
+ Symptoms in these cases were nonspecific and no children required respiratory support or intensive care.
+ Chest X-rays lacked definite signs of pneumonia, a defining feature of the infection in adult cases.
+ Notably, eight children persistently tested positive on rectal swabs even after nasopharyngeal testing was negative, raising the possibility of fecal–oral transmission.
+</t>
+  </si>
+  <si>
+    <t>[Yi%Xu%NULL%1,    Xufang%Li%NULL%1,    Bing%Zhu%NULL%1,    Huiying%Liang%NULL%1,    Chunxiao%Fang%NULL%1,    Yu%Gong%NULL%1,    Qiaozhi%Guo%NULL%1,    Xin%Sun%NULL%1,    Danyang%Zhao%NULL%1,    Jun%Shen%NULL%1,    Huayan%Zhang%NULL%1,    Hongsheng%Liu%NULL%2,    Hongsheng%Liu%NULL%0,    Huimin%Xia%huiminxia@hotmail.com%1,    Jinling%Tang%jltang@cuhk.edu.hk%1,    Kang%Zhang%kang.zhang@gmail.com%1,    Sitang%Gong%sitangg@126.com%2,    Sitang%Gong%sitangg@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yi%Xu%NULL%0,    Xufang%Li%NULL%1,    Bing%Zhu%NULL%1,    Huiying%Liang%NULL%1,    Chunxiao%Fang%NULL%1,    Yu%Gong%NULL%1,    Qiaozhi%Guo%NULL%1,    Xin%Sun%NULL%1,    Danyang%Zhao%NULL%1,    Jun%Shen%NULL%1,    Huayan%Zhang%NULL%1,    Hongsheng%Liu%NULL%2,    Hongsheng%Liu%NULL%0,    Huimin%Xia%huiminxia@hotmail.com%1,    Jinling%Tang%jltang@cuhk.edu.hk%1,    Kang%Zhang%kang.zhang@gmail.com%1,    Sitang%Gong%sitangg@126.com%2,    Sitang%Gong%sitangg@126.com%0]</t>
   </si>
 </sst>
 </file>
@@ -944,16 +957,16 @@
         <v>2020.0</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G6" t="s">
         <v>34</v>

--- a/Covid_19_Dataset_and_References/References/82.xlsx
+++ b/Covid_19_Dataset_and_References/References/82.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="126">
   <si>
     <t>Doi</t>
   </si>
@@ -523,19 +523,6 @@
   </si>
   <si>
     <t>[Agostiniani%R.%coreGivesNoEmail%1,  Armocida%B.%coreGivesNoEmail%1,  Arrighini%A.%coreGivesNoEmail%1,  Arrigo%S.%coreGivesNoEmail%1,  Barbi%E.%coreGivesNoEmail%1,  Barbieri%M. A.%coreGivesNoEmail%1,  Biban%P.%coreGivesNoEmail%1,  Binotti%M.%coreGivesNoEmail%1,  Buonsenso%D.%coreGivesNoEmail%1,  Cantoni%B.%coreGivesNoEmail%1,  Chiossi%M.%coreGivesNoEmail%1,  Covi%B.%coreGivesNoEmail%1,  Da%Dalt L.%coreGivesNoEmail%1,  Fasoli%S.%coreGivesNoEmail%1,  Felici%E.%coreGivesNoEmail%1,  Giacchero%R.%coreGivesNoEmail%1,  Lanari%M.%coreGivesNoEmail%1,  Lazzerini%M.%coreGivesNoEmail%1,  Lenge%M.%coreGivesNoEmail%1,  Magista%A. M.%coreGivesNoEmail%1,  Marchetti%F.%coreGivesNoEmail%1,  Mariani%I.%coreGivesNoEmail%1,  Masi%S.%coreGivesNoEmail%1,  Miorin%E.%coreGivesNoEmail%1,  Musolino%A. M.%coreGivesNoEmail%1,  Nicoloso%F.%coreGivesNoEmail%1,  Parri%N.%coreGivesNoEmail%1,  Pilotto%C.%coreGivesNoEmail%1,  Plebani%A.%coreGivesNoEmail%1,  Raggi%M.%coreGivesNoEmail%1,  Romanengo%M.%coreGivesNoEmail%1,  Urbino%A.%coreGivesNoEmail%1,  Verdoni%L.%coreGivesNoEmail%1,  Zoia%E.%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We report epidemiological and clinical investigations on ten pediatric SARS-CoV-2 infection cases confirmed by real-time reverse transcription PCR assay of SARS-CoV-2 RNA.
- Symptoms in these cases were nonspecific and no children required respiratory support or intensive care.
- Chest X-rays lacked definite signs of pneumonia, a defining feature of the infection in adult cases.
- Notably, eight children persistently tested positive on rectal swabs even after nasopharyngeal testing was negative, raising the possibility of fecal–oral transmission.
-</t>
-  </si>
-  <si>
-    <t>[Yi%Xu%NULL%1,    Xufang%Li%NULL%1,    Bing%Zhu%NULL%1,    Huiying%Liang%NULL%1,    Chunxiao%Fang%NULL%1,    Yu%Gong%NULL%1,    Qiaozhi%Guo%NULL%1,    Xin%Sun%NULL%1,    Danyang%Zhao%NULL%1,    Jun%Shen%NULL%1,    Huayan%Zhang%NULL%1,    Hongsheng%Liu%NULL%2,    Hongsheng%Liu%NULL%0,    Huimin%Xia%huiminxia@hotmail.com%1,    Jinling%Tang%jltang@cuhk.edu.hk%1,    Kang%Zhang%kang.zhang@gmail.com%1,    Sitang%Gong%sitangg@126.com%2,    Sitang%Gong%sitangg@126.com%0]</t>
-  </si>
-  <si>
-    <t>[Yi%Xu%NULL%0,    Xufang%Li%NULL%1,    Bing%Zhu%NULL%1,    Huiying%Liang%NULL%1,    Chunxiao%Fang%NULL%1,    Yu%Gong%NULL%1,    Qiaozhi%Guo%NULL%1,    Xin%Sun%NULL%1,    Danyang%Zhao%NULL%1,    Jun%Shen%NULL%1,    Huayan%Zhang%NULL%1,    Hongsheng%Liu%NULL%2,    Hongsheng%Liu%NULL%0,    Huimin%Xia%huiminxia@hotmail.com%1,    Jinling%Tang%jltang@cuhk.edu.hk%1,    Kang%Zhang%kang.zhang@gmail.com%1,    Sitang%Gong%sitangg@126.com%2,    Sitang%Gong%sitangg@126.com%0]</t>
   </si>
 </sst>
 </file>
@@ -957,16 +944,16 @@
         <v>2020.0</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
         <v>34</v>

--- a/Covid_19_Dataset_and_References/References/82.xlsx
+++ b/Covid_19_Dataset_and_References/References/82.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\2023USRAResearch\CovidClef2023\covidClef2023\Covid_19_Dataset_and_References\References\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B3875E-3C79-4CEF-8853-FB38C9790E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="96">
   <si>
     <t>Doi</t>
   </si>
@@ -30,9 +37,6 @@
     <t>10.1002/ppul.24762</t>
   </si>
   <si>
-    <t>:10.1002/jmv.25835</t>
-  </si>
-  <si>
     <t>10.3389/fpubh.2020.00255</t>
   </si>
   <si>
@@ -81,28 +85,19 @@
     <t>Authors</t>
   </si>
   <si>
-    <t>Unknown Title</t>
-  </si>
-  <si>
-    <t>Unknown Abstract</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
     <t>ID Format</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>not found</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Date Accepted</t>
+  </si>
+  <si>
+    <t>10.1002/jmv.25835</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
   </si>
   <si>
     <t>Clinical and CT features in pediatric patients with COVID‐19 infection: Different points from adults</t>
@@ -136,6 +131,9 @@
   </si>
   <si>
     <t>2020-02-26</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>[Wei%Xia%NULL%0, Jianbo%Shao%xzhuge27@163.com%0, Yu%Guo%NULL%0, Yu%Guo%NULL%0, Xuehua%Peng%NULL%0, Xuehua%Peng%NULL%0, Zhen%Li%NULL%0, Daoyu%Hu%NULL%0]</t>
@@ -178,6 +176,9 @@
     <t>1970-01-01</t>
   </si>
   <si>
+    <t>_elsevier</t>
+  </si>
+  <si>
     <t>Novel coronavirus infection in children outside of Wuhan, China</t>
   </si>
   <si>
@@ -201,13 +202,28 @@
 </t>
   </si>
   <si>
-    <t>[Qinxue%Shen%NULL%1, Wei%Guo%NULL%2, Ting%Guo%NULL%1, Jinhua%Li%NULL%1, Wenlong%He%NULL%1, Shanshan%Ni%NULL%1, Xiaoli%Ouyang%NULL%1, Jiyang%Liu%NULL%1, Yuanlin%Xie%NULL%1, Xin%Tan%NULL%1, Zhiguo%Zhou%13807311490@163.com%1, Hong%Peng%penghong66@csu.edu.cn%1]</t>
+    <t>[Qinxue%Shen%NULL%1, Wei%Guo%NULL%1, Ting%Guo%NULL%1, Jinhua%Li%NULL%1, Wenlong%He%NULL%1, Shanshan%Ni%NULL%1, Xiaoli%Ouyang%NULL%1, Jiyang%Liu%NULL%1, Yuanlin%Xie%NULL%1, Xin%Tan%NULL%1, Zhiguo%Zhou%13807311490@163.com%1, Hong%Peng%penghong66@csu.edu.cn%1]</t>
   </si>
   <si>
     <t>PMC7262205</t>
   </si>
   <si>
     <t>2020-03-23</t>
+  </si>
+  <si>
+    <t>Unknown Title</t>
+  </si>
+  <si>
+    <t>Unknown Abstract</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>not found</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>Clinical Features of 33 Cases in Children Infected With SARS-CoV-2 in Anhui Province, China–A Multi-Center Retrospective Cohort Study</t>
@@ -290,6 +306,9 @@
     <t>2020-03-02</t>
   </si>
   <si>
+    <t>_Springer</t>
+  </si>
+  <si>
     <t>Characteristics of pediatric SARS-CoV-2 infection and potential evidence for persistent fecal viral shedding</t>
   </si>
   <si>
@@ -307,9 +326,6 @@
   </si>
   <si>
     <t>Dynamics of faecal SARS-CoV-2 in infected children during the convalescent phase</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>[Yuhan%Xing%NULL%1, Wei%Ni%NULL%1, Qin%Wu%NULL%1, Wenjie%Li%NULL%1, Guoju%Li%NULL%1, Wendi%Wang%NULL%1, Jianning%Tong%NULL%1, Xiufeng%Song%NULL%1, Gary Wing Kin%Wong%NULL%1, Quansheng%Xing%NULL%1]</t>
@@ -406,150 +422,41 @@
 </t>
   </si>
   <si>
-    <t>[Niccolò%Parri%niccolo.parri@meyer.it%1, Anna Maria%Magistà%annamaria.magista@auslromagna.it%1, Federico%Marchetti%federico.marchetti@auslromagna.it%1, Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1, Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1, Marta%Romanengo%marta.romanengo@gmail.com%0, Enrico%Felici%enrico.felici@ospedale.al.it%1, Antonio%Urbino%afurbino@icloud.com%1, Liviana%Da Dalt%liviana.dadalt@unipd.it%1, Lucio%Verdoni%lverdoni@asst-pg23.it%1, Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1, Benedetta%Covi%benedetta.covi@burlo.trieste.it%1, Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1, Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1, Anna Maria%Musolino%annamaria.musolino@opbg.net%1, Marco%Binotti%marco.binotti@med.uniupo.it%1, Paolo%Biban%paolo.biban@aovr.veneto.it%1, Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1, Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1, Flavia%Nicoloso%flavianicoloso@gmail.com%1, Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1, Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1, Danilo%Buonsenso%danilobuonsenso@gmail.com%1, Massimo%Chiossi%max.chiossi@gmail.com%1, Rino%Agostiniani%rinoagostiniani@gmail.com%1, Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1, Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1, Marcello%Lanari%marcello.lanari@unibo.it%1, Serena%Arrigo%arrigoserena@gmail.com%1, Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1, Matteo%Lenge%matteo.lenge@meyer.it%1, Stefano%Masi%stefano.masi@meyer.it%1, Egidio%Barbi%egidio.barbi@burlo.trieste.it%1, Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1, NULL%NULL%NULL%0]</t>
+    <t>[Niccolò%Parri%niccolo.parri@meyer.it%1, Anna Maria%Magistà%annamaria.magista@auslromagna.it%1, Federico%Marchetti%federico.marchetti@auslromagna.it%1, Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1, Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1, Marta%Romanengo%marta.romanengo@gmail.com%0, Enrico%Felici%enrico.felici@ospedale.al.it%1, Antonio%Urbino%afurbino@icloud.com%1, Liviana%Da Dalt%liviana.dadalt@unipd.it%1, Lucio%Verdoni%lverdoni@asst-pg23.it%0, Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1, Benedetta%Covi%benedetta.covi@burlo.trieste.it%1, Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1, Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1, Anna Maria%Musolino%annamaria.musolino@opbg.net%1, Marco%Binotti%marco.binotti@med.uniupo.it%1, Paolo%Biban%paolo.biban@aovr.veneto.it%1, Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1, Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1, Flavia%Nicoloso%flavianicoloso@gmail.com%1, Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1, Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1, Danilo%Buonsenso%danilobuonsenso@gmail.com%1, Massimo%Chiossi%max.chiossi@gmail.com%1, Rino%Agostiniani%rinoagostiniani@gmail.com%1, Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1, Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1, Marcello%Lanari%marcello.lanari@unibo.it%1, Serena%Arrigo%arrigoserena@gmail.com%1, Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1, Matteo%Lenge%matteo.lenge@meyer.it%1, Stefano%Masi%stefano.masi@meyer.it%1, Egidio%Barbi%egidio.barbi@burlo.trieste.it%1, Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1, NULL%NULL%NULL%0]</t>
   </si>
   <si>
     <t>PMC7269687</t>
   </si>
   <si>
     <t>2020-05-09</t>
-  </si>
-  <si>
-    <t>[Wei%Xia%NULL%2,  Jianbo%Shao%xzhuge27@163.com%2,  Yu%Guo%NULL%4,  Yu%Guo%NULL%0,  Xuehua%Peng%NULL%4,  Xuehua%Peng%NULL%0,  Zhen%Li%NULL%2,  Daoyu%Hu%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Wei%Xia%NULL%0,  Jianbo%Shao%xzhuge27@163.com%0,  Yu%Guo%NULL%0,  Yu%Guo%NULL%0,  Xuehua%Peng%NULL%0,  Xuehua%Peng%NULL%0,  Zhen%Li%NULL%0,  Daoyu%Hu%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Michela%Antonelli%NULL%1,  Rose S%Penfold%NULL%1,  Jordi%Merino%NULL%1,  Carole H%Sudre%NULL%1,  Erika%Molteni%NULL%1,  Sarah%Berry%NULL%1,  Liane S%Canas%NULL%1,  Mark S%Graham%NULL%1,  Kerstin%Klaser%NULL%1,  Marc%Modat%NULL%1,  Benjamin%Murray%NULL%1,  Eric%Kerfoot%NULL%1,  Liyuan%Chen%NULL%1,  Jie%Deng%NULL%1,  Marc F%Österdahl%NULL%1,  Nathan J%Cheetham%NULL%1,  David A%Drew%NULL%1,  Long H%Nguyen%NULL%1,  Joan Capdevila%Pujol%NULL%1,  Christina%Hu%NULL%1,  Somesh%Selvachandran%NULL%1,  Lorenzo%Polidori%NULL%1,  Anna%May%NULL%1,  Jonathan%Wolf%NULL%1,  Andrew T%Chan%NULL%1,  Alexander%Hammers%NULL%1,  Emma L%Duncan%NULL%1,  Tim D%Spector%NULL%1,  Sebastien%Ourselin%NULL%1,  Claire J%Steves%claire.j.steves@kcl.ac.uk%1]</t>
-  </si>
-  <si>
-    <t>[Qinxue%Shen%NULL%1,  Wei%Guo%NULL%0,  Ting%Guo%NULL%1,  Jinhua%Li%NULL%1,  Wenlong%He%NULL%1,  Shanshan%Ni%NULL%1,  Xiaoli%Ouyang%NULL%1,  Jiyang%Liu%NULL%1,  Yuanlin%Xie%NULL%1,  Xin%Tan%NULL%1,  Zhiguo%Zhou%13807311490@163.com%0,  Hong%Peng%penghong66@csu.edu.cn%1]</t>
-  </si>
-  <si>
-    <t>[Lu%Lin%NULL%1,  Xiayang%Jiang%NULL%1,  Zhenling%Zhang%NULL%1,  Siwen%Huang%NULL%1,  Zhenyi%Zhang%NULL%1,  Zhaoxiong%Fang%NULL%1,  Zhiqiang%Gu%NULL%1,  Liangqing%Gao%NULL%1,  Honggang%Shi%NULL%1,  Lei%Mai%NULL%1,  Yuan%Liu%NULL%0,  Xianqi%Lin%NULL%1,  Renxu%Lai%NULL%1,  Zhixiang%Yan%NULL%1,  Xiaofeng%Li%NULL%2,  Xiaofeng%Li%NULL%0,  Hong%Shan%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Dan%Sun%NULL%0,  Hui%Li%NULL%0,  Xiao-Xia%Lu%NULL%1,  Han%Xiao%NULL%0,  Jie%Ren%NULL%1,  Fu-Rong%Zhang%792523496@qq.com%1,  Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
-  </si>
-  <si>
-    <t>[Yi%Xu%NULL%1,  Xufang%Li%NULL%1,  Bing%Zhu%NULL%1,  Huiying%Liang%NULL%1,  Chunxiao%Fang%NULL%1,  Yu%Gong%NULL%1,  Qiaozhi%Guo%NULL%1,  Xin%Sun%NULL%1,  Danyang%Zhao%NULL%1,  Jun%Shen%NULL%1,  Huayan%Zhang%NULL%1,  Hongsheng%Liu%NULL%2,  Hongsheng%Liu%NULL%0,  Huimin%Xia%huiminxia@hotmail.com%1,  Jinling%Tang%jltang@cuhk.edu.hk%1,  Kang%Zhang%kang.zhang@gmail.com%1,  Sitang%Gong%sitangg@126.com%2,  Sitang%Gong%sitangg@126.com%0]</t>
-  </si>
-  <si>
-    <t>Screening and Severity of Coronavirus Disease 2019 (COVID-19) in Children in Madrid, Spain</t>
-  </si>
-  <si>
-    <t>This case series describes the testing for and treatment of children with coronavirus disease 2019 (COVID-19) in Madrid, Spain.
-Sin financiaci\u00f3n16.193 JCR (2020) Q1, 1\/129 Pediatrics4.004 SJR (2020) Q1, 1\/301 Pediatrics, Perinatology and Child HealthNo data IDR 2019UE</t>
-  </si>
-  <si>
-    <t>[Calvo%Cristina%coreGivesNoEmail%1, Epalza%Cristina%coreGivesNoEmail%1, Moraleda%Cinta%coreGivesNoEmail%1, Otheo%Enrique%coreGivesNoEmail%1, Santos%Mar%coreGivesNoEmail%1, Sanz-Santaeufemia%Francisco Jos\u00e9%coreGivesNoEmail%1, Tagarro%Garc\u00eda Alfredo%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>CORE</t>
-  </si>
-  <si>
-    <t>[Yuhan%Xing%NULL%1,  Wei%Ni%NULL%1,  Qin%Wu%NULL%1,  Wenjie%Li%NULL%1,  Guoju%Li%NULL%1,  Wendi%Wang%NULL%1,  Jianning%Tong%NULL%1,  Xiufeng%Song%NULL%1,  Gary Wing Kin%Wong%NULL%1,  Quansheng%Xing%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Giacomo%Brisca%giacomobrisca@gmail.com%1,  Marta%Ferretti%NULL%2,  Marta%Ferretti%NULL%0,  Giulia%Sartoris%NULL%1,  Maria Beatrice%Damasio%NULL%1,  Isabella%Buffoni%NULL%2,  Isabella%Buffoni%NULL%0,  Daniela%Pirlo%NULL%1,  Marta%Romanengo%NULL%2,  Emanuela%Piccotti%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Louise%Gaborieau%NULL%1,  Celine%Delestrain%NULL%1,  Philippe%Bensaid%NULL%2,  Audrey%Vizeneux%NULL%1,  Philippe%Blanc%NULL%1,  Aurélie%Garraffo%NULL%1,  Emilie%Georget%NULL%1,  Arnaud%Chalvon%NULL%1,  Nathalie%Garrec%NULL%1,  Yacine%Laoudi%NULL%1,  Emmanuelle%Varon%NULL%1,  Sébastien%Rouget%NULL%1,  Alexandre%Pupin%NULL%1,  Khaled%Abdel Aal%NULL%1,  David%Toulorge%NULL%1,  Sarah%Ducrocq%NULL%1,  Catherine%Barrey%NULL%1,  Letitia%Pantalone%NULL%1,  Blandine%Robert%NULL%1,  Lydie%Joly-Sanchez%NULL%1,  Caroline%Thach%NULL%2,  Caroline%Thach%NULL%0,  Caroline%Masserot-Lureau%NULL%1,  Jamilé%Chahine%NULL%1,  Veronica%Risso Garcia-Roudaut%NULL%1,  Jonathan%Rozental%NULL%1,  Sylvie%Nathanson%NULL%1,  Mohamed%Khaled%NULL%1,  Alexis%Mandelcwajg%NULL%1,  Nadia%Demayer%NULL%1,  Stéphanie%Muller%NULL%1,  Mustapha%Mazerghane%NULL%1,  Ralph%Epaud%NULL%1,  Béatrice%Pellegrino%NULL%2,  Béatrice%Pellegrino%NULL%0,  Fouad%Madhi%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Chun‐Zhen%Hua%NULL%1,  Zi‐Ping%Miao%NULL%1,  Ji‐Shan%Zheng%NULL%2,  Ji‐Shan%Zheng%NULL%0,  Qian%Huang%NULL%1,  Qing‐Feng%Sun%NULL%1,  Hong‐Ping%Lu%NULL%1,  Fei‐Fei%Su%NULL%1,  Wei‐Hong%Wang%NULL%1,  Lie‐Ping%Huang%NULL%1,  Da‐Qing%Chen%NULL%1,  Zhi‐Wei%Xu%NULL%1,  Le‐Dan%Ji%NULL%1,  Hong‐Ping%Zhang%NULL%1,  Xiao‐Wei%Yang%NULL%1,  Ming‐Hui%Li%NULL%1,  Yue‐Yan%Mao%NULL%1,  Man‐Zhen%Ying%NULL%1,  Sheng%Ye%NULL%1,  Qiang%Shu%shuqiang@zju.edu.cn%1,  En‐Fu%Chen%enfchen@cdc.zj.cn%2,  En‐Fu%Chen%enfchen@cdc.zj.cn%0,  Jian‐Feng%Liang%NULL%1,  Wei%Wang%NULL%0,  Zhi‐Min%Chen%NULL%1,  Wei%Li%NULL%0,  Jun‐Fen%Fu%fjf68@zju.edu.cn%1]</t>
-  </si>
-  <si>
-    <t>[María%de Ceano-Vivas%NULL%1,  Irene%Martín-Espín%NULL%1,  Teresa%del Rosal%NULL%1,  Marta%Bueno-Barriocanal%NULL%2,  Marta%Bueno-Barriocanal%NULL%0,  Marta%Plata-Gallardo%NULL%1,  José Antonio%Ruiz-Domínguez%NULL%1,  Rosario%López-López%NULL%2,  Rosario%López-López%NULL%0,  Miguel Ángel%Molina-Gutiérrez%NULL%1,  Patricia%Bote-Gascón%NULL%2,  Patricia%Bote-Gascón%NULL%0,  Isabel%González-Bertolín%NULL%1,  Paula%García-Sánchez%NULL%2,  Paula%García-Sánchez%NULL%0,  Julia%Martín-Sánchez%NULL%1,  Begoña%de Miguel-Lavisier%NULL%1,  Talía%Sainz%NULL%1,  Fernando%Baquero-Artigao%NULL%1,  Ana%Méndez-Echevarría%NULL%1,  Cristina%Calvo%NULL%2,  Cristina%Calvo%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,  Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,  Federico%Marchetti%federico.marchetti@auslromagna.it%1,  Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,  Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,  Marta%Romanengo%marta.romanengo@gmail.com%0,  Enrico%Felici%enrico.felici@ospedale.al.it%1,  Antonio%Urbino%afurbino@icloud.com%1,  Liviana%Da Dalt%liviana.dadalt@unipd.it%1,  Lucio%Verdoni%lverdoni@asst-pg23.it%1,  Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,  Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,  Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,  Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,  Anna Maria%Musolino%annamaria.musolino@opbg.net%1,  Marco%Binotti%marco.binotti@med.uniupo.it%1,  Paolo%Biban%paolo.biban@aovr.veneto.it%1,  Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,  Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,  Flavia%Nicoloso%flavianicoloso@gmail.com%1,  Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,  Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,  Danilo%Buonsenso%danilobuonsenso@gmail.com%1,  Massimo%Chiossi%max.chiossi@gmail.com%1,  Rino%Agostiniani%rinoagostiniani@gmail.com%1,  Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,  Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,  Marcello%Lanari%marcello.lanari@unibo.it%1,  Serena%Arrigo%arrigoserena@gmail.com%1,  Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,  Matteo%Lenge%matteo.lenge@meyer.it%1,  Stefano%Masi%stefano.masi@meyer.it%1,  Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,  Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,  NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>Detailed data on clinical presentations and outcomes of children with COVID-19 in Europe are still lacking.
- In this descriptive study, we report on 130 children with confirmed COVID-19 diagnosed by 28 centers (mostly hospitals), in 10 regions in Italy, during the first months of the pandemic.
- Among these, 67 (51.5%) had a relative with COVID-19 while 34 (26.2%) had comorbidities, with the most frequent being respiratory, cardiac, or neuromuscular chronic diseases.
- Overall, 98 (75.4%) had an asymptomatic or mild disease, 11 (8.5%) had moderate disease, 11 (8.5%) had a severe disease, and 9 (6.9%) had a critical presentation with infants below 6\\ua0months having significantly increased risk of critical disease severity (OR 5.6, 95% CI 1.3 to 29.1).
- Seventy-five (57.7%) children were hospitalized, 15 (11.5%) needed some respiratory support, and nine (6.9%) were treated in an intensive care unit.
- All recovered.
- Conclusion:This descriptive case series of children with COVID-19, mostly encompassing of cases enrolled at hospital level, suggest that COVID-19 may have a non-negligible rate of severe presentations in selected pediatric populations with a relatively high rates of comorbidities.
- More studies are needed to further understand the presentation and outcomes of children with COVID-19 in children with special needs.
-What is Known:\\u2022 There is limited evidence on the clinical presentation and outcomes of children with COVID-19 in Europe, and almost no evidence on characteristics and risk factors of severe cases.
-What is New:\\u2022 Among a case series of 130 children, mostly diagnosed at hospital level, and with a relatively high rate (26.2%) of comorbidities, about three-quarter had an asymptomatic or mild disease.
-\\u2022 However, 57.7% were hospitalized, 11.5% needed some respiratory support, and 6.9% were treated in an intensive care unit</t>
-  </si>
-  <si>
-    <t>[Agostiniani%R.%coreGivesNoEmail%1, Armocida%B.%coreGivesNoEmail%1, Arrighini%A.%coreGivesNoEmail%1, Arrigo%S.%coreGivesNoEmail%1, Barbi%E.%coreGivesNoEmail%1, Barbieri%M. A.%coreGivesNoEmail%1, Biban%P.%coreGivesNoEmail%1, Binotti%M.%coreGivesNoEmail%1, Buonsenso%D.%coreGivesNoEmail%1, Cantoni%B.%coreGivesNoEmail%1, Chiossi%M.%coreGivesNoEmail%1, Covi%B.%coreGivesNoEmail%1, Da%Dalt L.%coreGivesNoEmail%1, Fasoli%S.%coreGivesNoEmail%1, Felici%E.%coreGivesNoEmail%1, Giacchero%R.%coreGivesNoEmail%1, Lanari%M.%coreGivesNoEmail%1, Lazzerini%M.%coreGivesNoEmail%1, Lenge%M.%coreGivesNoEmail%1, Magista%A. M.%coreGivesNoEmail%1, Marchetti%F.%coreGivesNoEmail%1, Mariani%I.%coreGivesNoEmail%1, Masi%S.%coreGivesNoEmail%1, Miorin%E.%coreGivesNoEmail%1, Musolino%A. M.%coreGivesNoEmail%1, Nicoloso%F.%coreGivesNoEmail%1, Parri%N.%coreGivesNoEmail%1, Pilotto%C.%coreGivesNoEmail%1, Plebani%A.%coreGivesNoEmail%1, Raggi%M.%coreGivesNoEmail%1, Romanengo%M.%coreGivesNoEmail%1, Urbino%A.%coreGivesNoEmail%1, Verdoni%L.%coreGivesNoEmail%1, Zoia%E.%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Wei%Xia%NULL%2,   Jianbo%Shao%xzhuge27@163.com%0,   Yu%Guo%NULL%4,   Yu%Guo%NULL%0,   Xuehua%Peng%NULL%0,   Xuehua%Peng%NULL%0,   Zhen%Li%NULL%0,   Daoyu%Hu%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Wei%Xia%NULL%0,   Jianbo%Shao%xzhuge27@163.com%0,   Yu%Guo%NULL%0,   Yu%Guo%NULL%0,   Xuehua%Peng%NULL%0,   Xuehua%Peng%NULL%0,   Zhen%Li%NULL%0,   Daoyu%Hu%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Michela%Antonelli%NULL%1,   Rose S%Penfold%NULL%1,   Jordi%Merino%NULL%1,   Carole H%Sudre%NULL%1,   Erika%Molteni%NULL%1,   Sarah%Berry%NULL%1,   Liane S%Canas%NULL%1,   Mark S%Graham%NULL%1,   Kerstin%Klaser%NULL%1,   Marc%Modat%NULL%1,   Benjamin%Murray%NULL%1,   Eric%Kerfoot%NULL%1,   Liyuan%Chen%NULL%1,   Jie%Deng%NULL%1,   Marc F%Österdahl%NULL%1,   Nathan J%Cheetham%NULL%1,   David A%Drew%NULL%1,   Long H%Nguyen%NULL%1,   Joan Capdevila%Pujol%NULL%1,   Christina%Hu%NULL%1,   Somesh%Selvachandran%NULL%1,   Lorenzo%Polidori%NULL%1,   Anna%May%NULL%1,   Jonathan%Wolf%NULL%1,   Andrew T%Chan%NULL%1,   Alexander%Hammers%NULL%1,   Emma L%Duncan%NULL%1,   Tim D%Spector%NULL%1,   Sebastien%Ourselin%NULL%1,   Claire J%Steves%claire.j.steves@kcl.ac.uk%1]</t>
-  </si>
-  <si>
-    <t>[Qinxue%Shen%NULL%1,   Wei%Guo%NULL%0,   Ting%Guo%NULL%1,   Jinhua%Li%NULL%1,   Wenlong%He%NULL%1,   Shanshan%Ni%NULL%1,   Xiaoli%Ouyang%NULL%1,   Jiyang%Liu%NULL%0,   Yuanlin%Xie%NULL%0,   Xin%Tan%NULL%1,   Zhiguo%Zhou%13807311490@163.com%1,   Hong%Peng%penghong66@csu.edu.cn%1]</t>
-  </si>
-  <si>
-    <t>[Dan%Sun%NULL%0,   Hui%Li%NULL%0,   Xiao-Xia%Lu%NULL%0,   Han%Xiao%NULL%0,   Jie%Ren%NULL%0,   Fu-Rong%Zhang%792523496@qq.com%0,   Zhi-Sheng%Liu%liuzsc@126.com%0]</t>
-  </si>
-  <si>
-    <t>[Yi%Xu%NULL%1,   Xufang%Li%NULL%1,   Bing%Zhu%NULL%1,   Huiying%Liang%NULL%1,   Chunxiao%Fang%NULL%1,   Yu%Gong%NULL%0,   Qiaozhi%Guo%NULL%1,   Xin%Sun%NULL%1,   Danyang%Zhao%NULL%1,   Jun%Shen%NULL%1,   Huayan%Zhang%NULL%1,   Hongsheng%Liu%NULL%2,   Hongsheng%Liu%NULL%0,   Huimin%Xia%huiminxia@hotmail.com%1,   Jinling%Tang%jltang@cuhk.edu.hk%1,   Kang%Zhang%kang.zhang@gmail.com%1,   Sitang%Gong%sitangg@126.com%2,   Sitang%Gong%sitangg@126.com%0]</t>
-  </si>
-  <si>
-    <t>[Calvo%Cristina%coreGivesNoEmail%1,  Epalza%Cristina%coreGivesNoEmail%1,  Moraleda%Cinta%coreGivesNoEmail%1,  Otheo%Enrique%coreGivesNoEmail%1,  Santos%Mar%coreGivesNoEmail%1,  Sanz-Santaeufemia%Francisco Jos\u00e9%coreGivesNoEmail%1,  Tagarro%Garc\u00eda Alfredo%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Yuhan%Xing%NULL%1,   Wei%Ni%NULL%1,   Qin%Wu%NULL%1,   Wenjie%Li%NULL%1,   Guoju%Li%NULL%1,   Wendi%Wang%NULL%1,   Jianning%Tong%NULL%1,   Xiufeng%Song%NULL%1,   Gary Wing Kin%Wong%NULL%1,   Quansheng%Xing%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Giacomo%Brisca%giacomobrisca@gmail.com%1,   Marta%Ferretti%NULL%2,   Marta%Ferretti%NULL%0,   Giulia%Sartoris%NULL%1,   Maria Beatrice%Damasio%NULL%1,   Isabella%Buffoni%NULL%2,   Isabella%Buffoni%NULL%0,   Daniela%Pirlo%NULL%1,   Marta%Romanengo%NULL%2,   Emanuela%Piccotti%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Louise%Gaborieau%NULL%1,   Celine%Delestrain%NULL%1,   Philippe%Bensaid%NULL%2,   Audrey%Vizeneux%NULL%1,   Philippe%Blanc%NULL%1,   Aurélie%Garraffo%NULL%1,   Emilie%Georget%NULL%1,   Arnaud%Chalvon%NULL%1,   Nathalie%Garrec%NULL%1,   Yacine%Laoudi%NULL%1,   Emmanuelle%Varon%NULL%1,   Sébastien%Rouget%NULL%1,   Alexandre%Pupin%NULL%1,   Khaled%Abdel Aal%NULL%1,   David%Toulorge%NULL%1,   Sarah%Ducrocq%NULL%1,   Catherine%Barrey%NULL%1,   Letitia%Pantalone%NULL%1,   Blandine%Robert%NULL%1,   Lydie%Joly-Sanchez%NULL%1,   Caroline%Thach%NULL%2,   Caroline%Thach%NULL%0,   Caroline%Masserot-Lureau%NULL%1,   Jamilé%Chahine%NULL%1,   Veronica%Risso Garcia-Roudaut%NULL%1,   Jonathan%Rozental%NULL%1,   Sylvie%Nathanson%NULL%1,   Mohamed%Khaled%NULL%1,   Alexis%Mandelcwajg%NULL%1,   Nadia%Demayer%NULL%1,   Stéphanie%Muller%NULL%1,   Mustapha%Mazerghane%NULL%1,   Ralph%Epaud%NULL%1,   Béatrice%Pellegrino%NULL%2,   Béatrice%Pellegrino%NULL%0,   Fouad%Madhi%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Chun‐Zhen%Hua%NULL%1,   Zi‐Ping%Miao%NULL%1,   Ji‐Shan%Zheng%NULL%2,   Ji‐Shan%Zheng%NULL%0,   Qian%Huang%NULL%1,   Qing‐Feng%Sun%NULL%1,   Hong‐Ping%Lu%NULL%1,   Fei‐Fei%Su%NULL%1,   Wei‐Hong%Wang%NULL%1,   Lie‐Ping%Huang%NULL%1,   Da‐Qing%Chen%NULL%1,   Zhi‐Wei%Xu%NULL%1,   Le‐Dan%Ji%NULL%1,   Hong‐Ping%Zhang%NULL%1,   Xiao‐Wei%Yang%NULL%1,   Ming‐Hui%Li%NULL%1,   Yue‐Yan%Mao%NULL%1,   Man‐Zhen%Ying%NULL%1,   Sheng%Ye%NULL%1,   Qiang%Shu%shuqiang@zju.edu.cn%1,   En‐Fu%Chen%enfchen@cdc.zj.cn%2,   En‐Fu%Chen%enfchen@cdc.zj.cn%0,   Jian‐Feng%Liang%NULL%1,   Wei%Wang%NULL%0,   Zhi‐Min%Chen%NULL%1,   Wei%Li%NULL%0,   Jun‐Fen%Fu%fjf68@zju.edu.cn%1]</t>
-  </si>
-  <si>
-    <t>[María%de Ceano-Vivas%NULL%1,   Irene%Martín-Espín%NULL%1,   Teresa%del Rosal%NULL%1,   Marta%Bueno-Barriocanal%NULL%2,   Marta%Bueno-Barriocanal%NULL%0,   Marta%Plata-Gallardo%NULL%1,   José Antonio%Ruiz-Domínguez%NULL%1,   Rosario%López-López%NULL%2,   Rosario%López-López%NULL%0,   Miguel Ángel%Molina-Gutiérrez%NULL%1,   Patricia%Bote-Gascón%NULL%2,   Patricia%Bote-Gascón%NULL%0,   Isabel%González-Bertolín%NULL%1,   Paula%García-Sánchez%NULL%2,   Paula%García-Sánchez%NULL%0,   Julia%Martín-Sánchez%NULL%1,   Begoña%de Miguel-Lavisier%NULL%1,   Talía%Sainz%NULL%1,   Fernando%Baquero-Artigao%NULL%1,   Ana%Méndez-Echevarría%NULL%1,   Cristina%Calvo%NULL%2,   Cristina%Calvo%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,   Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,   Federico%Marchetti%federico.marchetti@auslromagna.it%1,   Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,   Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,   Marta%Romanengo%marta.romanengo@gmail.com%0,   Enrico%Felici%enrico.felici@ospedale.al.it%1,   Antonio%Urbino%afurbino@icloud.com%1,   Liviana%Da Dalt%liviana.dadalt@unipd.it%1,   Lucio%Verdoni%lverdoni@asst-pg23.it%1,   Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,   Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,   Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,   Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,   Anna Maria%Musolino%annamaria.musolino@opbg.net%1,   Marco%Binotti%marco.binotti@med.uniupo.it%1,   Paolo%Biban%paolo.biban@aovr.veneto.it%1,   Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,   Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,   Flavia%Nicoloso%flavianicoloso@gmail.com%1,   Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,   Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,   Danilo%Buonsenso%danilobuonsenso@gmail.com%1,   Massimo%Chiossi%max.chiossi@gmail.com%1,   Rino%Agostiniani%rinoagostiniani@gmail.com%1,   Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,   Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,   Marcello%Lanari%marcello.lanari@unibo.it%1,   Serena%Arrigo%arrigoserena@gmail.com%1,   Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,   Matteo%Lenge%matteo.lenge@meyer.it%1,   Stefano%Masi%stefano.masi@meyer.it%1,   Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,   Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,   NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Agostiniani%R.%coreGivesNoEmail%1,  Armocida%B.%coreGivesNoEmail%1,  Arrighini%A.%coreGivesNoEmail%1,  Arrigo%S.%coreGivesNoEmail%1,  Barbi%E.%coreGivesNoEmail%1,  Barbieri%M. A.%coreGivesNoEmail%1,  Biban%P.%coreGivesNoEmail%1,  Binotti%M.%coreGivesNoEmail%1,  Buonsenso%D.%coreGivesNoEmail%1,  Cantoni%B.%coreGivesNoEmail%1,  Chiossi%M.%coreGivesNoEmail%1,  Covi%B.%coreGivesNoEmail%1,  Da%Dalt L.%coreGivesNoEmail%1,  Fasoli%S.%coreGivesNoEmail%1,  Felici%E.%coreGivesNoEmail%1,  Giacchero%R.%coreGivesNoEmail%1,  Lanari%M.%coreGivesNoEmail%1,  Lazzerini%M.%coreGivesNoEmail%1,  Lenge%M.%coreGivesNoEmail%1,  Magista%A. M.%coreGivesNoEmail%1,  Marchetti%F.%coreGivesNoEmail%1,  Mariani%I.%coreGivesNoEmail%1,  Masi%S.%coreGivesNoEmail%1,  Miorin%E.%coreGivesNoEmail%1,  Musolino%A. M.%coreGivesNoEmail%1,  Nicoloso%F.%coreGivesNoEmail%1,  Parri%N.%coreGivesNoEmail%1,  Pilotto%C.%coreGivesNoEmail%1,  Plebani%A.%coreGivesNoEmail%1,  Raggi%M.%coreGivesNoEmail%1,  Romanengo%M.%coreGivesNoEmail%1,  Urbino%A.%coreGivesNoEmail%1,  Verdoni%L.%coreGivesNoEmail%1,  Zoia%E.%coreGivesNoEmail%1]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="4">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="&quot;Open Sans&quot;"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="BlinkMacSystemFont"/>
     </font>
@@ -559,7 +466,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -569,41 +476,43 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -793,20 +702,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -814,478 +728,553 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
       <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
-        <v>2020.0</v>
+      <c r="B2">
+        <v>2020</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2020</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
         <v>33</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2020</v>
+      </c>
+      <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="H2" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2020.0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>2020.0</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2020</v>
+      </c>
+      <c r="C5" t="s">
         <v>40</v>
       </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="D5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2020.0</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>42</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>43</v>
       </c>
-      <c r="E5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>2020</v>
+      </c>
+      <c r="C6" t="s">
         <v>45</v>
       </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="D6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <v>2020.0</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B7">
+        <v>2020</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2020</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
         <v>57</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F8" t="s">
         <v>58</v>
       </c>
-      <c r="E6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2020</v>
+      </c>
+      <c r="C9" t="s">
         <v>60</v>
       </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="D9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2020.0</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E9" t="s">
         <v>62</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F9" t="s">
         <v>63</v>
       </c>
-      <c r="E7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" t="s">
         <v>65</v>
       </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>2020.0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <v>2020.0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="B10">
+        <v>2020</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2020</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="G9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <v>2020.0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <v>2020.0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="B12">
+        <v>2020</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>2020</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2020</v>
+      </c>
+      <c r="C14" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
-        <v>2020.0</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
         <v>71</v>
       </c>
-      <c r="D12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" t="s">
         <v>73</v>
       </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3">
-        <v>2020.0</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>2020</v>
+      </c>
+      <c r="C15" t="s">
         <v>74</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
         <v>75</v>
       </c>
-      <c r="E13" t="s">
-        <v>121</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="F15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>2020</v>
+      </c>
+      <c r="C16" t="s">
         <v>77</v>
       </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="D16" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <v>2020.0</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="E16" t="s">
         <v>79</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F16" t="s">
         <v>80</v>
       </c>
-      <c r="E14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>2020</v>
+      </c>
+      <c r="C17" t="s">
         <v>82</v>
       </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="D17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>2020.0</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="E17" t="s">
         <v>84</v>
       </c>
-      <c r="D15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" t="s">
-        <v>123</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="F17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
         <v>86</v>
       </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="I17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>2020</v>
+      </c>
+      <c r="C18" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
-        <v>2020.0</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
         <v>88</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F18" t="s">
         <v>89</v>
       </c>
-      <c r="E16" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>2020</v>
+      </c>
+      <c r="C19" t="s">
         <v>91</v>
       </c>
-      <c r="G16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="D19" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3">
-        <v>2020.0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3">
-        <v>2020.0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3">
-        <v>2020.0</v>
+      <c r="E19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Covid_19_Dataset_and_References/References/82.xlsx
+++ b/Covid_19_Dataset_and_References/References/82.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="138">
   <si>
     <t>Doi</t>
   </si>
@@ -429,6 +429,132 @@
   </si>
   <si>
     <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%2,  Jianbo%Shao%xzhuge27@163.com%2,  Yu%Guo%NULL%4,  Yu%Guo%NULL%0,  Xuehua%Peng%NULL%4,  Xuehua%Peng%NULL%0,  Zhen%Li%NULL%2,  Daoyu%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%0,  Jianbo%Shao%xzhuge27@163.com%0,  Yu%Guo%NULL%0,  Yu%Guo%NULL%0,  Xuehua%Peng%NULL%0,  Xuehua%Peng%NULL%0,  Zhen%Li%NULL%0,  Daoyu%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michela%Antonelli%NULL%1,  Rose S%Penfold%NULL%1,  Jordi%Merino%NULL%1,  Carole H%Sudre%NULL%1,  Erika%Molteni%NULL%1,  Sarah%Berry%NULL%1,  Liane S%Canas%NULL%1,  Mark S%Graham%NULL%1,  Kerstin%Klaser%NULL%1,  Marc%Modat%NULL%1,  Benjamin%Murray%NULL%1,  Eric%Kerfoot%NULL%1,  Liyuan%Chen%NULL%1,  Jie%Deng%NULL%1,  Marc F%Österdahl%NULL%1,  Nathan J%Cheetham%NULL%1,  David A%Drew%NULL%1,  Long H%Nguyen%NULL%1,  Joan Capdevila%Pujol%NULL%1,  Christina%Hu%NULL%1,  Somesh%Selvachandran%NULL%1,  Lorenzo%Polidori%NULL%1,  Anna%May%NULL%1,  Jonathan%Wolf%NULL%1,  Andrew T%Chan%NULL%1,  Alexander%Hammers%NULL%1,  Emma L%Duncan%NULL%1,  Tim D%Spector%NULL%1,  Sebastien%Ourselin%NULL%1,  Claire J%Steves%claire.j.steves@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Qinxue%Shen%NULL%1,  Wei%Guo%NULL%1,  Ting%Guo%NULL%1,  Jinhua%Li%NULL%1,  Wenlong%He%NULL%1,  Shanshan%Ni%NULL%1,  Xiaoli%Ouyang%NULL%1,  Jiyang%Liu%NULL%1,  Yuanlin%Xie%NULL%1,  Xin%Tan%NULL%1,  Zhiguo%Zhou%13807311490@163.com%1,  Hong%Peng%penghong66@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Zhang%NULL%1,  Songming%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lu%Lin%NULL%1,  Xiayang%Jiang%NULL%1,  Zhenling%Zhang%NULL%1,  Siwen%Huang%NULL%1,  Zhenyi%Zhang%NULL%1,  Zhaoxiong%Fang%NULL%1,  Zhiqiang%Gu%NULL%1,  Liangqing%Gao%NULL%1,  Honggang%Shi%NULL%1,  Lei%Mai%NULL%1,  Yuan%Liu%NULL%1,  Xianqi%Lin%NULL%1,  Renxu%Lai%NULL%1,  Zhixiang%Yan%NULL%1,  Xiaofeng%Li%NULL%2,  Xiaofeng%Li%NULL%0,  Hong%Shan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,  Hui%Li%NULL%1,  Xiao-Xia%Lu%NULL%1,  Han%Xiao%NULL%1,  Jie%Ren%NULL%1,  Fu-Rong%Zhang%792523496@qq.com%1,  Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Xu%NULL%1,  Xufang%Li%NULL%1,  Bing%Zhu%NULL%1,  Huiying%Liang%NULL%1,  Chunxiao%Fang%NULL%1,  Yu%Gong%NULL%1,  Qiaozhi%Guo%NULL%1,  Xin%Sun%NULL%1,  Danyang%Zhao%NULL%1,  Jun%Shen%NULL%1,  Huayan%Zhang%NULL%1,  Hongsheng%Liu%NULL%2,  Hongsheng%Liu%NULL%0,  Huimin%Xia%huiminxia@hotmail.com%1,  Jinling%Tang%jltang@cuhk.edu.hk%1,  Kang%Zhang%kang.zhang@gmail.com%1,  Sitang%Gong%sitangg@126.com%2,  Sitang%Gong%sitangg@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yuhan%Xing%NULL%1,  Wei%Ni%NULL%1,  Qin%Wu%NULL%1,  Wenjie%Li%NULL%1,  Guoju%Li%NULL%1,  Wendi%Wang%NULL%1,  Jianning%Tong%NULL%1,  Xiufeng%Song%NULL%1,  Gary Wing Kin%Wong%NULL%1,  Quansheng%Xing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giacomo%Brisca%giacomobrisca@gmail.com%1,  Marta%Ferretti%NULL%2,  Marta%Ferretti%NULL%0,  Giulia%Sartoris%NULL%1,  Maria Beatrice%Damasio%NULL%1,  Isabella%Buffoni%NULL%2,  Isabella%Buffoni%NULL%0,  Daniela%Pirlo%NULL%1,  Marta%Romanengo%NULL%2,  Emanuela%Piccotti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Louise%Gaborieau%NULL%1,  Celine%Delestrain%NULL%1,  Philippe%Bensaid%NULL%1,  Audrey%Vizeneux%NULL%1,  Philippe%Blanc%NULL%1,  Aurélie%Garraffo%NULL%1,  Emilie%Georget%NULL%1,  Arnaud%Chalvon%NULL%1,  Nathalie%Garrec%NULL%1,  Yacine%Laoudi%NULL%1,  Emmanuelle%Varon%NULL%1,  Sébastien%Rouget%NULL%1,  Alexandre%Pupin%NULL%1,  Khaled%Abdel Aal%NULL%1,  David%Toulorge%NULL%1,  Sarah%Ducrocq%NULL%1,  Catherine%Barrey%NULL%1,  Letitia%Pantalone%NULL%1,  Blandine%Robert%NULL%1,  Lydie%Joly-Sanchez%NULL%1,  Caroline%Thach%NULL%2,  Caroline%Thach%NULL%0,  Caroline%Masserot-Lureau%NULL%1,  Jamilé%Chahine%NULL%1,  Veronica%Risso Garcia-Roudaut%NULL%1,  Jonathan%Rozental%NULL%1,  Sylvie%Nathanson%NULL%1,  Mohamed%Khaled%NULL%1,  Alexis%Mandelcwajg%NULL%1,  Nadia%Demayer%NULL%1,  Stéphanie%Muller%NULL%1,  Mustapha%Mazerghane%NULL%1,  Ralph%Epaud%NULL%1,  Béatrice%Pellegrino%NULL%2,  Béatrice%Pellegrino%NULL%0,  Fouad%Madhi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chun‐Zhen%Hua%NULL%1,  Zi‐Ping%Miao%NULL%1,  Ji‐Shan%Zheng%NULL%2,  Ji‐Shan%Zheng%NULL%0,  Qian%Huang%NULL%1,  Qing‐Feng%Sun%NULL%1,  Hong‐Ping%Lu%NULL%1,  Fei‐Fei%Su%NULL%1,  Wei‐Hong%Wang%NULL%1,  Lie‐Ping%Huang%NULL%1,  Da‐Qing%Chen%NULL%1,  Zhi‐Wei%Xu%NULL%1,  Le‐Dan%Ji%NULL%1,  Hong‐Ping%Zhang%NULL%1,  Xiao‐Wei%Yang%NULL%1,  Ming‐Hui%Li%NULL%1,  Yue‐Yan%Mao%NULL%1,  Man‐Zhen%Ying%NULL%1,  Sheng%Ye%NULL%1,  Qiang%Shu%shuqiang@zju.edu.cn%1,  En‐Fu%Chen%enfchen@cdc.zj.cn%2,  En‐Fu%Chen%enfchen@cdc.zj.cn%0,  Jian‐Feng%Liang%NULL%1,  Wei%Wang%NULL%1,  Zhi‐Min%Chen%NULL%1,  Wei%Li%NULL%1,  Jun‐Fen%Fu%fjf68@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[María%de Ceano-Vivas%NULL%1,  Irene%Martín-Espín%NULL%1,  Teresa%del Rosal%NULL%1,  Marta%Bueno-Barriocanal%NULL%2,  Marta%Bueno-Barriocanal%NULL%0,  Marta%Plata-Gallardo%NULL%1,  José Antonio%Ruiz-Domínguez%NULL%1,  Rosario%López-López%NULL%2,  Rosario%López-López%NULL%0,  Miguel Ángel%Molina-Gutiérrez%NULL%1,  Patricia%Bote-Gascón%NULL%2,  Patricia%Bote-Gascón%NULL%0,  Isabel%González-Bertolín%NULL%1,  Paula%García-Sánchez%NULL%2,  Paula%García-Sánchez%NULL%0,  Julia%Martín-Sánchez%NULL%1,  Begoña%de Miguel-Lavisier%NULL%1,  Talía%Sainz%NULL%1,  Fernando%Baquero-Artigao%NULL%1,  Ana%Méndez-Echevarría%NULL%1,  Cristina%Calvo%NULL%2,  Cristina%Calvo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,  Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,  Federico%Marchetti%federico.marchetti@auslromagna.it%1,  Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,  Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,  Marta%Romanengo%marta.romanengo@gmail.com%0,  Enrico%Felici%enrico.felici@ospedale.al.it%1,  Antonio%Urbino%afurbino@icloud.com%1,  Liviana%Da Dalt%liviana.dadalt@unipd.it%1,  Lucio%Verdoni%lverdoni@asst-pg23.it%1,  Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,  Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,  Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,  Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,  Anna Maria%Musolino%annamaria.musolino@opbg.net%1,  Marco%Binotti%marco.binotti@med.uniupo.it%1,  Paolo%Biban%paolo.biban@aovr.veneto.it%1,  Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,  Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,  Flavia%Nicoloso%flavianicoloso@gmail.com%1,  Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,  Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,  Danilo%Buonsenso%danilobuonsenso@gmail.com%1,  Massimo%Chiossi%max.chiossi@gmail.com%1,  Rino%Agostiniani%rinoagostiniani@gmail.com%1,  Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,  Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,  Marcello%Lanari%marcello.lanari@unibo.it%1,  Serena%Arrigo%arrigoserena@gmail.com%1,  Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,  Matteo%Lenge%matteo.lenge@meyer.it%1,  Stefano%Masi%stefano.masi@meyer.it%1,  Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,  Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,  NULL%NULL%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%2,   Jianbo%Shao%xzhuge27@163.com%2,   Yu%Guo%NULL%4,   Yu%Guo%NULL%0,   Xuehua%Peng%NULL%4,   Xuehua%Peng%NULL%0,   Zhen%Li%NULL%2,   Daoyu%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%0,   Jianbo%Shao%xzhuge27@163.com%0,   Yu%Guo%NULL%0,   Yu%Guo%NULL%0,   Xuehua%Peng%NULL%0,   Xuehua%Peng%NULL%0,   Zhen%Li%NULL%0,   Daoyu%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michela%Antonelli%NULL%1,   Rose S%Penfold%NULL%1,   Jordi%Merino%NULL%1,   Carole H%Sudre%NULL%1,   Erika%Molteni%NULL%1,   Sarah%Berry%NULL%1,   Liane S%Canas%NULL%1,   Mark S%Graham%NULL%1,   Kerstin%Klaser%NULL%1,   Marc%Modat%NULL%1,   Benjamin%Murray%NULL%1,   Eric%Kerfoot%NULL%1,   Liyuan%Chen%NULL%1,   Jie%Deng%NULL%1,   Marc F%Österdahl%NULL%1,   Nathan J%Cheetham%NULL%1,   David A%Drew%NULL%1,   Long H%Nguyen%NULL%1,   Joan Capdevila%Pujol%NULL%1,   Christina%Hu%NULL%1,   Somesh%Selvachandran%NULL%1,   Lorenzo%Polidori%NULL%1,   Anna%May%NULL%1,   Jonathan%Wolf%NULL%1,   Andrew T%Chan%NULL%1,   Alexander%Hammers%NULL%1,   Emma L%Duncan%NULL%1,   Tim D%Spector%NULL%1,   Sebastien%Ourselin%NULL%1,   Claire J%Steves%claire.j.steves@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Qinxue%Shen%NULL%1,   Wei%Guo%NULL%1,   Ting%Guo%NULL%1,   Jinhua%Li%NULL%1,   Wenlong%He%NULL%1,   Shanshan%Ni%NULL%1,   Xiaoli%Ouyang%NULL%1,   Jiyang%Liu%NULL%1,   Yuanlin%Xie%NULL%1,   Xin%Tan%NULL%1,   Zhiguo%Zhou%13807311490@163.com%1,   Hong%Peng%penghong66@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Zhang%NULL%1,   Songming%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lu%Lin%NULL%1,   Xiayang%Jiang%NULL%1,   Zhenling%Zhang%NULL%1,   Siwen%Huang%NULL%1,   Zhenyi%Zhang%NULL%1,   Zhaoxiong%Fang%NULL%1,   Zhiqiang%Gu%NULL%1,   Liangqing%Gao%NULL%1,   Honggang%Shi%NULL%1,   Lei%Mai%NULL%1,   Yuan%Liu%NULL%1,   Xianqi%Lin%NULL%1,   Renxu%Lai%NULL%1,   Zhixiang%Yan%NULL%1,   Xiaofeng%Li%NULL%2,   Xiaofeng%Li%NULL%0,   Hong%Shan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,   Hui%Li%NULL%1,   Xiao-Xia%Lu%NULL%1,   Han%Xiao%NULL%1,   Jie%Ren%NULL%1,   Fu-Rong%Zhang%792523496@qq.com%1,   Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Xu%NULL%1,   Xufang%Li%NULL%1,   Bing%Zhu%NULL%1,   Huiying%Liang%NULL%1,   Chunxiao%Fang%NULL%1,   Yu%Gong%NULL%1,   Qiaozhi%Guo%NULL%1,   Xin%Sun%NULL%1,   Danyang%Zhao%NULL%1,   Jun%Shen%NULL%1,   Huayan%Zhang%NULL%1,   Hongsheng%Liu%NULL%2,   Hongsheng%Liu%NULL%0,   Huimin%Xia%huiminxia@hotmail.com%1,   Jinling%Tang%jltang@cuhk.edu.hk%1,   Kang%Zhang%kang.zhang@gmail.com%1,   Sitang%Gong%sitangg@126.com%2,   Sitang%Gong%sitangg@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yuhan%Xing%NULL%1,   Wei%Ni%NULL%1,   Qin%Wu%NULL%1,   Wenjie%Li%NULL%1,   Guoju%Li%NULL%1,   Wendi%Wang%NULL%1,   Jianning%Tong%NULL%1,   Xiufeng%Song%NULL%1,   Gary Wing Kin%Wong%NULL%1,   Quansheng%Xing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giacomo%Brisca%giacomobrisca@gmail.com%1,   Marta%Ferretti%NULL%2,   Marta%Ferretti%NULL%0,   Giulia%Sartoris%NULL%1,   Maria Beatrice%Damasio%NULL%1,   Isabella%Buffoni%NULL%2,   Isabella%Buffoni%NULL%0,   Daniela%Pirlo%NULL%1,   Marta%Romanengo%NULL%2,   Emanuela%Piccotti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Louise%Gaborieau%NULL%1,   Celine%Delestrain%NULL%1,   Philippe%Bensaid%NULL%1,   Audrey%Vizeneux%NULL%1,   Philippe%Blanc%NULL%1,   Aurélie%Garraffo%NULL%1,   Emilie%Georget%NULL%1,   Arnaud%Chalvon%NULL%1,   Nathalie%Garrec%NULL%1,   Yacine%Laoudi%NULL%1,   Emmanuelle%Varon%NULL%1,   Sébastien%Rouget%NULL%1,   Alexandre%Pupin%NULL%1,   Khaled%Abdel Aal%NULL%1,   David%Toulorge%NULL%1,   Sarah%Ducrocq%NULL%1,   Catherine%Barrey%NULL%1,   Letitia%Pantalone%NULL%1,   Blandine%Robert%NULL%1,   Lydie%Joly-Sanchez%NULL%1,   Caroline%Thach%NULL%2,   Caroline%Thach%NULL%0,   Caroline%Masserot-Lureau%NULL%1,   Jamilé%Chahine%NULL%1,   Veronica%Risso Garcia-Roudaut%NULL%1,   Jonathan%Rozental%NULL%1,   Sylvie%Nathanson%NULL%1,   Mohamed%Khaled%NULL%1,   Alexis%Mandelcwajg%NULL%1,   Nadia%Demayer%NULL%1,   Stéphanie%Muller%NULL%1,   Mustapha%Mazerghane%NULL%1,   Ralph%Epaud%NULL%1,   Béatrice%Pellegrino%NULL%2,   Béatrice%Pellegrino%NULL%0,   Fouad%Madhi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chun‐Zhen%Hua%NULL%1,   Zi‐Ping%Miao%NULL%1,   Ji‐Shan%Zheng%NULL%2,   Ji‐Shan%Zheng%NULL%0,   Qian%Huang%NULL%1,   Qing‐Feng%Sun%NULL%1,   Hong‐Ping%Lu%NULL%1,   Fei‐Fei%Su%NULL%1,   Wei‐Hong%Wang%NULL%1,   Lie‐Ping%Huang%NULL%1,   Da‐Qing%Chen%NULL%1,   Zhi‐Wei%Xu%NULL%1,   Le‐Dan%Ji%NULL%1,   Hong‐Ping%Zhang%NULL%1,   Xiao‐Wei%Yang%NULL%1,   Ming‐Hui%Li%NULL%1,   Yue‐Yan%Mao%NULL%1,   Man‐Zhen%Ying%NULL%1,   Sheng%Ye%NULL%1,   Qiang%Shu%shuqiang@zju.edu.cn%1,   En‐Fu%Chen%enfchen@cdc.zj.cn%2,   En‐Fu%Chen%enfchen@cdc.zj.cn%0,   Jian‐Feng%Liang%NULL%1,   Wei%Wang%NULL%1,   Zhi‐Min%Chen%NULL%1,   Wei%Li%NULL%1,   Jun‐Fen%Fu%fjf68@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[María%de Ceano-Vivas%NULL%1,   Irene%Martín-Espín%NULL%1,   Teresa%del Rosal%NULL%1,   Marta%Bueno-Barriocanal%NULL%2,   Marta%Bueno-Barriocanal%NULL%0,   Marta%Plata-Gallardo%NULL%1,   José Antonio%Ruiz-Domínguez%NULL%1,   Rosario%López-López%NULL%2,   Rosario%López-López%NULL%0,   Miguel Ángel%Molina-Gutiérrez%NULL%1,   Patricia%Bote-Gascón%NULL%2,   Patricia%Bote-Gascón%NULL%0,   Isabel%González-Bertolín%NULL%1,   Paula%García-Sánchez%NULL%2,   Paula%García-Sánchez%NULL%0,   Julia%Martín-Sánchez%NULL%1,   Begoña%de Miguel-Lavisier%NULL%1,   Talía%Sainz%NULL%1,   Fernando%Baquero-Artigao%NULL%1,   Ana%Méndez-Echevarría%NULL%1,   Cristina%Calvo%NULL%2,   Cristina%Calvo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,   Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,   Federico%Marchetti%federico.marchetti@auslromagna.it%1,   Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,   Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,   Marta%Romanengo%marta.romanengo@gmail.com%0,   Enrico%Felici%enrico.felici@ospedale.al.it%1,   Antonio%Urbino%afurbino@icloud.com%1,   Liviana%Da Dalt%liviana.dadalt@unipd.it%1,   Lucio%Verdoni%lverdoni@asst-pg23.it%1,   Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,   Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,   Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,   Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,   Anna Maria%Musolino%annamaria.musolino@opbg.net%1,   Marco%Binotti%marco.binotti@med.uniupo.it%1,   Paolo%Biban%paolo.biban@aovr.veneto.it%1,   Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,   Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,   Flavia%Nicoloso%flavianicoloso@gmail.com%1,   Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,   Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,   Danilo%Buonsenso%danilobuonsenso@gmail.com%1,   Massimo%Chiossi%max.chiossi@gmail.com%1,   Rino%Agostiniani%rinoagostiniani@gmail.com%1,   Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,   Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,   Marcello%Lanari%marcello.lanari@unibo.it%1,   Serena%Arrigo%arrigoserena@gmail.com%1,   Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,   Matteo%Lenge%matteo.lenge@meyer.it%1,   Stefano%Masi%stefano.masi@meyer.it%1,   Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,   Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,   NULL%NULL%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%2,    Jianbo%Shao%xzhuge27@163.com%2,    Yu%Guo%NULL%4,    Yu%Guo%NULL%0,    Xuehua%Peng%NULL%4,    Xuehua%Peng%NULL%0,    Zhen%Li%NULL%2,    Daoyu%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%0,    Jianbo%Shao%xzhuge27@163.com%0,    Yu%Guo%NULL%0,    Yu%Guo%NULL%0,    Xuehua%Peng%NULL%0,    Xuehua%Peng%NULL%0,    Zhen%Li%NULL%0,    Daoyu%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michela%Antonelli%NULL%1,    Rose S%Penfold%NULL%1,    Jordi%Merino%NULL%1,    Carole H%Sudre%NULL%1,    Erika%Molteni%NULL%1,    Sarah%Berry%NULL%1,    Liane S%Canas%NULL%1,    Mark S%Graham%NULL%1,    Kerstin%Klaser%NULL%1,    Marc%Modat%NULL%1,    Benjamin%Murray%NULL%1,    Eric%Kerfoot%NULL%1,    Liyuan%Chen%NULL%1,    Jie%Deng%NULL%1,    Marc F%Österdahl%NULL%1,    Nathan J%Cheetham%NULL%1,    David A%Drew%NULL%1,    Long H%Nguyen%NULL%1,    Joan Capdevila%Pujol%NULL%1,    Christina%Hu%NULL%1,    Somesh%Selvachandran%NULL%1,    Lorenzo%Polidori%NULL%1,    Anna%May%NULL%1,    Jonathan%Wolf%NULL%1,    Andrew T%Chan%NULL%1,    Alexander%Hammers%NULL%1,    Emma L%Duncan%NULL%1,    Tim D%Spector%NULL%1,    Sebastien%Ourselin%NULL%1,    Claire J%Steves%claire.j.steves@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Qinxue%Shen%NULL%1,    Wei%Guo%NULL%1,    Ting%Guo%NULL%1,    Jinhua%Li%NULL%1,    Wenlong%He%NULL%1,    Shanshan%Ni%NULL%1,    Xiaoli%Ouyang%NULL%1,    Jiyang%Liu%NULL%1,    Yuanlin%Xie%NULL%1,    Xin%Tan%NULL%1,    Zhiguo%Zhou%13807311490@163.com%0,    Hong%Peng%penghong66@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Zhang%NULL%1,    Songming%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lu%Lin%NULL%1,    Xiayang%Jiang%NULL%1,    Zhenling%Zhang%NULL%1,    Siwen%Huang%NULL%1,    Zhenyi%Zhang%NULL%1,    Zhaoxiong%Fang%NULL%1,    Zhiqiang%Gu%NULL%1,    Liangqing%Gao%NULL%1,    Honggang%Shi%NULL%1,    Lei%Mai%NULL%1,    Yuan%Liu%NULL%1,    Xianqi%Lin%NULL%1,    Renxu%Lai%NULL%1,    Zhixiang%Yan%NULL%1,    Xiaofeng%Li%NULL%2,    Xiaofeng%Li%NULL%0,    Hong%Shan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,    Hui%Li%NULL%1,    Xiao-Xia%Lu%NULL%1,    Han%Xiao%NULL%0,    Jie%Ren%NULL%1,    Fu-Rong%Zhang%792523496@qq.com%1,    Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Xu%NULL%1,    Xufang%Li%NULL%1,    Bing%Zhu%NULL%1,    Huiying%Liang%NULL%1,    Chunxiao%Fang%NULL%1,    Yu%Gong%NULL%1,    Qiaozhi%Guo%NULL%1,    Xin%Sun%NULL%1,    Danyang%Zhao%NULL%1,    Jun%Shen%NULL%1,    Huayan%Zhang%NULL%1,    Hongsheng%Liu%NULL%2,    Hongsheng%Liu%NULL%0,    Huimin%Xia%huiminxia@hotmail.com%1,    Jinling%Tang%jltang@cuhk.edu.hk%1,    Kang%Zhang%kang.zhang@gmail.com%1,    Sitang%Gong%sitangg@126.com%2,    Sitang%Gong%sitangg@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yuhan%Xing%NULL%1,    Wei%Ni%NULL%1,    Qin%Wu%NULL%1,    Wenjie%Li%NULL%1,    Guoju%Li%NULL%1,    Wendi%Wang%NULL%1,    Jianning%Tong%NULL%1,    Xiufeng%Song%NULL%1,    Gary Wing Kin%Wong%NULL%1,    Quansheng%Xing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giacomo%Brisca%giacomobrisca@gmail.com%1,    Marta%Ferretti%NULL%2,    Marta%Ferretti%NULL%0,    Giulia%Sartoris%NULL%1,    Maria Beatrice%Damasio%NULL%1,    Isabella%Buffoni%NULL%2,    Isabella%Buffoni%NULL%0,    Daniela%Pirlo%NULL%1,    Marta%Romanengo%NULL%2,    Emanuela%Piccotti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Louise%Gaborieau%NULL%1,    Celine%Delestrain%NULL%1,    Philippe%Bensaid%NULL%1,    Audrey%Vizeneux%NULL%1,    Philippe%Blanc%NULL%1,    Aurélie%Garraffo%NULL%1,    Emilie%Georget%NULL%1,    Arnaud%Chalvon%NULL%1,    Nathalie%Garrec%NULL%1,    Yacine%Laoudi%NULL%1,    Emmanuelle%Varon%NULL%1,    Sébastien%Rouget%NULL%1,    Alexandre%Pupin%NULL%1,    Khaled%Abdel Aal%NULL%1,    David%Toulorge%NULL%1,    Sarah%Ducrocq%NULL%1,    Catherine%Barrey%NULL%1,    Letitia%Pantalone%NULL%1,    Blandine%Robert%NULL%1,    Lydie%Joly-Sanchez%NULL%1,    Caroline%Thach%NULL%2,    Caroline%Thach%NULL%0,    Caroline%Masserot-Lureau%NULL%1,    Jamilé%Chahine%NULL%1,    Veronica%Risso Garcia-Roudaut%NULL%1,    Jonathan%Rozental%NULL%1,    Sylvie%Nathanson%NULL%1,    Mohamed%Khaled%NULL%1,    Alexis%Mandelcwajg%NULL%1,    Nadia%Demayer%NULL%1,    Stéphanie%Muller%NULL%1,    Mustapha%Mazerghane%NULL%1,    Ralph%Epaud%NULL%1,    Béatrice%Pellegrino%NULL%2,    Béatrice%Pellegrino%NULL%0,    Fouad%Madhi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chun‐Zhen%Hua%NULL%1,    Zi‐Ping%Miao%NULL%1,    Ji‐Shan%Zheng%NULL%2,    Ji‐Shan%Zheng%NULL%0,    Qian%Huang%NULL%1,    Qing‐Feng%Sun%NULL%1,    Hong‐Ping%Lu%NULL%1,    Fei‐Fei%Su%NULL%1,    Wei‐Hong%Wang%NULL%1,    Lie‐Ping%Huang%NULL%1,    Da‐Qing%Chen%NULL%1,    Zhi‐Wei%Xu%NULL%1,    Le‐Dan%Ji%NULL%1,    Hong‐Ping%Zhang%NULL%1,    Xiao‐Wei%Yang%NULL%1,    Ming‐Hui%Li%NULL%1,    Yue‐Yan%Mao%NULL%1,    Man‐Zhen%Ying%NULL%1,    Sheng%Ye%NULL%1,    Qiang%Shu%shuqiang@zju.edu.cn%1,    En‐Fu%Chen%enfchen@cdc.zj.cn%2,    En‐Fu%Chen%enfchen@cdc.zj.cn%0,    Jian‐Feng%Liang%NULL%1,    Wei%Wang%NULL%1,    Zhi‐Min%Chen%NULL%1,    Wei%Li%NULL%1,    Jun‐Fen%Fu%fjf68@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[María%de Ceano-Vivas%NULL%1,    Irene%Martín-Espín%NULL%1,    Teresa%del Rosal%NULL%1,    Marta%Bueno-Barriocanal%NULL%2,    Marta%Bueno-Barriocanal%NULL%0,    Marta%Plata-Gallardo%NULL%1,    José Antonio%Ruiz-Domínguez%NULL%1,    Rosario%López-López%NULL%2,    Rosario%López-López%NULL%0,    Miguel Ángel%Molina-Gutiérrez%NULL%1,    Patricia%Bote-Gascón%NULL%2,    Patricia%Bote-Gascón%NULL%0,    Isabel%González-Bertolín%NULL%1,    Paula%García-Sánchez%NULL%2,    Paula%García-Sánchez%NULL%0,    Julia%Martín-Sánchez%NULL%1,    Begoña%de Miguel-Lavisier%NULL%1,    Talía%Sainz%NULL%1,    Fernando%Baquero-Artigao%NULL%1,    Ana%Méndez-Echevarría%NULL%1,    Cristina%Calvo%NULL%2,    Cristina%Calvo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,    Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,    Federico%Marchetti%federico.marchetti@auslromagna.it%1,    Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,    Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,    Marta%Romanengo%marta.romanengo@gmail.com%0,    Enrico%Felici%enrico.felici@ospedale.al.it%1,    Antonio%Urbino%afurbino@icloud.com%1,    Liviana%Da Dalt%liviana.dadalt@unipd.it%1,    Lucio%Verdoni%lverdoni@asst-pg23.it%1,    Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,    Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,    Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,    Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,    Anna Maria%Musolino%annamaria.musolino@opbg.net%1,    Marco%Binotti%marco.binotti@med.uniupo.it%1,    Paolo%Biban%paolo.biban@aovr.veneto.it%1,    Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,    Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,    Flavia%Nicoloso%flavianicoloso@gmail.com%1,    Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,    Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,    Danilo%Buonsenso%danilobuonsenso@gmail.com%1,    Massimo%Chiossi%max.chiossi@gmail.com%1,    Rino%Agostiniani%rinoagostiniani@gmail.com%1,    Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,    Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,    Marcello%Lanari%marcello.lanari@unibo.it%1,    Serena%Arrigo%arrigoserena@gmail.com%1,    Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,    Matteo%Lenge%matteo.lenge@meyer.it%1,    Stefano%Masi%stefano.masi@meyer.it%1,    Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,    Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,    NULL%NULL%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -763,7 +889,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -792,7 +918,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -821,7 +947,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -850,7 +976,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -908,7 +1034,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -937,7 +1063,7 @@
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -966,7 +1092,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -995,7 +1121,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1111,7 +1237,7 @@
         <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="F14" t="s">
         <v>72</v>
@@ -1140,7 +1266,7 @@
         <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="F15" t="s">
         <v>76</v>
@@ -1169,7 +1295,7 @@
         <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="F16" t="s">
         <v>80</v>
@@ -1198,7 +1324,7 @@
         <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="F17" t="s">
         <v>85</v>
@@ -1227,7 +1353,7 @@
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="F18" t="s">
         <v>89</v>
@@ -1256,7 +1382,7 @@
         <v>92</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="F19" t="s">
         <v>94</v>

--- a/Covid_19_Dataset_and_References/References/82.xlsx
+++ b/Covid_19_Dataset_and_References/References/82.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="175">
   <si>
     <t>Doi</t>
   </si>
@@ -555,6 +555,117 @@
   </si>
   <si>
     <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,    Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,    Federico%Marchetti%federico.marchetti@auslromagna.it%1,    Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,    Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,    Marta%Romanengo%marta.romanengo@gmail.com%0,    Enrico%Felici%enrico.felici@ospedale.al.it%1,    Antonio%Urbino%afurbino@icloud.com%1,    Liviana%Da Dalt%liviana.dadalt@unipd.it%1,    Lucio%Verdoni%lverdoni@asst-pg23.it%1,    Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,    Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,    Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,    Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,    Anna Maria%Musolino%annamaria.musolino@opbg.net%1,    Marco%Binotti%marco.binotti@med.uniupo.it%1,    Paolo%Biban%paolo.biban@aovr.veneto.it%1,    Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,    Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,    Flavia%Nicoloso%flavianicoloso@gmail.com%1,    Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,    Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,    Danilo%Buonsenso%danilobuonsenso@gmail.com%1,    Massimo%Chiossi%max.chiossi@gmail.com%1,    Rino%Agostiniani%rinoagostiniani@gmail.com%1,    Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,    Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,    Marcello%Lanari%marcello.lanari@unibo.it%1,    Serena%Arrigo%arrigoserena@gmail.com%1,    Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,    Matteo%Lenge%matteo.lenge@meyer.it%1,    Stefano%Masi%stefano.masi@meyer.it%1,    Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,    Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%2,     Jianbo%Shao%xzhuge27@163.com%2,     Yu%Guo%NULL%4,     Yu%Guo%NULL%0,     Xuehua%Peng%NULL%4,     Xuehua%Peng%NULL%0,     Zhen%Li%NULL%2,     Daoyu%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%0,     Jianbo%Shao%xzhuge27@163.com%0,     Yu%Guo%NULL%0,     Yu%Guo%NULL%0,     Xuehua%Peng%NULL%0,     Xuehua%Peng%NULL%0,     Zhen%Li%NULL%0,     Daoyu%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michela%Antonelli%NULL%1,     Rose S%Penfold%NULL%1,     Jordi%Merino%NULL%1,     Carole H%Sudre%NULL%1,     Erika%Molteni%NULL%1,     Sarah%Berry%NULL%1,     Liane S%Canas%NULL%1,     Mark S%Graham%NULL%1,     Kerstin%Klaser%NULL%1,     Marc%Modat%NULL%1,     Benjamin%Murray%NULL%1,     Eric%Kerfoot%NULL%1,     Liyuan%Chen%NULL%1,     Jie%Deng%NULL%1,     Marc F%Österdahl%NULL%1,     Nathan J%Cheetham%NULL%1,     David A%Drew%NULL%1,     Long H%Nguyen%NULL%1,     Joan Capdevila%Pujol%NULL%1,     Christina%Hu%NULL%1,     Somesh%Selvachandran%NULL%1,     Lorenzo%Polidori%NULL%1,     Anna%May%NULL%1,     Jonathan%Wolf%NULL%1,     Andrew T%Chan%NULL%1,     Alexander%Hammers%NULL%1,     Emma L%Duncan%NULL%1,     Tim D%Spector%NULL%1,     Sebastien%Ourselin%NULL%1,     Claire J%Steves%claire.j.steves@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Qinxue%Shen%NULL%1,     Wei%Guo%NULL%1,     Ting%Guo%NULL%1,     Jinhua%Li%NULL%1,     Wenlong%He%NULL%1,     Shanshan%Ni%NULL%1,     Xiaoli%Ouyang%NULL%1,     Jiyang%Liu%NULL%1,     Yuanlin%Xie%NULL%1,     Xin%Tan%NULL%1,     Zhiguo%Zhou%13807311490@163.com%1,     Hong%Peng%penghong66@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>"A comparative\u2010descriptive analysis of clinical characteristics in 2019\u2010coronavirus\u2010infected children and adults"</t>
+  </si>
+  <si>
+    <t>[Ya\u2010nan%Han%xref no email%1, Zhan\u2010wei%Feng%xref no email%1, Li\u2010na%Sun%xref no email%1, Xiao\u2010xia%Ren%xref no email%1, Hua%Wang%xref no email%1, Yong\u2010ming%Xue%xref no email%1, Yi%Wang%xref no email%1, Ying%Fang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-22</t>
+  </si>
+  <si>
+    <t>[Lan%Zhang%NULL%1,     Songming%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lu%Lin%NULL%1,     Xiayang%Jiang%NULL%1,     Zhenling%Zhang%NULL%1,     Siwen%Huang%NULL%1,     Zhenyi%Zhang%NULL%1,     Zhaoxiong%Fang%NULL%1,     Zhiqiang%Gu%NULL%1,     Liangqing%Gao%NULL%1,     Honggang%Shi%NULL%1,     Lei%Mai%NULL%1,     Yuan%Liu%NULL%1,     Xianqi%Lin%NULL%1,     Renxu%Lai%NULL%1,     Zhixiang%Yan%NULL%1,     Xiaofeng%Li%NULL%2,     Xiaofeng%Li%NULL%0,     Hong%Shan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,     Hui%Li%NULL%1,     Xiao-Xia%Lu%NULL%1,     Han%Xiao%NULL%1,     Jie%Ren%NULL%1,     Fu-Rong%Zhang%792523496@qq.com%1,     Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Xu%NULL%1,     Xufang%Li%NULL%1,     Bing%Zhu%NULL%1,     Huiying%Liang%NULL%1,     Chunxiao%Fang%NULL%1,     Yu%Gong%NULL%1,     Qiaozhi%Guo%NULL%1,     Xin%Sun%NULL%1,     Danyang%Zhao%NULL%1,     Jun%Shen%NULL%1,     Huayan%Zhang%NULL%1,     Hongsheng%Liu%NULL%2,     Hongsheng%Liu%NULL%0,     Huimin%Xia%huiminxia@hotmail.com%1,     Jinling%Tang%jltang@cuhk.edu.hk%1,     Kang%Zhang%kang.zhang@gmail.com%1,     Sitang%Gong%sitangg@126.com%2,     Sitang%Gong%sitangg@126.com%0]</t>
+  </si>
+  <si>
+    <t>"Screening and Severity of Coronavirus Disease 2019 (COVID-19) in Children in Madrid, Spain"</t>
+  </si>
+  <si>
+    <t>[Alfredo%Tagarro%xref no email%1, Cristina%Epalza%xref no email%1, Mar%Santos%xref no email%1, Francisco Jos\u00e9%Sanz-Santaeufemia%xref no email%1, Enrique%Otheo%xref no email%1, Cinta%Moraleda%xref no email%1, Cristina%Calvo%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>[Yuhan%Xing%NULL%1,     Wei%Ni%NULL%1,     Qin%Wu%NULL%1,     Wenjie%Li%NULL%1,     Guoju%Li%NULL%1,     Wendi%Wang%NULL%1,     Jianning%Tong%NULL%1,     Xiufeng%Song%NULL%1,     Gary Wing Kin%Wong%NULL%1,     Quansheng%Xing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giacomo%Brisca%giacomobrisca@gmail.com%1,     Marta%Ferretti%NULL%2,     Marta%Ferretti%NULL%0,     Giulia%Sartoris%NULL%1,     Maria Beatrice%Damasio%NULL%1,     Isabella%Buffoni%NULL%2,     Isabella%Buffoni%NULL%0,     Daniela%Pirlo%NULL%1,     Marta%Romanengo%NULL%2,     Emanuela%Piccotti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Louise%Gaborieau%NULL%1,     Celine%Delestrain%NULL%1,     Philippe%Bensaid%NULL%1,     Audrey%Vizeneux%NULL%1,     Philippe%Blanc%NULL%1,     Aurélie%Garraffo%NULL%1,     Emilie%Georget%NULL%1,     Arnaud%Chalvon%NULL%1,     Nathalie%Garrec%NULL%1,     Yacine%Laoudi%NULL%1,     Emmanuelle%Varon%NULL%1,     Sébastien%Rouget%NULL%1,     Alexandre%Pupin%NULL%1,     Khaled%Abdel Aal%NULL%1,     David%Toulorge%NULL%1,     Sarah%Ducrocq%NULL%1,     Catherine%Barrey%NULL%1,     Letitia%Pantalone%NULL%1,     Blandine%Robert%NULL%1,     Lydie%Joly-Sanchez%NULL%1,     Caroline%Thach%NULL%2,     Caroline%Thach%NULL%0,     Caroline%Masserot-Lureau%NULL%1,     Jamilé%Chahine%NULL%1,     Veronica%Risso Garcia-Roudaut%NULL%1,     Jonathan%Rozental%NULL%1,     Sylvie%Nathanson%NULL%1,     Mohamed%Khaled%NULL%1,     Alexis%Mandelcwajg%NULL%1,     Nadia%Demayer%NULL%1,     Stéphanie%Muller%NULL%1,     Mustapha%Mazerghane%NULL%1,     Ralph%Epaud%NULL%1,     Béatrice%Pellegrino%NULL%2,     Béatrice%Pellegrino%NULL%0,     Fouad%Madhi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chun‐Zhen%Hua%NULL%1,     Zi‐Ping%Miao%NULL%1,     Ji‐Shan%Zheng%NULL%2,     Ji‐Shan%Zheng%NULL%0,     Qian%Huang%NULL%1,     Qing‐Feng%Sun%NULL%1,     Hong‐Ping%Lu%NULL%1,     Fei‐Fei%Su%NULL%1,     Wei‐Hong%Wang%NULL%1,     Lie‐Ping%Huang%NULL%1,     Da‐Qing%Chen%NULL%1,     Zhi‐Wei%Xu%NULL%1,     Le‐Dan%Ji%NULL%1,     Hong‐Ping%Zhang%NULL%1,     Xiao‐Wei%Yang%NULL%1,     Ming‐Hui%Li%NULL%1,     Yue‐Yan%Mao%NULL%1,     Man‐Zhen%Ying%NULL%1,     Sheng%Ye%NULL%1,     Qiang%Shu%shuqiang@zju.edu.cn%1,     En‐Fu%Chen%enfchen@cdc.zj.cn%2,     En‐Fu%Chen%enfchen@cdc.zj.cn%0,     Jian‐Feng%Liang%NULL%1,     Wei%Wang%NULL%1,     Zhi‐Min%Chen%NULL%1,     Wei%Li%NULL%1,     Jun‐Fen%Fu%fjf68@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[María%de Ceano-Vivas%NULL%1,     Irene%Martín-Espín%NULL%1,     Teresa%del Rosal%NULL%1,     Marta%Bueno-Barriocanal%NULL%2,     Marta%Bueno-Barriocanal%NULL%0,     Marta%Plata-Gallardo%NULL%1,     José Antonio%Ruiz-Domínguez%NULL%1,     Rosario%López-López%NULL%2,     Rosario%López-López%NULL%0,     Miguel Ángel%Molina-Gutiérrez%NULL%1,     Patricia%Bote-Gascón%NULL%2,     Patricia%Bote-Gascón%NULL%0,     Isabel%González-Bertolín%NULL%1,     Paula%García-Sánchez%NULL%2,     Paula%García-Sánchez%NULL%0,     Julia%Martín-Sánchez%NULL%1,     Begoña%de Miguel-Lavisier%NULL%1,     Talía%Sainz%NULL%1,     Fernando%Baquero-Artigao%NULL%1,     Ana%Méndez-Echevarría%NULL%1,     Cristina%Calvo%NULL%2,     Cristina%Calvo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,     Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,     Federico%Marchetti%federico.marchetti@auslromagna.it%1,     Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,     Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,     Marta%Romanengo%marta.romanengo@gmail.com%0,     Enrico%Felici%enrico.felici@ospedale.al.it%1,     Antonio%Urbino%afurbino@icloud.com%1,     Liviana%Da Dalt%liviana.dadalt@unipd.it%1,     Lucio%Verdoni%lverdoni@asst-pg23.it%1,     Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,     Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,     Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,     Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,     Anna Maria%Musolino%annamaria.musolino@opbg.net%1,     Marco%Binotti%marco.binotti@med.uniupo.it%1,     Paolo%Biban%paolo.biban@aovr.veneto.it%1,     Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,     Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,     Flavia%Nicoloso%flavianicoloso@gmail.com%1,     Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,     Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,     Danilo%Buonsenso%danilobuonsenso@gmail.com%1,     Massimo%Chiossi%max.chiossi@gmail.com%1,     Rino%Agostiniani%rinoagostiniani@gmail.com%1,     Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,     Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,     Marcello%Lanari%marcello.lanari@unibo.it%1,     Serena%Arrigo%arrigoserena@gmail.com%1,     Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,     Matteo%Lenge%matteo.lenge@meyer.it%1,     Stefano%Masi%stefano.masi@meyer.it%1,     Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,     Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,     NULL%NULL%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%2,      Jianbo%Shao%xzhuge27@163.com%2,      Yu%Guo%NULL%4,      Yu%Guo%NULL%0,      Xuehua%Peng%NULL%4,      Xuehua%Peng%NULL%0,      Zhen%Li%NULL%2,      Daoyu%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%0,      Jianbo%Shao%xzhuge27@163.com%0,      Yu%Guo%NULL%0,      Yu%Guo%NULL%0,      Xuehua%Peng%NULL%0,      Xuehua%Peng%NULL%0,      Zhen%Li%NULL%0,      Daoyu%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michela%Antonelli%NULL%1,      Rose S%Penfold%NULL%1,      Jordi%Merino%NULL%1,      Carole H%Sudre%NULL%1,      Erika%Molteni%NULL%1,      Sarah%Berry%NULL%1,      Liane S%Canas%NULL%1,      Mark S%Graham%NULL%1,      Kerstin%Klaser%NULL%1,      Marc%Modat%NULL%1,      Benjamin%Murray%NULL%1,      Eric%Kerfoot%NULL%1,      Liyuan%Chen%NULL%1,      Jie%Deng%NULL%1,      Marc F%Österdahl%NULL%1,      Nathan J%Cheetham%NULL%1,      David A%Drew%NULL%1,      Long H%Nguyen%NULL%1,      Joan Capdevila%Pujol%NULL%1,      Christina%Hu%NULL%1,      Somesh%Selvachandran%NULL%1,      Lorenzo%Polidori%NULL%1,      Anna%May%NULL%1,      Jonathan%Wolf%NULL%1,      Andrew T%Chan%NULL%1,      Alexander%Hammers%NULL%1,      Emma L%Duncan%NULL%1,      Tim D%Spector%NULL%1,      Sebastien%Ourselin%NULL%1,      Claire J%Steves%claire.j.steves@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Qinxue%Shen%NULL%1,      Wei%Guo%NULL%1,      Ting%Guo%NULL%1,      Jinhua%Li%NULL%1,      Wenlong%He%NULL%1,      Shanshan%Ni%NULL%1,      Xiaoli%Ouyang%NULL%1,      Jiyang%Liu%NULL%1,      Yuanlin%Xie%NULL%1,      Xin%Tan%NULL%1,      Zhiguo%Zhou%13807311490@163.com%1,      Hong%Peng%penghong66@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Ya\u2010nan%Han%xref no email%1,  Zhan\u2010wei%Feng%xref no email%1,  Li\u2010na%Sun%xref no email%1,  Xiao\u2010xia%Ren%xref no email%1,  Hua%Wang%xref no email%1,  Yong\u2010ming%Xue%xref no email%1,  Yi%Wang%xref no email%1,  Ying%Fang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Zhang%NULL%1,      Songming%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lu%Lin%NULL%1,      Xiayang%Jiang%NULL%1,      Zhenling%Zhang%NULL%1,      Siwen%Huang%NULL%1,      Zhenyi%Zhang%NULL%1,      Zhaoxiong%Fang%NULL%1,      Zhiqiang%Gu%NULL%1,      Liangqing%Gao%NULL%1,      Honggang%Shi%NULL%1,      Lei%Mai%NULL%1,      Yuan%Liu%NULL%1,      Xianqi%Lin%NULL%1,      Renxu%Lai%NULL%1,      Zhixiang%Yan%NULL%1,      Xiaofeng%Li%NULL%2,      Xiaofeng%Li%NULL%0,      Hong%Shan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,      Hui%Li%NULL%1,      Xiao-Xia%Lu%NULL%1,      Han%Xiao%NULL%1,      Jie%Ren%NULL%1,      Fu-Rong%Zhang%792523496@qq.com%1,      Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Xu%NULL%1,      Xufang%Li%NULL%1,      Bing%Zhu%NULL%1,      Huiying%Liang%NULL%1,      Chunxiao%Fang%NULL%1,      Yu%Gong%NULL%1,      Qiaozhi%Guo%NULL%1,      Xin%Sun%NULL%1,      Danyang%Zhao%NULL%1,      Jun%Shen%NULL%1,      Huayan%Zhang%NULL%1,      Hongsheng%Liu%NULL%2,      Hongsheng%Liu%NULL%0,      Huimin%Xia%huiminxia@hotmail.com%1,      Jinling%Tang%jltang@cuhk.edu.hk%1,      Kang%Zhang%kang.zhang@gmail.com%1,      Sitang%Gong%sitangg@126.com%2,      Sitang%Gong%sitangg@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Alfredo%Tagarro%xref no email%1,  Cristina%Epalza%xref no email%1,  Mar%Santos%xref no email%1,  Francisco Jos\u00e9%Sanz-Santaeufemia%xref no email%1,  Enrique%Otheo%xref no email%1,  Cinta%Moraleda%xref no email%1,  Cristina%Calvo%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yuhan%Xing%NULL%1,      Wei%Ni%NULL%1,      Qin%Wu%NULL%1,      Wenjie%Li%NULL%1,      Guoju%Li%NULL%1,      Wendi%Wang%NULL%1,      Jianning%Tong%NULL%1,      Xiufeng%Song%NULL%1,      Gary Wing Kin%Wong%NULL%1,      Quansheng%Xing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giacomo%Brisca%giacomobrisca@gmail.com%1,      Marta%Ferretti%NULL%2,      Marta%Ferretti%NULL%0,      Giulia%Sartoris%NULL%1,      Maria Beatrice%Damasio%NULL%1,      Isabella%Buffoni%NULL%2,      Isabella%Buffoni%NULL%0,      Daniela%Pirlo%NULL%1,      Marta%Romanengo%NULL%2,      Emanuela%Piccotti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Louise%Gaborieau%NULL%1,      Celine%Delestrain%NULL%1,      Philippe%Bensaid%NULL%1,      Audrey%Vizeneux%NULL%1,      Philippe%Blanc%NULL%1,      Aurélie%Garraffo%NULL%1,      Emilie%Georget%NULL%1,      Arnaud%Chalvon%NULL%1,      Nathalie%Garrec%NULL%1,      Yacine%Laoudi%NULL%1,      Emmanuelle%Varon%NULL%1,      Sébastien%Rouget%NULL%1,      Alexandre%Pupin%NULL%1,      Khaled%Abdel Aal%NULL%1,      David%Toulorge%NULL%1,      Sarah%Ducrocq%NULL%1,      Catherine%Barrey%NULL%1,      Letitia%Pantalone%NULL%1,      Blandine%Robert%NULL%1,      Lydie%Joly-Sanchez%NULL%1,      Caroline%Thach%NULL%2,      Caroline%Thach%NULL%0,      Caroline%Masserot-Lureau%NULL%1,      Jamilé%Chahine%NULL%1,      Veronica%Risso Garcia-Roudaut%NULL%1,      Jonathan%Rozental%NULL%1,      Sylvie%Nathanson%NULL%1,      Mohamed%Khaled%NULL%1,      Alexis%Mandelcwajg%NULL%1,      Nadia%Demayer%NULL%1,      Stéphanie%Muller%NULL%1,      Mustapha%Mazerghane%NULL%1,      Ralph%Epaud%NULL%1,      Béatrice%Pellegrino%NULL%2,      Béatrice%Pellegrino%NULL%0,      Fouad%Madhi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chun‐Zhen%Hua%NULL%1,      Zi‐Ping%Miao%NULL%1,      Ji‐Shan%Zheng%NULL%2,      Ji‐Shan%Zheng%NULL%0,      Qian%Huang%NULL%1,      Qing‐Feng%Sun%NULL%1,      Hong‐Ping%Lu%NULL%1,      Fei‐Fei%Su%NULL%1,      Wei‐Hong%Wang%NULL%1,      Lie‐Ping%Huang%NULL%1,      Da‐Qing%Chen%NULL%1,      Zhi‐Wei%Xu%NULL%1,      Le‐Dan%Ji%NULL%1,      Hong‐Ping%Zhang%NULL%1,      Xiao‐Wei%Yang%NULL%1,      Ming‐Hui%Li%NULL%1,      Yue‐Yan%Mao%NULL%1,      Man‐Zhen%Ying%NULL%1,      Sheng%Ye%NULL%1,      Qiang%Shu%shuqiang@zju.edu.cn%1,      En‐Fu%Chen%enfchen@cdc.zj.cn%2,      En‐Fu%Chen%enfchen@cdc.zj.cn%0,      Jian‐Feng%Liang%NULL%1,      Wei%Wang%NULL%1,      Zhi‐Min%Chen%NULL%1,      Wei%Li%NULL%1,      Jun‐Fen%Fu%fjf68@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[María%de Ceano-Vivas%NULL%1,      Irene%Martín-Espín%NULL%1,      Teresa%del Rosal%NULL%1,      Marta%Bueno-Barriocanal%NULL%2,      Marta%Bueno-Barriocanal%NULL%0,      Marta%Plata-Gallardo%NULL%1,      José Antonio%Ruiz-Domínguez%NULL%1,      Rosario%López-López%NULL%2,      Rosario%López-López%NULL%0,      Miguel Ángel%Molina-Gutiérrez%NULL%1,      Patricia%Bote-Gascón%NULL%2,      Patricia%Bote-Gascón%NULL%0,      Isabel%González-Bertolín%NULL%1,      Paula%García-Sánchez%NULL%2,      Paula%García-Sánchez%NULL%0,      Julia%Martín-Sánchez%NULL%1,      Begoña%de Miguel-Lavisier%NULL%1,      Talía%Sainz%NULL%1,      Fernando%Baquero-Artigao%NULL%1,      Ana%Méndez-Echevarría%NULL%1,      Cristina%Calvo%NULL%2,      Cristina%Calvo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,      Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,      Federico%Marchetti%federico.marchetti@auslromagna.it%1,      Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,      Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,      Marta%Romanengo%marta.romanengo@gmail.com%0,      Enrico%Felici%enrico.felici@ospedale.al.it%1,      Antonio%Urbino%afurbino@icloud.com%1,      Liviana%Da Dalt%liviana.dadalt@unipd.it%1,      Lucio%Verdoni%lverdoni@asst-pg23.it%1,      Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,      Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,      Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,      Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,      Anna Maria%Musolino%annamaria.musolino@opbg.net%1,      Marco%Binotti%marco.binotti@med.uniupo.it%1,      Paolo%Biban%paolo.biban@aovr.veneto.it%1,      Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,      Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,      Flavia%Nicoloso%flavianicoloso@gmail.com%1,      Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,      Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,      Danilo%Buonsenso%danilobuonsenso@gmail.com%1,      Massimo%Chiossi%max.chiossi@gmail.com%1,      Rino%Agostiniani%rinoagostiniani@gmail.com%1,      Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,      Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,      Marcello%Lanari%marcello.lanari@unibo.it%1,      Serena%Arrigo%arrigoserena@gmail.com%1,      Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,      Matteo%Lenge%matteo.lenge@meyer.it%1,      Stefano%Masi%stefano.masi@meyer.it%1,      Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,      Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,      NULL%NULL%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -889,7 +1000,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -918,7 +1029,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -947,7 +1058,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -976,7 +1087,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -999,22 +1110,22 @@
         <v>2020</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="D6" t="s">
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="I6" t="s">
         <v>32</v>
@@ -1034,7 +1145,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -1063,7 +1174,7 @@
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -1092,7 +1203,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -1121,7 +1232,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1144,22 +1255,22 @@
         <v>2020</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s">
         <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="I11" t="s">
         <v>32</v>
@@ -1237,7 +1348,7 @@
         <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="F14" t="s">
         <v>72</v>
@@ -1266,7 +1377,7 @@
         <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="F15" t="s">
         <v>76</v>
@@ -1295,7 +1406,7 @@
         <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="F16" t="s">
         <v>80</v>
@@ -1324,7 +1435,7 @@
         <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="F17" t="s">
         <v>85</v>
@@ -1353,7 +1464,7 @@
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="F18" t="s">
         <v>89</v>
@@ -1382,7 +1493,7 @@
         <v>92</v>
       </c>
       <c r="E19" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="F19" t="s">
         <v>94</v>

--- a/Covid_19_Dataset_and_References/References/82.xlsx
+++ b/Covid_19_Dataset_and_References/References/82.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="207">
   <si>
     <t>Doi</t>
   </si>
@@ -666,6 +666,102 @@
   </si>
   <si>
     <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,      Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,      Federico%Marchetti%federico.marchetti@auslromagna.it%1,      Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,      Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,      Marta%Romanengo%marta.romanengo@gmail.com%0,      Enrico%Felici%enrico.felici@ospedale.al.it%1,      Antonio%Urbino%afurbino@icloud.com%1,      Liviana%Da Dalt%liviana.dadalt@unipd.it%1,      Lucio%Verdoni%lverdoni@asst-pg23.it%1,      Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,      Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,      Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,      Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,      Anna Maria%Musolino%annamaria.musolino@opbg.net%1,      Marco%Binotti%marco.binotti@med.uniupo.it%1,      Paolo%Biban%paolo.biban@aovr.veneto.it%1,      Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,      Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,      Flavia%Nicoloso%flavianicoloso@gmail.com%1,      Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,      Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,      Danilo%Buonsenso%danilobuonsenso@gmail.com%1,      Massimo%Chiossi%max.chiossi@gmail.com%1,      Rino%Agostiniani%rinoagostiniani@gmail.com%1,      Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,      Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,      Marcello%Lanari%marcello.lanari@unibo.it%1,      Serena%Arrigo%arrigoserena@gmail.com%1,      Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,      Matteo%Lenge%matteo.lenge@meyer.it%1,      Stefano%Masi%stefano.masi@meyer.it%1,      Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,      Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,      NULL%NULL%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%2,       Jianbo%Shao%xzhuge27@163.com%2,       Yu%Guo%NULL%4,       Yu%Guo%NULL%0,       Xuehua%Peng%NULL%4,       Xuehua%Peng%NULL%0,       Zhen%Li%NULL%2,       Daoyu%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%0,       Jianbo%Shao%xzhuge27@163.com%0,       Yu%Guo%NULL%0,       Yu%Guo%NULL%0,       Xuehua%Peng%NULL%0,       Xuehua%Peng%NULL%0,       Zhen%Li%NULL%0,       Daoyu%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michela%Antonelli%NULL%1,       Rose S%Penfold%NULL%1,       Jordi%Merino%NULL%1,       Carole H%Sudre%NULL%1,       Erika%Molteni%NULL%1,       Sarah%Berry%NULL%1,       Liane S%Canas%NULL%1,       Mark S%Graham%NULL%1,       Kerstin%Klaser%NULL%1,       Marc%Modat%NULL%1,       Benjamin%Murray%NULL%1,       Eric%Kerfoot%NULL%1,       Liyuan%Chen%NULL%1,       Jie%Deng%NULL%1,       Marc F%Österdahl%NULL%1,       Nathan J%Cheetham%NULL%1,       David A%Drew%NULL%1,       Long H%Nguyen%NULL%1,       Joan Capdevila%Pujol%NULL%1,       Christina%Hu%NULL%1,       Somesh%Selvachandran%NULL%1,       Lorenzo%Polidori%NULL%1,       Anna%May%NULL%1,       Jonathan%Wolf%NULL%1,       Andrew T%Chan%NULL%1,       Alexander%Hammers%NULL%1,       Emma L%Duncan%NULL%1,       Tim D%Spector%NULL%1,       Sebastien%Ourselin%NULL%1,       Claire J%Steves%claire.j.steves@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Qinxue%Shen%NULL%1,       Wei%Guo%NULL%1,       Ting%Guo%NULL%1,       Jinhua%Li%NULL%1,       Wenlong%He%NULL%1,       Shanshan%Ni%NULL%1,       Xiaoli%Ouyang%NULL%1,       Jiyang%Liu%NULL%1,       Yuanlin%Xie%NULL%1,       Xin%Tan%NULL%1,       Zhiguo%Zhou%13807311490@163.com%1,       Hong%Peng%penghong66@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Ya\u2010nan%Han%xref no email%1,   Zhan\u2010wei%Feng%xref no email%1,   Li\u2010na%Sun%xref no email%1,   Xiao\u2010xia%Ren%xref no email%1,   Hua%Wang%xref no email%1,   Yong\u2010ming%Xue%xref no email%1,   Yi%Wang%xref no email%1,   Ying%Fang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Zhang%NULL%1,       Songming%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lu%Lin%NULL%1,       Xiayang%Jiang%NULL%1,       Zhenling%Zhang%NULL%1,       Siwen%Huang%NULL%1,       Zhenyi%Zhang%NULL%1,       Zhaoxiong%Fang%NULL%1,       Zhiqiang%Gu%NULL%1,       Liangqing%Gao%NULL%1,       Honggang%Shi%NULL%1,       Lei%Mai%NULL%1,       Yuan%Liu%NULL%1,       Xianqi%Lin%NULL%1,       Renxu%Lai%NULL%1,       Zhixiang%Yan%NULL%1,       Xiaofeng%Li%NULL%2,       Xiaofeng%Li%NULL%0,       Hong%Shan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,       Hui%Li%NULL%1,       Xiao-Xia%Lu%NULL%1,       Han%Xiao%NULL%1,       Jie%Ren%NULL%1,       Fu-Rong%Zhang%792523496@qq.com%1,       Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Xu%NULL%1,       Xufang%Li%NULL%1,       Bing%Zhu%NULL%1,       Huiying%Liang%NULL%1,       Chunxiao%Fang%NULL%1,       Yu%Gong%NULL%1,       Qiaozhi%Guo%NULL%1,       Xin%Sun%NULL%1,       Danyang%Zhao%NULL%1,       Jun%Shen%NULL%1,       Huayan%Zhang%NULL%1,       Hongsheng%Liu%NULL%2,       Hongsheng%Liu%NULL%0,       Huimin%Xia%huiminxia@hotmail.com%1,       Jinling%Tang%jltang@cuhk.edu.hk%1,       Kang%Zhang%kang.zhang@gmail.com%1,       Sitang%Gong%sitangg@126.com%2,       Sitang%Gong%sitangg@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Alfredo%Tagarro%xref no email%1,   Cristina%Epalza%xref no email%1,   Mar%Santos%xref no email%1,   Francisco Jos\u00e9%Sanz-Santaeufemia%xref no email%1,   Enrique%Otheo%xref no email%1,   Cinta%Moraleda%xref no email%1,   Cristina%Calvo%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yuhan%Xing%NULL%1,       Wei%Ni%NULL%1,       Qin%Wu%NULL%1,       Wenjie%Li%NULL%1,       Guoju%Li%NULL%1,       Wendi%Wang%NULL%1,       Jianning%Tong%NULL%1,       Xiufeng%Song%NULL%1,       Gary Wing Kin%Wong%NULL%1,       Quansheng%Xing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giacomo%Brisca%giacomobrisca@gmail.com%1,       Marta%Ferretti%NULL%2,       Marta%Ferretti%NULL%0,       Giulia%Sartoris%NULL%1,       Maria Beatrice%Damasio%NULL%1,       Isabella%Buffoni%NULL%2,       Isabella%Buffoni%NULL%0,       Daniela%Pirlo%NULL%1,       Marta%Romanengo%NULL%2,       Emanuela%Piccotti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Louise%Gaborieau%NULL%1,       Celine%Delestrain%NULL%1,       Philippe%Bensaid%NULL%1,       Audrey%Vizeneux%NULL%1,       Philippe%Blanc%NULL%1,       Aurélie%Garraffo%NULL%1,       Emilie%Georget%NULL%1,       Arnaud%Chalvon%NULL%1,       Nathalie%Garrec%NULL%1,       Yacine%Laoudi%NULL%1,       Emmanuelle%Varon%NULL%1,       Sébastien%Rouget%NULL%1,       Alexandre%Pupin%NULL%1,       Khaled%Abdel Aal%NULL%1,       David%Toulorge%NULL%1,       Sarah%Ducrocq%NULL%1,       Catherine%Barrey%NULL%1,       Letitia%Pantalone%NULL%1,       Blandine%Robert%NULL%1,       Lydie%Joly-Sanchez%NULL%1,       Caroline%Thach%NULL%2,       Caroline%Thach%NULL%0,       Caroline%Masserot-Lureau%NULL%1,       Jamilé%Chahine%NULL%1,       Veronica%Risso Garcia-Roudaut%NULL%1,       Jonathan%Rozental%NULL%1,       Sylvie%Nathanson%NULL%1,       Mohamed%Khaled%NULL%1,       Alexis%Mandelcwajg%NULL%1,       Nadia%Demayer%NULL%1,       Stéphanie%Muller%NULL%1,       Mustapha%Mazerghane%NULL%1,       Ralph%Epaud%NULL%1,       Béatrice%Pellegrino%NULL%2,       Béatrice%Pellegrino%NULL%0,       Fouad%Madhi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chun‐Zhen%Hua%NULL%1,       Zi‐Ping%Miao%NULL%1,       Ji‐Shan%Zheng%NULL%2,       Ji‐Shan%Zheng%NULL%0,       Qian%Huang%NULL%1,       Qing‐Feng%Sun%NULL%1,       Hong‐Ping%Lu%NULL%1,       Fei‐Fei%Su%NULL%1,       Wei‐Hong%Wang%NULL%1,       Lie‐Ping%Huang%NULL%1,       Da‐Qing%Chen%NULL%1,       Zhi‐Wei%Xu%NULL%1,       Le‐Dan%Ji%NULL%1,       Hong‐Ping%Zhang%NULL%1,       Xiao‐Wei%Yang%NULL%1,       Ming‐Hui%Li%NULL%1,       Yue‐Yan%Mao%NULL%1,       Man‐Zhen%Ying%NULL%1,       Sheng%Ye%NULL%1,       Qiang%Shu%shuqiang@zju.edu.cn%1,       En‐Fu%Chen%enfchen@cdc.zj.cn%2,       En‐Fu%Chen%enfchen@cdc.zj.cn%0,       Jian‐Feng%Liang%NULL%1,       Wei%Wang%NULL%1,       Zhi‐Min%Chen%NULL%1,       Wei%Li%NULL%1,       Jun‐Fen%Fu%fjf68@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[María%de Ceano-Vivas%NULL%1,       Irene%Martín-Espín%NULL%1,       Teresa%del Rosal%NULL%1,       Marta%Bueno-Barriocanal%NULL%2,       Marta%Bueno-Barriocanal%NULL%0,       Marta%Plata-Gallardo%NULL%1,       José Antonio%Ruiz-Domínguez%NULL%1,       Rosario%López-López%NULL%2,       Rosario%López-López%NULL%0,       Miguel Ángel%Molina-Gutiérrez%NULL%1,       Patricia%Bote-Gascón%NULL%2,       Patricia%Bote-Gascón%NULL%0,       Isabel%González-Bertolín%NULL%1,       Paula%García-Sánchez%NULL%2,       Paula%García-Sánchez%NULL%0,       Julia%Martín-Sánchez%NULL%1,       Begoña%de Miguel-Lavisier%NULL%1,       Talía%Sainz%NULL%1,       Fernando%Baquero-Artigao%NULL%1,       Ana%Méndez-Echevarría%NULL%1,       Cristina%Calvo%NULL%2,       Cristina%Calvo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,       Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,       Federico%Marchetti%federico.marchetti@auslromagna.it%1,       Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,       Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,       Marta%Romanengo%marta.romanengo@gmail.com%0,       Enrico%Felici%enrico.felici@ospedale.al.it%1,       Antonio%Urbino%afurbino@icloud.com%1,       Liviana%Da Dalt%liviana.dadalt@unipd.it%1,       Lucio%Verdoni%lverdoni@asst-pg23.it%1,       Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,       Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,       Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,       Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,       Anna Maria%Musolino%annamaria.musolino@opbg.net%1,       Marco%Binotti%marco.binotti@med.uniupo.it%1,       Paolo%Biban%paolo.biban@aovr.veneto.it%1,       Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,       Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,       Flavia%Nicoloso%flavianicoloso@gmail.com%1,       Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,       Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,       Danilo%Buonsenso%danilobuonsenso@gmail.com%1,       Massimo%Chiossi%max.chiossi@gmail.com%1,       Rino%Agostiniani%rinoagostiniani@gmail.com%1,       Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,       Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,       Marcello%Lanari%marcello.lanari@unibo.it%1,       Serena%Arrigo%arrigoserena@gmail.com%1,       Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,       Matteo%Lenge%matteo.lenge@meyer.it%1,       Stefano%Masi%stefano.masi@meyer.it%1,       Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,       Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,       NULL%NULL%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%2,        Jianbo%Shao%xzhuge27@163.com%2,        Yu%Guo%NULL%4,        Yu%Guo%NULL%0,        Xuehua%Peng%NULL%4,        Xuehua%Peng%NULL%0,        Zhen%Li%NULL%2,        Daoyu%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%0,        Jianbo%Shao%xzhuge27@163.com%0,        Yu%Guo%NULL%0,        Yu%Guo%NULL%0,        Xuehua%Peng%NULL%0,        Xuehua%Peng%NULL%0,        Zhen%Li%NULL%0,        Daoyu%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michela%Antonelli%NULL%1,        Rose S%Penfold%NULL%1,        Jordi%Merino%NULL%1,        Carole H%Sudre%NULL%1,        Erika%Molteni%NULL%1,        Sarah%Berry%NULL%1,        Liane S%Canas%NULL%1,        Mark S%Graham%NULL%1,        Kerstin%Klaser%NULL%1,        Marc%Modat%NULL%1,        Benjamin%Murray%NULL%1,        Eric%Kerfoot%NULL%1,        Liyuan%Chen%NULL%1,        Jie%Deng%NULL%1,        Marc F%Österdahl%NULL%1,        Nathan J%Cheetham%NULL%1,        David A%Drew%NULL%1,        Long H%Nguyen%NULL%1,        Joan Capdevila%Pujol%NULL%1,        Christina%Hu%NULL%1,        Somesh%Selvachandran%NULL%1,        Lorenzo%Polidori%NULL%1,        Anna%May%NULL%1,        Jonathan%Wolf%NULL%1,        Andrew T%Chan%NULL%1,        Alexander%Hammers%NULL%1,        Emma L%Duncan%NULL%1,        Tim D%Spector%NULL%1,        Sebastien%Ourselin%NULL%1,        Claire J%Steves%claire.j.steves@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Qinxue%Shen%NULL%1,        Wei%Guo%NULL%1,        Ting%Guo%NULL%1,        Jinhua%Li%NULL%1,        Wenlong%He%NULL%1,        Shanshan%Ni%NULL%1,        Xiaoli%Ouyang%NULL%1,        Jiyang%Liu%NULL%1,        Yuanlin%Xie%NULL%1,        Xin%Tan%NULL%1,        Zhiguo%Zhou%13807311490@163.com%1,        Hong%Peng%penghong66@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Ya\u2010nan%Han%xref no email%1,    Zhan\u2010wei%Feng%xref no email%1,    Li\u2010na%Sun%xref no email%1,    Xiao\u2010xia%Ren%xref no email%1,    Hua%Wang%xref no email%1,    Yong\u2010ming%Xue%xref no email%1,    Yi%Wang%xref no email%1,    Ying%Fang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Zhang%NULL%1,        Songming%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lu%Lin%NULL%1,        Xiayang%Jiang%NULL%1,        Zhenling%Zhang%NULL%1,        Siwen%Huang%NULL%1,        Zhenyi%Zhang%NULL%1,        Zhaoxiong%Fang%NULL%1,        Zhiqiang%Gu%NULL%1,        Liangqing%Gao%NULL%1,        Honggang%Shi%NULL%1,        Lei%Mai%NULL%1,        Yuan%Liu%NULL%1,        Xianqi%Lin%NULL%1,        Renxu%Lai%NULL%1,        Zhixiang%Yan%NULL%1,        Xiaofeng%Li%NULL%2,        Xiaofeng%Li%NULL%0,        Hong%Shan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,        Hui%Li%NULL%1,        Xiao-Xia%Lu%NULL%1,        Han%Xiao%NULL%1,        Jie%Ren%NULL%1,        Fu-Rong%Zhang%792523496@qq.com%1,        Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Xu%NULL%1,        Xufang%Li%NULL%1,        Bing%Zhu%NULL%1,        Huiying%Liang%NULL%1,        Chunxiao%Fang%NULL%1,        Yu%Gong%NULL%1,        Qiaozhi%Guo%NULL%1,        Xin%Sun%NULL%1,        Danyang%Zhao%NULL%1,        Jun%Shen%NULL%1,        Huayan%Zhang%NULL%1,        Hongsheng%Liu%NULL%2,        Hongsheng%Liu%NULL%0,        Huimin%Xia%huiminxia@hotmail.com%1,        Jinling%Tang%jltang@cuhk.edu.hk%1,        Kang%Zhang%kang.zhang@gmail.com%1,        Sitang%Gong%sitangg@126.com%2,        Sitang%Gong%sitangg@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Alfredo%Tagarro%xref no email%1,    Cristina%Epalza%xref no email%1,    Mar%Santos%xref no email%1,    Francisco Jos\u00e9%Sanz-Santaeufemia%xref no email%1,    Enrique%Otheo%xref no email%1,    Cinta%Moraleda%xref no email%1,    Cristina%Calvo%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yuhan%Xing%NULL%1,        Wei%Ni%NULL%1,        Qin%Wu%NULL%1,        Wenjie%Li%NULL%1,        Guoju%Li%NULL%1,        Wendi%Wang%NULL%1,        Jianning%Tong%NULL%1,        Xiufeng%Song%NULL%1,        Gary Wing Kin%Wong%NULL%1,        Quansheng%Xing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giacomo%Brisca%giacomobrisca@gmail.com%1,        Marta%Ferretti%NULL%2,        Marta%Ferretti%NULL%0,        Giulia%Sartoris%NULL%1,        Maria Beatrice%Damasio%NULL%1,        Isabella%Buffoni%NULL%2,        Isabella%Buffoni%NULL%0,        Daniela%Pirlo%NULL%1,        Marta%Romanengo%NULL%2,        Emanuela%Piccotti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Louise%Gaborieau%NULL%1,        Celine%Delestrain%NULL%1,        Philippe%Bensaid%NULL%1,        Audrey%Vizeneux%NULL%1,        Philippe%Blanc%NULL%1,        Aurélie%Garraffo%NULL%1,        Emilie%Georget%NULL%1,        Arnaud%Chalvon%NULL%1,        Nathalie%Garrec%NULL%1,        Yacine%Laoudi%NULL%1,        Emmanuelle%Varon%NULL%1,        Sébastien%Rouget%NULL%1,        Alexandre%Pupin%NULL%1,        Khaled%Abdel Aal%NULL%1,        David%Toulorge%NULL%1,        Sarah%Ducrocq%NULL%1,        Catherine%Barrey%NULL%1,        Letitia%Pantalone%NULL%1,        Blandine%Robert%NULL%1,        Lydie%Joly-Sanchez%NULL%1,        Caroline%Thach%NULL%2,        Caroline%Thach%NULL%0,        Caroline%Masserot-Lureau%NULL%1,        Jamilé%Chahine%NULL%1,        Veronica%Risso Garcia-Roudaut%NULL%1,        Jonathan%Rozental%NULL%1,        Sylvie%Nathanson%NULL%1,        Mohamed%Khaled%NULL%1,        Alexis%Mandelcwajg%NULL%1,        Nadia%Demayer%NULL%1,        Stéphanie%Muller%NULL%1,        Mustapha%Mazerghane%NULL%1,        Ralph%Epaud%NULL%1,        Béatrice%Pellegrino%NULL%2,        Béatrice%Pellegrino%NULL%0,        Fouad%Madhi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chun‐Zhen%Hua%NULL%1,        Zi‐Ping%Miao%NULL%1,        Ji‐Shan%Zheng%NULL%2,        Ji‐Shan%Zheng%NULL%0,        Qian%Huang%NULL%1,        Qing‐Feng%Sun%NULL%1,        Hong‐Ping%Lu%NULL%1,        Fei‐Fei%Su%NULL%1,        Wei‐Hong%Wang%NULL%1,        Lie‐Ping%Huang%NULL%1,        Da‐Qing%Chen%NULL%1,        Zhi‐Wei%Xu%NULL%1,        Le‐Dan%Ji%NULL%1,        Hong‐Ping%Zhang%NULL%1,        Xiao‐Wei%Yang%NULL%1,        Ming‐Hui%Li%NULL%1,        Yue‐Yan%Mao%NULL%1,        Man‐Zhen%Ying%NULL%1,        Sheng%Ye%NULL%1,        Qiang%Shu%shuqiang@zju.edu.cn%1,        En‐Fu%Chen%enfchen@cdc.zj.cn%2,        En‐Fu%Chen%enfchen@cdc.zj.cn%0,        Jian‐Feng%Liang%NULL%1,        Wei%Wang%NULL%1,        Zhi‐Min%Chen%NULL%1,        Wei%Li%NULL%1,        Jun‐Fen%Fu%fjf68@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[María%de Ceano-Vivas%NULL%1,        Irene%Martín-Espín%NULL%1,        Teresa%del Rosal%NULL%1,        Marta%Bueno-Barriocanal%NULL%2,        Marta%Bueno-Barriocanal%NULL%0,        Marta%Plata-Gallardo%NULL%1,        José Antonio%Ruiz-Domínguez%NULL%1,        Rosario%López-López%NULL%2,        Rosario%López-López%NULL%0,        Miguel Ángel%Molina-Gutiérrez%NULL%1,        Patricia%Bote-Gascón%NULL%2,        Patricia%Bote-Gascón%NULL%0,        Isabel%González-Bertolín%NULL%1,        Paula%García-Sánchez%NULL%2,        Paula%García-Sánchez%NULL%0,        Julia%Martín-Sánchez%NULL%1,        Begoña%de Miguel-Lavisier%NULL%1,        Talía%Sainz%NULL%1,        Fernando%Baquero-Artigao%NULL%1,        Ana%Méndez-Echevarría%NULL%1,        Cristina%Calvo%NULL%2,        Cristina%Calvo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,        Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,        Federico%Marchetti%federico.marchetti@auslromagna.it%1,        Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,        Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,        Marta%Romanengo%marta.romanengo@gmail.com%0,        Enrico%Felici%enrico.felici@ospedale.al.it%1,        Antonio%Urbino%afurbino@icloud.com%1,        Liviana%Da Dalt%liviana.dadalt@unipd.it%1,        Lucio%Verdoni%lverdoni@asst-pg23.it%1,        Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,        Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,        Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,        Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,        Anna Maria%Musolino%annamaria.musolino@opbg.net%1,        Marco%Binotti%marco.binotti@med.uniupo.it%1,        Paolo%Biban%paolo.biban@aovr.veneto.it%1,        Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,        Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,        Flavia%Nicoloso%flavianicoloso@gmail.com%1,        Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,        Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,        Danilo%Buonsenso%danilobuonsenso@gmail.com%1,        Massimo%Chiossi%max.chiossi@gmail.com%1,        Rino%Agostiniani%rinoagostiniani@gmail.com%1,        Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,        Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,        Marcello%Lanari%marcello.lanari@unibo.it%1,        Serena%Arrigo%arrigoserena@gmail.com%1,        Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,        Matteo%Lenge%matteo.lenge@meyer.it%1,        Stefano%Masi%stefano.masi@meyer.it%1,        Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,        Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,        NULL%NULL%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1096,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1029,7 +1125,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -1058,7 +1154,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -1087,7 +1183,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1116,7 +1212,7 @@
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -1145,7 +1241,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -1174,7 +1270,7 @@
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -1203,7 +1299,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -1232,7 +1328,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1261,7 +1357,7 @@
         <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -1348,7 +1444,7 @@
         <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="F14" t="s">
         <v>72</v>
@@ -1377,7 +1473,7 @@
         <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="F15" t="s">
         <v>76</v>
@@ -1406,7 +1502,7 @@
         <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="F16" t="s">
         <v>80</v>
@@ -1435,7 +1531,7 @@
         <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="F17" t="s">
         <v>85</v>
@@ -1464,7 +1560,7 @@
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="F18" t="s">
         <v>89</v>
@@ -1493,7 +1589,7 @@
         <v>92</v>
       </c>
       <c r="E19" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="F19" t="s">
         <v>94</v>

--- a/Covid_19_Dataset_and_References/References/82.xlsx
+++ b/Covid_19_Dataset_and_References/References/82.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="241">
   <si>
     <t>Doi</t>
   </si>
@@ -762,6 +762,131 @@
   </si>
   <si>
     <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,        Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,        Federico%Marchetti%federico.marchetti@auslromagna.it%1,        Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,        Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,        Marta%Romanengo%marta.romanengo@gmail.com%0,        Enrico%Felici%enrico.felici@ospedale.al.it%1,        Antonio%Urbino%afurbino@icloud.com%1,        Liviana%Da Dalt%liviana.dadalt@unipd.it%1,        Lucio%Verdoni%lverdoni@asst-pg23.it%1,        Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,        Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,        Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,        Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,        Anna Maria%Musolino%annamaria.musolino@opbg.net%1,        Marco%Binotti%marco.binotti@med.uniupo.it%1,        Paolo%Biban%paolo.biban@aovr.veneto.it%1,        Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,        Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,        Flavia%Nicoloso%flavianicoloso@gmail.com%1,        Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,        Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,        Danilo%Buonsenso%danilobuonsenso@gmail.com%1,        Massimo%Chiossi%max.chiossi@gmail.com%1,        Rino%Agostiniani%rinoagostiniani@gmail.com%1,        Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,        Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,        Marcello%Lanari%marcello.lanari@unibo.it%1,        Serena%Arrigo%arrigoserena@gmail.com%1,        Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,        Matteo%Lenge%matteo.lenge@meyer.it%1,        Stefano%Masi%stefano.masi@meyer.it%1,        Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,        Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,        NULL%NULL%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%2,         Jianbo%Shao%xzhuge27@163.com%2,         Yu%Guo%NULL%4,         Yu%Guo%NULL%0,         Xuehua%Peng%NULL%4,         Xuehua%Peng%NULL%0,         Zhen%Li%NULL%2,         Daoyu%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%0,         Jianbo%Shao%xzhuge27@163.com%0,         Yu%Guo%NULL%0,         Yu%Guo%NULL%0,         Xuehua%Peng%NULL%0,         Xuehua%Peng%NULL%0,         Zhen%Li%NULL%0,         Daoyu%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michela%Antonelli%NULL%1,         Rose S%Penfold%NULL%1,         Jordi%Merino%NULL%1,         Carole H%Sudre%NULL%1,         Erika%Molteni%NULL%1,         Sarah%Berry%NULL%1,         Liane S%Canas%NULL%1,         Mark S%Graham%NULL%1,         Kerstin%Klaser%NULL%1,         Marc%Modat%NULL%1,         Benjamin%Murray%NULL%1,         Eric%Kerfoot%NULL%1,         Liyuan%Chen%NULL%1,         Jie%Deng%NULL%1,         Marc F%Österdahl%NULL%1,         Nathan J%Cheetham%NULL%1,         David A%Drew%NULL%1,         Long H%Nguyen%NULL%1,         Joan Capdevila%Pujol%NULL%1,         Christina%Hu%NULL%1,         Somesh%Selvachandran%NULL%1,         Lorenzo%Polidori%NULL%1,         Anna%May%NULL%1,         Jonathan%Wolf%NULL%1,         Andrew T%Chan%NULL%1,         Alexander%Hammers%NULL%1,         Emma L%Duncan%NULL%1,         Tim D%Spector%NULL%1,         Sebastien%Ourselin%NULL%1,         Claire J%Steves%claire.j.steves@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Qinxue%Shen%NULL%1,         Wei%Guo%NULL%1,         Ting%Guo%NULL%1,         Jinhua%Li%NULL%1,         Wenlong%He%NULL%1,         Shanshan%Ni%NULL%1,         Xiaoli%Ouyang%NULL%1,         Jiyang%Liu%NULL%1,         Yuanlin%Xie%NULL%1,         Xin%Tan%NULL%1,         Zhiguo%Zhou%13807311490@163.com%1,         Hong%Peng%penghong66@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Ya\u2010nan%Han%xref no email%1,     Zhan\u2010wei%Feng%xref no email%1,     Li\u2010na%Sun%xref no email%1,     Xiao\u2010xia%Ren%xref no email%1,     Hua%Wang%xref no email%1,     Yong\u2010ming%Xue%xref no email%1,     Yi%Wang%xref no email%1,     Ying%Fang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Zhang%NULL%1,         Songming%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lu%Lin%NULL%1,         Xiayang%Jiang%NULL%1,         Zhenling%Zhang%NULL%1,         Siwen%Huang%NULL%1,         Zhenyi%Zhang%NULL%1,         Zhaoxiong%Fang%NULL%1,         Zhiqiang%Gu%NULL%1,         Liangqing%Gao%NULL%1,         Honggang%Shi%NULL%1,         Lei%Mai%NULL%1,         Yuan%Liu%NULL%1,         Xianqi%Lin%NULL%1,         Renxu%Lai%NULL%1,         Zhixiang%Yan%NULL%1,         Xiaofeng%Li%NULL%2,         Xiaofeng%Li%NULL%0,         Hong%Shan%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+An outbreak of coronavirus disease 2019 (COVID-19) caused by SARS-CoV-2 was first detected in Wuhan, Hubei, China.
+ People of all ages are susceptible to SARS-CoV-2 infection.
+ No information on severe pediatric patients with COVID-19 has been reported.
+ We aimed to describe the clinical features of severe pediatric patients with COVID-19.
+Methods
+We included eight severe or critically ill patients with COVID-19 who were treated at the Intensive Care Unit (ICU), Wuhan Children’s Hospital from January 24 to February 24. We collected information including demographic data, symptoms, imaging data, laboratory findings, treatments and clinical outcomes of the patients with severe COVID-19.
+Results
+The onset age of the eight patients ranged from 2 months to 15 years; six were boys.
+ The most common symptoms were polypnea (8/8), followed by fever (6/8) and cough (6/8).
+ Chest imaging showed multiple patch-like shadows in seven patients and ground-glass opacity in six.
+ Laboratory findings revealed normal or increased whole blood counts (7/8), increased C-reactive protein, procalcitonin and lactate dehydrogenase (6/8), and abnormal liver function (4/8).
+ Other findings included decreased CD16 + CD56 (4/8) and Th/Ts*(1/8), increased CD3 (2/8), CD4 (4/8) and CD8 (1/8), IL-6 (2/8), IL-10 (5/8) and IFN-γ (2/8).
+ Treatment modalities were focused on symptomatic and respiratory support.
+ Two critically ill patients underwent invasive mechanical ventilation.
+ Up to February 24, 2020, three patients remained under treatment in ICU, the other five recovered and were discharged home.
+Conclusions
+In this series of severe pediatric patients in Wuhan, polypnea was the most common symptom, followed by fever and cough.
+ Common imaging changes included multiple patch-like shadows and ground-glass opacity; and a cytokine storm was found in these patients, which appeared more serious in critically ill patients.
+</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,         Hui%Li%NULL%1,         Xiao-Xia%Lu%NULL%1,         Han%Xiao%NULL%1,         Jie%Ren%NULL%1,         Fu-Rong%Zhang%792523496@qq.com%1,         Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We report epidemiological and clinical investigations on ten pediatric SARS-CoV-2 infection cases confirmed by real-time reverse transcription PCR assay of SARS-CoV-2 RNA.
+ Symptoms in these cases were nonspecific and no children required respiratory support or intensive care.
+ Chest X-rays lacked definite signs of pneumonia, a defining feature of the infection in adult cases.
+ Notably, eight children persistently tested positive on rectal swabs even after nasopharyngeal testing was negative, raising the possibility of fecal–oral transmission.
+</t>
+  </si>
+  <si>
+    <t>[Yi%Xu%NULL%1,         Xufang%Li%NULL%1,         Bing%Zhu%NULL%1,         Huiying%Liang%NULL%1,         Chunxiao%Fang%NULL%1,         Yu%Gong%NULL%1,         Qiaozhi%Guo%NULL%1,         Xin%Sun%NULL%1,         Danyang%Zhao%NULL%1,         Jun%Shen%NULL%1,         Huayan%Zhang%NULL%1,         Hongsheng%Liu%NULL%2,         Hongsheng%Liu%NULL%0,         Huimin%Xia%huiminxia@hotmail.com%1,         Jinling%Tang%jltang@cuhk.edu.hk%1,         Kang%Zhang%kang.zhang@gmail.com%1,         Sitang%Gong%sitangg@126.com%2,         Sitang%Gong%sitangg@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Alfredo%Tagarro%xref no email%1,     Cristina%Epalza%xref no email%1,     Mar%Santos%xref no email%1,     Francisco Jos\u00e9%Sanz-Santaeufemia%xref no email%1,     Enrique%Otheo%xref no email%1,     Cinta%Moraleda%xref no email%1,     Cristina%Calvo%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yuhan%Xing%NULL%1,         Wei%Ni%NULL%1,         Qin%Wu%NULL%1,         Wenjie%Li%NULL%1,         Guoju%Li%NULL%1,         Wendi%Wang%NULL%1,         Jianning%Tong%NULL%1,         Xiufeng%Song%NULL%1,         Gary Wing Kin%Wong%NULL%1,         Quansheng%Xing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giacomo%Brisca%giacomobrisca@gmail.com%1,         Marta%Ferretti%NULL%2,         Marta%Ferretti%NULL%0,         Giulia%Sartoris%NULL%1,         Maria Beatrice%Damasio%NULL%1,         Isabella%Buffoni%NULL%2,         Isabella%Buffoni%NULL%0,         Daniela%Pirlo%NULL%1,         Marta%Romanengo%NULL%2,         Emanuela%Piccotti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Louise%Gaborieau%NULL%1,         Celine%Delestrain%NULL%1,         Philippe%Bensaid%NULL%1,         Audrey%Vizeneux%NULL%1,         Philippe%Blanc%NULL%1,         Aurélie%Garraffo%NULL%1,         Emilie%Georget%NULL%1,         Arnaud%Chalvon%NULL%1,         Nathalie%Garrec%NULL%1,         Yacine%Laoudi%NULL%1,         Emmanuelle%Varon%NULL%1,         Sébastien%Rouget%NULL%1,         Alexandre%Pupin%NULL%1,         Khaled%Abdel Aal%NULL%1,         David%Toulorge%NULL%1,         Sarah%Ducrocq%NULL%1,         Catherine%Barrey%NULL%1,         Letitia%Pantalone%NULL%1,         Blandine%Robert%NULL%1,         Lydie%Joly-Sanchez%NULL%1,         Caroline%Thach%NULL%2,         Caroline%Thach%NULL%0,         Caroline%Masserot-Lureau%NULL%1,         Jamilé%Chahine%NULL%1,         Veronica%Risso Garcia-Roudaut%NULL%1,         Jonathan%Rozental%NULL%1,         Sylvie%Nathanson%NULL%1,         Mohamed%Khaled%NULL%1,         Alexis%Mandelcwajg%NULL%1,         Nadia%Demayer%NULL%1,         Stéphanie%Muller%NULL%1,         Mustapha%Mazerghane%NULL%1,         Ralph%Epaud%NULL%1,         Béatrice%Pellegrino%NULL%2,         Béatrice%Pellegrino%NULL%0,         Fouad%Madhi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chun‐Zhen%Hua%NULL%1,         Zi‐Ping%Miao%NULL%1,         Ji‐Shan%Zheng%NULL%2,         Ji‐Shan%Zheng%NULL%0,         Qian%Huang%NULL%1,         Qing‐Feng%Sun%NULL%1,         Hong‐Ping%Lu%NULL%1,         Fei‐Fei%Su%NULL%1,         Wei‐Hong%Wang%NULL%1,         Lie‐Ping%Huang%NULL%1,         Da‐Qing%Chen%NULL%1,         Zhi‐Wei%Xu%NULL%1,         Le‐Dan%Ji%NULL%1,         Hong‐Ping%Zhang%NULL%1,         Xiao‐Wei%Yang%NULL%1,         Ming‐Hui%Li%NULL%1,         Yue‐Yan%Mao%NULL%1,         Man‐Zhen%Ying%NULL%1,         Sheng%Ye%NULL%1,         Qiang%Shu%shuqiang@zju.edu.cn%1,         En‐Fu%Chen%enfchen@cdc.zj.cn%2,         En‐Fu%Chen%enfchen@cdc.zj.cn%0,         Jian‐Feng%Liang%NULL%1,         Wei%Wang%NULL%1,         Zhi‐Min%Chen%NULL%1,         Wei%Li%NULL%1,         Jun‐Fen%Fu%fjf68@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[María%de Ceano-Vivas%NULL%1,         Irene%Martín-Espín%NULL%1,         Teresa%del Rosal%NULL%1,         Marta%Bueno-Barriocanal%NULL%2,         Marta%Bueno-Barriocanal%NULL%0,         Marta%Plata-Gallardo%NULL%1,         José Antonio%Ruiz-Domínguez%NULL%1,         Rosario%López-López%NULL%2,         Rosario%López-López%NULL%0,         Miguel Ángel%Molina-Gutiérrez%NULL%1,         Patricia%Bote-Gascón%NULL%2,         Patricia%Bote-Gascón%NULL%0,         Isabel%González-Bertolín%NULL%1,         Paula%García-Sánchez%NULL%2,         Paula%García-Sánchez%NULL%0,         Julia%Martín-Sánchez%NULL%1,         Begoña%de Miguel-Lavisier%NULL%1,         Talía%Sainz%NULL%1,         Fernando%Baquero-Artigao%NULL%1,         Ana%Méndez-Echevarría%NULL%1,         Cristina%Calvo%NULL%2,         Cristina%Calvo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,         Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,         Federico%Marchetti%federico.marchetti@auslromagna.it%1,         Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,         Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,         Marta%Romanengo%marta.romanengo@gmail.com%0,         Enrico%Felici%enrico.felici@ospedale.al.it%1,         Antonio%Urbino%afurbino@icloud.com%1,         Liviana%Da Dalt%liviana.dadalt@unipd.it%1,         Lucio%Verdoni%lverdoni@asst-pg23.it%1,         Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,         Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,         Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,         Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,         Anna Maria%Musolino%annamaria.musolino@opbg.net%1,         Marco%Binotti%marco.binotti@med.uniupo.it%1,         Paolo%Biban%paolo.biban@aovr.veneto.it%1,         Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,         Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,         Flavia%Nicoloso%flavianicoloso@gmail.com%1,         Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,         Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,         Danilo%Buonsenso%danilobuonsenso@gmail.com%1,         Massimo%Chiossi%max.chiossi@gmail.com%1,         Rino%Agostiniani%rinoagostiniani@gmail.com%1,         Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,         Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,         Marcello%Lanari%marcello.lanari@unibo.it%1,         Serena%Arrigo%arrigoserena@gmail.com%1,         Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,         Matteo%Lenge%matteo.lenge@meyer.it%1,         Stefano%Masi%stefano.masi@meyer.it%1,         Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,         Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,         NULL%NULL%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%2,          Jianbo%Shao%xzhuge27@163.com%2,          Yu%Guo%NULL%4,          Yu%Guo%NULL%0,          Xuehua%Peng%NULL%4,          Xuehua%Peng%NULL%0,          Zhen%Li%NULL%2,          Daoyu%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%0,          Jianbo%Shao%xzhuge27@163.com%0,          Yu%Guo%NULL%0,          Yu%Guo%NULL%0,          Xuehua%Peng%NULL%0,          Xuehua%Peng%NULL%0,          Zhen%Li%NULL%0,          Daoyu%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michela%Antonelli%NULL%1,          Rose S%Penfold%NULL%1,          Jordi%Merino%NULL%1,          Carole H%Sudre%NULL%1,          Erika%Molteni%NULL%1,          Sarah%Berry%NULL%1,          Liane S%Canas%NULL%1,          Mark S%Graham%NULL%1,          Kerstin%Klaser%NULL%1,          Marc%Modat%NULL%1,          Benjamin%Murray%NULL%1,          Eric%Kerfoot%NULL%1,          Liyuan%Chen%NULL%1,          Jie%Deng%NULL%1,          Marc F%Österdahl%NULL%1,          Nathan J%Cheetham%NULL%1,          David A%Drew%NULL%1,          Long H%Nguyen%NULL%1,          Joan Capdevila%Pujol%NULL%1,          Christina%Hu%NULL%1,          Somesh%Selvachandran%NULL%1,          Lorenzo%Polidori%NULL%1,          Anna%May%NULL%1,          Jonathan%Wolf%NULL%1,          Andrew T%Chan%NULL%1,          Alexander%Hammers%NULL%1,          Emma L%Duncan%NULL%1,          Tim D%Spector%NULL%1,          Sebastien%Ourselin%NULL%1,          Claire J%Steves%claire.j.steves@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Qinxue%Shen%NULL%1,          Wei%Guo%NULL%1,          Ting%Guo%NULL%1,          Jinhua%Li%NULL%1,          Wenlong%He%NULL%1,          Shanshan%Ni%NULL%1,          Xiaoli%Ouyang%NULL%1,          Jiyang%Liu%NULL%1,          Yuanlin%Xie%NULL%1,          Xin%Tan%NULL%1,          Zhiguo%Zhou%13807311490@163.com%1,          Hong%Peng%penghong66@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Ya\u2010nan%Han%xref no email%1,      Zhan\u2010wei%Feng%xref no email%1,      Li\u2010na%Sun%xref no email%1,      Xiao\u2010xia%Ren%xref no email%1,      Hua%Wang%xref no email%1,      Yong\u2010ming%Xue%xref no email%1,      Yi%Wang%xref no email%1,      Ying%Fang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Zhang%NULL%1,          Songming%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lu%Lin%NULL%1,          Xiayang%Jiang%NULL%1,          Zhenling%Zhang%NULL%1,          Siwen%Huang%NULL%1,          Zhenyi%Zhang%NULL%1,          Zhaoxiong%Fang%NULL%1,          Zhiqiang%Gu%NULL%1,          Liangqing%Gao%NULL%1,          Honggang%Shi%NULL%1,          Lei%Mai%NULL%1,          Yuan%Liu%NULL%1,          Xianqi%Lin%NULL%1,          Renxu%Lai%NULL%1,          Zhixiang%Yan%NULL%1,          Xiaofeng%Li%NULL%2,          Xiaofeng%Li%NULL%0,          Hong%Shan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,          Hui%Li%NULL%1,          Xiao-Xia%Lu%NULL%1,          Han%Xiao%NULL%1,          Jie%Ren%NULL%1,          Fu-Rong%Zhang%792523496@qq.com%1,          Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Xu%NULL%1,          Xufang%Li%NULL%1,          Bing%Zhu%NULL%1,          Huiying%Liang%NULL%1,          Chunxiao%Fang%NULL%1,          Yu%Gong%NULL%1,          Qiaozhi%Guo%NULL%1,          Xin%Sun%NULL%1,          Danyang%Zhao%NULL%1,          Jun%Shen%NULL%1,          Huayan%Zhang%NULL%1,          Hongsheng%Liu%NULL%2,          Hongsheng%Liu%NULL%0,          Huimin%Xia%huiminxia@hotmail.com%1,          Jinling%Tang%jltang@cuhk.edu.hk%1,          Kang%Zhang%kang.zhang@gmail.com%1,          Sitang%Gong%sitangg@126.com%2,          Sitang%Gong%sitangg@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Alfredo%Tagarro%xref no email%1,      Cristina%Epalza%xref no email%1,      Mar%Santos%xref no email%1,      Francisco Jos\u00e9%Sanz-Santaeufemia%xref no email%1,      Enrique%Otheo%xref no email%1,      Cinta%Moraleda%xref no email%1,      Cristina%Calvo%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yuhan%Xing%NULL%1,          Wei%Ni%NULL%1,          Qin%Wu%NULL%1,          Wenjie%Li%NULL%1,          Guoju%Li%NULL%1,          Wendi%Wang%NULL%1,          Jianning%Tong%NULL%1,          Xiufeng%Song%NULL%1,          Gary Wing Kin%Wong%NULL%1,          Quansheng%Xing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giacomo%Brisca%giacomobrisca@gmail.com%1,          Marta%Ferretti%NULL%2,          Marta%Ferretti%NULL%0,          Giulia%Sartoris%NULL%1,          Maria Beatrice%Damasio%NULL%1,          Isabella%Buffoni%NULL%2,          Isabella%Buffoni%NULL%0,          Daniela%Pirlo%NULL%1,          Marta%Romanengo%NULL%2,          Emanuela%Piccotti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Louise%Gaborieau%NULL%1,          Celine%Delestrain%NULL%1,          Philippe%Bensaid%NULL%1,          Audrey%Vizeneux%NULL%1,          Philippe%Blanc%NULL%1,          Aurélie%Garraffo%NULL%1,          Emilie%Georget%NULL%1,          Arnaud%Chalvon%NULL%1,          Nathalie%Garrec%NULL%1,          Yacine%Laoudi%NULL%1,          Emmanuelle%Varon%NULL%1,          Sébastien%Rouget%NULL%1,          Alexandre%Pupin%NULL%1,          Khaled%Abdel Aal%NULL%1,          David%Toulorge%NULL%1,          Sarah%Ducrocq%NULL%1,          Catherine%Barrey%NULL%1,          Letitia%Pantalone%NULL%1,          Blandine%Robert%NULL%1,          Lydie%Joly-Sanchez%NULL%1,          Caroline%Thach%NULL%2,          Caroline%Thach%NULL%0,          Caroline%Masserot-Lureau%NULL%1,          Jamilé%Chahine%NULL%1,          Veronica%Risso Garcia-Roudaut%NULL%1,          Jonathan%Rozental%NULL%1,          Sylvie%Nathanson%NULL%1,          Mohamed%Khaled%NULL%1,          Alexis%Mandelcwajg%NULL%1,          Nadia%Demayer%NULL%1,          Stéphanie%Muller%NULL%1,          Mustapha%Mazerghane%NULL%1,          Ralph%Epaud%NULL%1,          Béatrice%Pellegrino%NULL%2,          Béatrice%Pellegrino%NULL%0,          Fouad%Madhi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chun‐Zhen%Hua%NULL%1,          Zi‐Ping%Miao%NULL%1,          Ji‐Shan%Zheng%NULL%2,          Ji‐Shan%Zheng%NULL%0,          Qian%Huang%NULL%1,          Qing‐Feng%Sun%NULL%1,          Hong‐Ping%Lu%NULL%1,          Fei‐Fei%Su%NULL%1,          Wei‐Hong%Wang%NULL%1,          Lie‐Ping%Huang%NULL%1,          Da‐Qing%Chen%NULL%1,          Zhi‐Wei%Xu%NULL%1,          Le‐Dan%Ji%NULL%1,          Hong‐Ping%Zhang%NULL%1,          Xiao‐Wei%Yang%NULL%1,          Ming‐Hui%Li%NULL%1,          Yue‐Yan%Mao%NULL%1,          Man‐Zhen%Ying%NULL%1,          Sheng%Ye%NULL%1,          Qiang%Shu%shuqiang@zju.edu.cn%1,          En‐Fu%Chen%enfchen@cdc.zj.cn%2,          En‐Fu%Chen%enfchen@cdc.zj.cn%0,          Jian‐Feng%Liang%NULL%1,          Wei%Wang%NULL%1,          Zhi‐Min%Chen%NULL%1,          Wei%Li%NULL%1,          Jun‐Fen%Fu%fjf68@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[María%de Ceano-Vivas%NULL%1,          Irene%Martín-Espín%NULL%1,          Teresa%del Rosal%NULL%1,          Marta%Bueno-Barriocanal%NULL%2,          Marta%Bueno-Barriocanal%NULL%0,          Marta%Plata-Gallardo%NULL%1,          José Antonio%Ruiz-Domínguez%NULL%1,          Rosario%López-López%NULL%2,          Rosario%López-López%NULL%0,          Miguel Ángel%Molina-Gutiérrez%NULL%1,          Patricia%Bote-Gascón%NULL%2,          Patricia%Bote-Gascón%NULL%0,          Isabel%González-Bertolín%NULL%1,          Paula%García-Sánchez%NULL%2,          Paula%García-Sánchez%NULL%0,          Julia%Martín-Sánchez%NULL%1,          Begoña%de Miguel-Lavisier%NULL%1,          Talía%Sainz%NULL%1,          Fernando%Baquero-Artigao%NULL%1,          Ana%Méndez-Echevarría%NULL%1,          Cristina%Calvo%NULL%2,          Cristina%Calvo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,          Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,          Federico%Marchetti%federico.marchetti@auslromagna.it%1,          Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,          Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,          Marta%Romanengo%marta.romanengo@gmail.com%0,          Enrico%Felici%enrico.felici@ospedale.al.it%1,          Antonio%Urbino%afurbino@icloud.com%1,          Liviana%Da Dalt%liviana.dadalt@unipd.it%1,          Lucio%Verdoni%lverdoni@asst-pg23.it%1,          Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,          Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,          Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,          Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,          Anna Maria%Musolino%annamaria.musolino@opbg.net%1,          Marco%Binotti%marco.binotti@med.uniupo.it%1,          Paolo%Biban%paolo.biban@aovr.veneto.it%1,          Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,          Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,          Flavia%Nicoloso%flavianicoloso@gmail.com%1,          Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,          Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,          Danilo%Buonsenso%danilobuonsenso@gmail.com%1,          Massimo%Chiossi%max.chiossi@gmail.com%1,          Rino%Agostiniani%rinoagostiniani@gmail.com%1,          Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,          Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,          Marcello%Lanari%marcello.lanari@unibo.it%1,          Serena%Arrigo%arrigoserena@gmail.com%1,          Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,          Matteo%Lenge%matteo.lenge@meyer.it%1,          Stefano%Masi%stefano.masi@meyer.it%1,          Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,          Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,          NULL%NULL%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1221,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1125,7 +1250,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -1154,7 +1279,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -1183,7 +1308,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1212,7 +1337,7 @@
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -1241,7 +1366,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -1270,7 +1395,7 @@
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -1296,10 +1421,10 @@
         <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>214</v>
       </c>
       <c r="E9" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -1325,10 +1450,10 @@
         <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>216</v>
       </c>
       <c r="E10" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1357,7 +1482,7 @@
         <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -1444,7 +1569,7 @@
         <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="F14" t="s">
         <v>72</v>
@@ -1473,7 +1598,7 @@
         <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c r="F15" t="s">
         <v>76</v>
@@ -1502,7 +1627,7 @@
         <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="F16" t="s">
         <v>80</v>
@@ -1531,7 +1656,7 @@
         <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="F17" t="s">
         <v>85</v>
@@ -1560,7 +1685,7 @@
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="F18" t="s">
         <v>89</v>
@@ -1589,7 +1714,7 @@
         <v>92</v>
       </c>
       <c r="E19" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="F19" t="s">
         <v>94</v>

--- a/Covid_19_Dataset_and_References/References/82.xlsx
+++ b/Covid_19_Dataset_and_References/References/82.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="257">
   <si>
     <t>Doi</t>
   </si>
@@ -887,6 +887,54 @@
   </si>
   <si>
     <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,          Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,          Federico%Marchetti%federico.marchetti@auslromagna.it%1,          Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,          Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,          Marta%Romanengo%marta.romanengo@gmail.com%0,          Enrico%Felici%enrico.felici@ospedale.al.it%1,          Antonio%Urbino%afurbino@icloud.com%1,          Liviana%Da Dalt%liviana.dadalt@unipd.it%1,          Lucio%Verdoni%lverdoni@asst-pg23.it%1,          Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,          Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,          Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,          Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,          Anna Maria%Musolino%annamaria.musolino@opbg.net%1,          Marco%Binotti%marco.binotti@med.uniupo.it%1,          Paolo%Biban%paolo.biban@aovr.veneto.it%1,          Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,          Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,          Flavia%Nicoloso%flavianicoloso@gmail.com%1,          Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,          Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,          Danilo%Buonsenso%danilobuonsenso@gmail.com%1,          Massimo%Chiossi%max.chiossi@gmail.com%1,          Rino%Agostiniani%rinoagostiniani@gmail.com%1,          Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,          Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,          Marcello%Lanari%marcello.lanari@unibo.it%1,          Serena%Arrigo%arrigoserena@gmail.com%1,          Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,          Matteo%Lenge%matteo.lenge@meyer.it%1,          Stefano%Masi%stefano.masi@meyer.it%1,          Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,          Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,          NULL%NULL%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%2,           Jianbo%Shao%xzhuge27@163.com%2,           Yu%Guo%NULL%4,           Yu%Guo%NULL%0,           Xuehua%Peng%NULL%4,           Xuehua%Peng%NULL%0,           Zhen%Li%NULL%2,           Daoyu%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%0,           Jianbo%Shao%xzhuge27@163.com%0,           Yu%Guo%NULL%0,           Yu%Guo%NULL%0,           Xuehua%Peng%NULL%0,           Xuehua%Peng%NULL%0,           Zhen%Li%NULL%0,           Daoyu%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michela%Antonelli%NULL%1,           Rose S%Penfold%NULL%1,           Jordi%Merino%NULL%1,           Carole H%Sudre%NULL%1,           Erika%Molteni%NULL%1,           Sarah%Berry%NULL%1,           Liane S%Canas%NULL%1,           Mark S%Graham%NULL%1,           Kerstin%Klaser%NULL%1,           Marc%Modat%NULL%1,           Benjamin%Murray%NULL%1,           Eric%Kerfoot%NULL%1,           Liyuan%Chen%NULL%1,           Jie%Deng%NULL%1,           Marc F%Österdahl%NULL%1,           Nathan J%Cheetham%NULL%1,           David A%Drew%NULL%1,           Long H%Nguyen%NULL%1,           Joan Capdevila%Pujol%NULL%1,           Christina%Hu%NULL%1,           Somesh%Selvachandran%NULL%1,           Lorenzo%Polidori%NULL%1,           Anna%May%NULL%1,           Jonathan%Wolf%NULL%1,           Andrew T%Chan%NULL%1,           Alexander%Hammers%NULL%1,           Emma L%Duncan%NULL%1,           Tim D%Spector%NULL%1,           Sebastien%Ourselin%NULL%1,           Claire J%Steves%claire.j.steves@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Qinxue%Shen%NULL%1,           Wei%Guo%NULL%1,           Ting%Guo%NULL%1,           Jinhua%Li%NULL%1,           Wenlong%He%NULL%1,           Shanshan%Ni%NULL%1,           Xiaoli%Ouyang%NULL%1,           Jiyang%Liu%NULL%1,           Yuanlin%Xie%NULL%1,           Xin%Tan%NULL%1,           Zhiguo%Zhou%13807311490@163.com%1,           Hong%Peng%penghong66@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Ya\u2010nan%Han%xref no email%1,       Zhan\u2010wei%Feng%xref no email%1,       Li\u2010na%Sun%xref no email%1,       Xiao\u2010xia%Ren%xref no email%1,       Hua%Wang%xref no email%1,       Yong\u2010ming%Xue%xref no email%1,       Yi%Wang%xref no email%1,       Ying%Fang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Zhang%NULL%1,           Songming%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lu%Lin%NULL%1,           Xiayang%Jiang%NULL%1,           Zhenling%Zhang%NULL%1,           Siwen%Huang%NULL%1,           Zhenyi%Zhang%NULL%1,           Zhaoxiong%Fang%NULL%1,           Zhiqiang%Gu%NULL%1,           Liangqing%Gao%NULL%1,           Honggang%Shi%NULL%1,           Lei%Mai%NULL%1,           Yuan%Liu%NULL%1,           Xianqi%Lin%NULL%1,           Renxu%Lai%NULL%1,           Zhixiang%Yan%NULL%1,           Xiaofeng%Li%NULL%2,           Xiaofeng%Li%NULL%0,           Hong%Shan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,           Hui%Li%NULL%0,           Xiao-Xia%Lu%NULL%1,           Han%Xiao%NULL%1,           Jie%Ren%NULL%1,           Fu-Rong%Zhang%792523496@qq.com%1,           Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Xu%NULL%1,           Xufang%Li%NULL%1,           Bing%Zhu%NULL%1,           Huiying%Liang%NULL%1,           Chunxiao%Fang%NULL%1,           Yu%Gong%NULL%1,           Qiaozhi%Guo%NULL%1,           Xin%Sun%NULL%1,           Danyang%Zhao%NULL%1,           Jun%Shen%NULL%1,           Huayan%Zhang%NULL%1,           Hongsheng%Liu%NULL%2,           Hongsheng%Liu%NULL%0,           Huimin%Xia%huiminxia@hotmail.com%1,           Jinling%Tang%jltang@cuhk.edu.hk%1,           Kang%Zhang%kang.zhang@gmail.com%1,           Sitang%Gong%sitangg@126.com%2,           Sitang%Gong%sitangg@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Alfredo%Tagarro%xref no email%1,       Cristina%Epalza%xref no email%1,       Mar%Santos%xref no email%1,       Francisco Jos\u00e9%Sanz-Santaeufemia%xref no email%1,       Enrique%Otheo%xref no email%1,       Cinta%Moraleda%xref no email%1,       Cristina%Calvo%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yuhan%Xing%NULL%1,           Wei%Ni%NULL%1,           Qin%Wu%NULL%1,           Wenjie%Li%NULL%1,           Guoju%Li%NULL%1,           Wendi%Wang%NULL%1,           Jianning%Tong%NULL%1,           Xiufeng%Song%NULL%1,           Gary Wing Kin%Wong%NULL%1,           Quansheng%Xing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giacomo%Brisca%giacomobrisca@gmail.com%1,           Marta%Ferretti%NULL%2,           Marta%Ferretti%NULL%0,           Giulia%Sartoris%NULL%1,           Maria Beatrice%Damasio%NULL%1,           Isabella%Buffoni%NULL%2,           Isabella%Buffoni%NULL%0,           Daniela%Pirlo%NULL%1,           Marta%Romanengo%NULL%2,           Emanuela%Piccotti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Louise%Gaborieau%NULL%1,           Celine%Delestrain%NULL%1,           Philippe%Bensaid%NULL%1,           Audrey%Vizeneux%NULL%1,           Philippe%Blanc%NULL%1,           Aurélie%Garraffo%NULL%1,           Emilie%Georget%NULL%1,           Arnaud%Chalvon%NULL%1,           Nathalie%Garrec%NULL%1,           Yacine%Laoudi%NULL%1,           Emmanuelle%Varon%NULL%1,           Sébastien%Rouget%NULL%1,           Alexandre%Pupin%NULL%1,           Khaled%Abdel Aal%NULL%1,           David%Toulorge%NULL%1,           Sarah%Ducrocq%NULL%1,           Catherine%Barrey%NULL%1,           Letitia%Pantalone%NULL%1,           Blandine%Robert%NULL%1,           Lydie%Joly-Sanchez%NULL%1,           Caroline%Thach%NULL%2,           Caroline%Thach%NULL%0,           Caroline%Masserot-Lureau%NULL%1,           Jamilé%Chahine%NULL%1,           Veronica%Risso Garcia-Roudaut%NULL%1,           Jonathan%Rozental%NULL%1,           Sylvie%Nathanson%NULL%1,           Mohamed%Khaled%NULL%1,           Alexis%Mandelcwajg%NULL%1,           Nadia%Demayer%NULL%1,           Stéphanie%Muller%NULL%1,           Mustapha%Mazerghane%NULL%1,           Ralph%Epaud%NULL%1,           Béatrice%Pellegrino%NULL%2,           Béatrice%Pellegrino%NULL%0,           Fouad%Madhi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chun‐Zhen%Hua%NULL%1,           Zi‐Ping%Miao%NULL%1,           Ji‐Shan%Zheng%NULL%2,           Ji‐Shan%Zheng%NULL%0,           Qian%Huang%NULL%1,           Qing‐Feng%Sun%NULL%1,           Hong‐Ping%Lu%NULL%1,           Fei‐Fei%Su%NULL%1,           Wei‐Hong%Wang%NULL%1,           Lie‐Ping%Huang%NULL%1,           Da‐Qing%Chen%NULL%1,           Zhi‐Wei%Xu%NULL%1,           Le‐Dan%Ji%NULL%1,           Hong‐Ping%Zhang%NULL%1,           Xiao‐Wei%Yang%NULL%1,           Ming‐Hui%Li%NULL%1,           Yue‐Yan%Mao%NULL%1,           Man‐Zhen%Ying%NULL%1,           Sheng%Ye%NULL%1,           Qiang%Shu%shuqiang@zju.edu.cn%1,           En‐Fu%Chen%enfchen@cdc.zj.cn%2,           En‐Fu%Chen%enfchen@cdc.zj.cn%0,           Jian‐Feng%Liang%NULL%1,           Wei%Wang%NULL%1,           Zhi‐Min%Chen%NULL%1,           Wei%Li%NULL%1,           Jun‐Fen%Fu%fjf68@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[María%de Ceano-Vivas%NULL%1,           Irene%Martín-Espín%NULL%1,           Teresa%del Rosal%NULL%1,           Marta%Bueno-Barriocanal%NULL%2,           Marta%Bueno-Barriocanal%NULL%0,           Marta%Plata-Gallardo%NULL%1,           José Antonio%Ruiz-Domínguez%NULL%1,           Rosario%López-López%NULL%2,           Rosario%López-López%NULL%0,           Miguel Ángel%Molina-Gutiérrez%NULL%1,           Patricia%Bote-Gascón%NULL%2,           Patricia%Bote-Gascón%NULL%0,           Isabel%González-Bertolín%NULL%1,           Paula%García-Sánchez%NULL%2,           Paula%García-Sánchez%NULL%0,           Julia%Martín-Sánchez%NULL%1,           Begoña%de Miguel-Lavisier%NULL%1,           Talía%Sainz%NULL%1,           Fernando%Baquero-Artigao%NULL%1,           Ana%Méndez-Echevarría%NULL%1,           Cristina%Calvo%NULL%2,           Cristina%Calvo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,           Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,           Federico%Marchetti%federico.marchetti@auslromagna.it%1,           Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,           Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,           Marta%Romanengo%marta.romanengo@gmail.com%0,           Enrico%Felici%enrico.felici@ospedale.al.it%1,           Antonio%Urbino%afurbino@icloud.com%1,           Liviana%Da Dalt%liviana.dadalt@unipd.it%1,           Lucio%Verdoni%lverdoni@asst-pg23.it%1,           Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,           Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,           Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,           Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,           Anna Maria%Musolino%annamaria.musolino@opbg.net%1,           Marco%Binotti%marco.binotti@med.uniupo.it%1,           Paolo%Biban%paolo.biban@aovr.veneto.it%1,           Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,           Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,           Flavia%Nicoloso%flavianicoloso@gmail.com%1,           Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,           Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,           Danilo%Buonsenso%danilobuonsenso@gmail.com%1,           Massimo%Chiossi%max.chiossi@gmail.com%1,           Rino%Agostiniani%rinoagostiniani@gmail.com%1,           Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,           Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,           Marcello%Lanari%marcello.lanari@unibo.it%1,           Serena%Arrigo%arrigoserena@gmail.com%1,           Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,           Matteo%Lenge%matteo.lenge@meyer.it%1,           Stefano%Masi%stefano.masi@meyer.it%1,           Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,           Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,           NULL%NULL%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1269,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1250,7 +1298,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -1279,7 +1327,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -1308,7 +1356,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1337,7 +1385,7 @@
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -1366,7 +1414,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -1395,7 +1443,7 @@
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -1424,7 +1472,7 @@
         <v>214</v>
       </c>
       <c r="E9" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -1453,7 +1501,7 @@
         <v>216</v>
       </c>
       <c r="E10" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1482,7 +1530,7 @@
         <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -1569,7 +1617,7 @@
         <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="F14" t="s">
         <v>72</v>
@@ -1598,7 +1646,7 @@
         <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="F15" t="s">
         <v>76</v>
@@ -1627,7 +1675,7 @@
         <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="F16" t="s">
         <v>80</v>
@@ -1656,7 +1704,7 @@
         <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="F17" t="s">
         <v>85</v>
@@ -1685,7 +1733,7 @@
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="F18" t="s">
         <v>89</v>
@@ -1714,7 +1762,7 @@
         <v>92</v>
       </c>
       <c r="E19" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="F19" t="s">
         <v>94</v>

--- a/Covid_19_Dataset_and_References/References/82.xlsx
+++ b/Covid_19_Dataset_and_References/References/82.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="273">
   <si>
     <t>Doi</t>
   </si>
@@ -935,6 +935,54 @@
   </si>
   <si>
     <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,           Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,           Federico%Marchetti%federico.marchetti@auslromagna.it%1,           Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,           Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,           Marta%Romanengo%marta.romanengo@gmail.com%0,           Enrico%Felici%enrico.felici@ospedale.al.it%1,           Antonio%Urbino%afurbino@icloud.com%1,           Liviana%Da Dalt%liviana.dadalt@unipd.it%1,           Lucio%Verdoni%lverdoni@asst-pg23.it%1,           Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,           Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,           Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,           Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,           Anna Maria%Musolino%annamaria.musolino@opbg.net%1,           Marco%Binotti%marco.binotti@med.uniupo.it%1,           Paolo%Biban%paolo.biban@aovr.veneto.it%1,           Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,           Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,           Flavia%Nicoloso%flavianicoloso@gmail.com%1,           Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,           Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,           Danilo%Buonsenso%danilobuonsenso@gmail.com%1,           Massimo%Chiossi%max.chiossi@gmail.com%1,           Rino%Agostiniani%rinoagostiniani@gmail.com%1,           Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,           Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,           Marcello%Lanari%marcello.lanari@unibo.it%1,           Serena%Arrigo%arrigoserena@gmail.com%1,           Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,           Matteo%Lenge%matteo.lenge@meyer.it%1,           Stefano%Masi%stefano.masi@meyer.it%1,           Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,           Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%2,            Jianbo%Shao%xzhuge27@163.com%2,            Yu%Guo%NULL%4,            Yu%Guo%NULL%0,            Xuehua%Peng%NULL%4,            Xuehua%Peng%NULL%0,            Zhen%Li%NULL%2,            Daoyu%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%0,            Jianbo%Shao%xzhuge27@163.com%0,            Yu%Guo%NULL%0,            Yu%Guo%NULL%0,            Xuehua%Peng%NULL%0,            Xuehua%Peng%NULL%0,            Zhen%Li%NULL%0,            Daoyu%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michela%Antonelli%NULL%1,            Rose S%Penfold%NULL%1,            Jordi%Merino%NULL%1,            Carole H%Sudre%NULL%1,            Erika%Molteni%NULL%1,            Sarah%Berry%NULL%1,            Liane S%Canas%NULL%1,            Mark S%Graham%NULL%1,            Kerstin%Klaser%NULL%1,            Marc%Modat%NULL%1,            Benjamin%Murray%NULL%1,            Eric%Kerfoot%NULL%1,            Liyuan%Chen%NULL%1,            Jie%Deng%NULL%1,            Marc F%Österdahl%NULL%1,            Nathan J%Cheetham%NULL%1,            David A%Drew%NULL%1,            Long H%Nguyen%NULL%1,            Joan Capdevila%Pujol%NULL%1,            Christina%Hu%NULL%1,            Somesh%Selvachandran%NULL%1,            Lorenzo%Polidori%NULL%1,            Anna%May%NULL%1,            Jonathan%Wolf%NULL%1,            Andrew T%Chan%NULL%1,            Alexander%Hammers%NULL%1,            Emma L%Duncan%NULL%1,            Tim D%Spector%NULL%1,            Sebastien%Ourselin%NULL%1,            Claire J%Steves%claire.j.steves@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Qinxue%Shen%NULL%1,            Wei%Guo%NULL%1,            Ting%Guo%NULL%1,            Jinhua%Li%NULL%1,            Wenlong%He%NULL%1,            Shanshan%Ni%NULL%1,            Xiaoli%Ouyang%NULL%1,            Jiyang%Liu%NULL%1,            Yuanlin%Xie%NULL%1,            Xin%Tan%NULL%1,            Zhiguo%Zhou%13807311490@163.com%1,            Hong%Peng%penghong66@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Ya\u2010nan%Han%xref no email%1,        Zhan\u2010wei%Feng%xref no email%1,        Li\u2010na%Sun%xref no email%1,        Xiao\u2010xia%Ren%xref no email%1,        Hua%Wang%xref no email%1,        Yong\u2010ming%Xue%xref no email%1,        Yi%Wang%xref no email%1,        Ying%Fang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Zhang%NULL%1,            Songming%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lu%Lin%NULL%1,            Xiayang%Jiang%NULL%1,            Zhenling%Zhang%NULL%1,            Siwen%Huang%NULL%1,            Zhenyi%Zhang%NULL%1,            Zhaoxiong%Fang%NULL%1,            Zhiqiang%Gu%NULL%1,            Liangqing%Gao%NULL%1,            Honggang%Shi%NULL%1,            Lei%Mai%NULL%1,            Yuan%Liu%NULL%1,            Xianqi%Lin%NULL%1,            Renxu%Lai%NULL%1,            Zhixiang%Yan%NULL%1,            Xiaofeng%Li%NULL%2,            Xiaofeng%Li%NULL%0,            Hong%Shan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,            Hui%Li%NULL%1,            Xiao-Xia%Lu%NULL%1,            Han%Xiao%NULL%1,            Jie%Ren%NULL%1,            Fu-Rong%Zhang%792523496@qq.com%1,            Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Xu%NULL%1,            Xufang%Li%NULL%1,            Bing%Zhu%NULL%1,            Huiying%Liang%NULL%1,            Chunxiao%Fang%NULL%1,            Yu%Gong%NULL%1,            Qiaozhi%Guo%NULL%1,            Xin%Sun%NULL%1,            Danyang%Zhao%NULL%1,            Jun%Shen%NULL%1,            Huayan%Zhang%NULL%1,            Hongsheng%Liu%NULL%2,            Hongsheng%Liu%NULL%0,            Huimin%Xia%huiminxia@hotmail.com%1,            Jinling%Tang%jltang@cuhk.edu.hk%1,            Kang%Zhang%kang.zhang@gmail.com%1,            Sitang%Gong%sitangg@126.com%2,            Sitang%Gong%sitangg@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Alfredo%Tagarro%xref no email%1,        Cristina%Epalza%xref no email%1,        Mar%Santos%xref no email%1,        Francisco Jos\u00e9%Sanz-Santaeufemia%xref no email%1,        Enrique%Otheo%xref no email%1,        Cinta%Moraleda%xref no email%1,        Cristina%Calvo%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yuhan%Xing%NULL%1,            Wei%Ni%NULL%1,            Qin%Wu%NULL%1,            Wenjie%Li%NULL%1,            Guoju%Li%NULL%1,            Wendi%Wang%NULL%1,            Jianning%Tong%NULL%1,            Xiufeng%Song%NULL%1,            Gary Wing Kin%Wong%NULL%1,            Quansheng%Xing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giacomo%Brisca%giacomobrisca@gmail.com%1,            Marta%Ferretti%NULL%2,            Marta%Ferretti%NULL%0,            Giulia%Sartoris%NULL%1,            Maria Beatrice%Damasio%NULL%1,            Isabella%Buffoni%NULL%2,            Isabella%Buffoni%NULL%0,            Daniela%Pirlo%NULL%1,            Marta%Romanengo%NULL%2,            Emanuela%Piccotti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Louise%Gaborieau%NULL%1,            Celine%Delestrain%NULL%1,            Philippe%Bensaid%NULL%1,            Audrey%Vizeneux%NULL%1,            Philippe%Blanc%NULL%1,            Aurélie%Garraffo%NULL%1,            Emilie%Georget%NULL%1,            Arnaud%Chalvon%NULL%1,            Nathalie%Garrec%NULL%1,            Yacine%Laoudi%NULL%1,            Emmanuelle%Varon%NULL%1,            Sébastien%Rouget%NULL%1,            Alexandre%Pupin%NULL%1,            Khaled%Abdel Aal%NULL%1,            David%Toulorge%NULL%1,            Sarah%Ducrocq%NULL%1,            Catherine%Barrey%NULL%1,            Letitia%Pantalone%NULL%1,            Blandine%Robert%NULL%1,            Lydie%Joly-Sanchez%NULL%1,            Caroline%Thach%NULL%2,            Caroline%Thach%NULL%0,            Caroline%Masserot-Lureau%NULL%1,            Jamilé%Chahine%NULL%1,            Veronica%Risso Garcia-Roudaut%NULL%1,            Jonathan%Rozental%NULL%1,            Sylvie%Nathanson%NULL%1,            Mohamed%Khaled%NULL%1,            Alexis%Mandelcwajg%NULL%1,            Nadia%Demayer%NULL%1,            Stéphanie%Muller%NULL%1,            Mustapha%Mazerghane%NULL%1,            Ralph%Epaud%NULL%1,            Béatrice%Pellegrino%NULL%2,            Béatrice%Pellegrino%NULL%0,            Fouad%Madhi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chun‐Zhen%Hua%NULL%1,            Zi‐Ping%Miao%NULL%1,            Ji‐Shan%Zheng%NULL%2,            Ji‐Shan%Zheng%NULL%0,            Qian%Huang%NULL%1,            Qing‐Feng%Sun%NULL%1,            Hong‐Ping%Lu%NULL%1,            Fei‐Fei%Su%NULL%1,            Wei‐Hong%Wang%NULL%1,            Lie‐Ping%Huang%NULL%1,            Da‐Qing%Chen%NULL%1,            Zhi‐Wei%Xu%NULL%1,            Le‐Dan%Ji%NULL%1,            Hong‐Ping%Zhang%NULL%1,            Xiao‐Wei%Yang%NULL%1,            Ming‐Hui%Li%NULL%1,            Yue‐Yan%Mao%NULL%1,            Man‐Zhen%Ying%NULL%1,            Sheng%Ye%NULL%1,            Qiang%Shu%shuqiang@zju.edu.cn%1,            En‐Fu%Chen%enfchen@cdc.zj.cn%2,            En‐Fu%Chen%enfchen@cdc.zj.cn%0,            Jian‐Feng%Liang%NULL%1,            Wei%Wang%NULL%1,            Zhi‐Min%Chen%NULL%1,            Wei%Li%NULL%1,            Jun‐Fen%Fu%fjf68@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[María%de Ceano-Vivas%NULL%1,            Irene%Martín-Espín%NULL%1,            Teresa%del Rosal%NULL%1,            Marta%Bueno-Barriocanal%NULL%2,            Marta%Bueno-Barriocanal%NULL%0,            Marta%Plata-Gallardo%NULL%1,            José Antonio%Ruiz-Domínguez%NULL%1,            Rosario%López-López%NULL%2,            Rosario%López-López%NULL%0,            Miguel Ángel%Molina-Gutiérrez%NULL%1,            Patricia%Bote-Gascón%NULL%2,            Patricia%Bote-Gascón%NULL%0,            Isabel%González-Bertolín%NULL%1,            Paula%García-Sánchez%NULL%2,            Paula%García-Sánchez%NULL%0,            Julia%Martín-Sánchez%NULL%1,            Begoña%de Miguel-Lavisier%NULL%1,            Talía%Sainz%NULL%1,            Fernando%Baquero-Artigao%NULL%1,            Ana%Méndez-Echevarría%NULL%1,            Cristina%Calvo%NULL%2,            Cristina%Calvo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,            Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,            Federico%Marchetti%federico.marchetti@auslromagna.it%1,            Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,            Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,            Marta%Romanengo%marta.romanengo@gmail.com%0,            Enrico%Felici%enrico.felici@ospedale.al.it%1,            Antonio%Urbino%afurbino@icloud.com%1,            Liviana%Da Dalt%liviana.dadalt@unipd.it%1,            Lucio%Verdoni%lverdoni@asst-pg23.it%1,            Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,            Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,            Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,            Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,            Anna Maria%Musolino%annamaria.musolino@opbg.net%1,            Marco%Binotti%marco.binotti@med.uniupo.it%1,            Paolo%Biban%paolo.biban@aovr.veneto.it%1,            Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,            Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,            Flavia%Nicoloso%flavianicoloso@gmail.com%1,            Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,            Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,            Danilo%Buonsenso%danilobuonsenso@gmail.com%1,            Massimo%Chiossi%max.chiossi@gmail.com%1,            Rino%Agostiniani%rinoagostiniani@gmail.com%1,            Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,            Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,            Marcello%Lanari%marcello.lanari@unibo.it%1,            Serena%Arrigo%arrigoserena@gmail.com%1,            Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,            Matteo%Lenge%matteo.lenge@meyer.it%1,            Stefano%Masi%stefano.masi@meyer.it%1,            Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,            Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,            NULL%NULL%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1317,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1298,7 +1346,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -1327,7 +1375,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -1356,7 +1404,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1385,7 +1433,7 @@
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -1414,7 +1462,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -1443,7 +1491,7 @@
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -1472,7 +1520,7 @@
         <v>214</v>
       </c>
       <c r="E9" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -1501,7 +1549,7 @@
         <v>216</v>
       </c>
       <c r="E10" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1530,7 +1578,7 @@
         <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -1617,7 +1665,7 @@
         <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="F14" t="s">
         <v>72</v>
@@ -1646,7 +1694,7 @@
         <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="F15" t="s">
         <v>76</v>
@@ -1675,7 +1723,7 @@
         <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="F16" t="s">
         <v>80</v>
@@ -1704,7 +1752,7 @@
         <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="F17" t="s">
         <v>85</v>
@@ -1733,7 +1781,7 @@
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="F18" t="s">
         <v>89</v>
@@ -1762,7 +1810,7 @@
         <v>92</v>
       </c>
       <c r="E19" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="F19" t="s">
         <v>94</v>

--- a/Covid_19_Dataset_and_References/References/82.xlsx
+++ b/Covid_19_Dataset_and_References/References/82.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="305">
   <si>
     <t>Doi</t>
   </si>
@@ -983,6 +983,102 @@
   </si>
   <si>
     <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,            Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,            Federico%Marchetti%federico.marchetti@auslromagna.it%1,            Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,            Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,            Marta%Romanengo%marta.romanengo@gmail.com%0,            Enrico%Felici%enrico.felici@ospedale.al.it%1,            Antonio%Urbino%afurbino@icloud.com%1,            Liviana%Da Dalt%liviana.dadalt@unipd.it%1,            Lucio%Verdoni%lverdoni@asst-pg23.it%1,            Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,            Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,            Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,            Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,            Anna Maria%Musolino%annamaria.musolino@opbg.net%1,            Marco%Binotti%marco.binotti@med.uniupo.it%1,            Paolo%Biban%paolo.biban@aovr.veneto.it%1,            Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,            Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,            Flavia%Nicoloso%flavianicoloso@gmail.com%1,            Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,            Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,            Danilo%Buonsenso%danilobuonsenso@gmail.com%1,            Massimo%Chiossi%max.chiossi@gmail.com%1,            Rino%Agostiniani%rinoagostiniani@gmail.com%1,            Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,            Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,            Marcello%Lanari%marcello.lanari@unibo.it%1,            Serena%Arrigo%arrigoserena@gmail.com%1,            Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,            Matteo%Lenge%matteo.lenge@meyer.it%1,            Stefano%Masi%stefano.masi@meyer.it%1,            Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,            Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,            NULL%NULL%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%2,             Jianbo%Shao%xzhuge27@163.com%2,             Yu%Guo%NULL%4,             Yu%Guo%NULL%0,             Xuehua%Peng%NULL%4,             Xuehua%Peng%NULL%0,             Zhen%Li%NULL%2,             Daoyu%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%0,             Jianbo%Shao%xzhuge27@163.com%0,             Yu%Guo%NULL%0,             Yu%Guo%NULL%0,             Xuehua%Peng%NULL%0,             Xuehua%Peng%NULL%0,             Zhen%Li%NULL%0,             Daoyu%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michela%Antonelli%NULL%1,             Rose S%Penfold%NULL%1,             Jordi%Merino%NULL%1,             Carole H%Sudre%NULL%1,             Erika%Molteni%NULL%1,             Sarah%Berry%NULL%1,             Liane S%Canas%NULL%1,             Mark S%Graham%NULL%1,             Kerstin%Klaser%NULL%1,             Marc%Modat%NULL%1,             Benjamin%Murray%NULL%1,             Eric%Kerfoot%NULL%1,             Liyuan%Chen%NULL%1,             Jie%Deng%NULL%1,             Marc F%Österdahl%NULL%1,             Nathan J%Cheetham%NULL%1,             David A%Drew%NULL%1,             Long H%Nguyen%NULL%1,             Joan Capdevila%Pujol%NULL%1,             Christina%Hu%NULL%1,             Somesh%Selvachandran%NULL%1,             Lorenzo%Polidori%NULL%1,             Anna%May%NULL%1,             Jonathan%Wolf%NULL%1,             Andrew T%Chan%NULL%1,             Alexander%Hammers%NULL%1,             Emma L%Duncan%NULL%1,             Tim D%Spector%NULL%1,             Sebastien%Ourselin%NULL%1,             Claire J%Steves%claire.j.steves@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Qinxue%Shen%NULL%1,             Wei%Guo%NULL%1,             Ting%Guo%NULL%1,             Jinhua%Li%NULL%1,             Wenlong%He%NULL%1,             Shanshan%Ni%NULL%1,             Xiaoli%Ouyang%NULL%1,             Jiyang%Liu%NULL%1,             Yuanlin%Xie%NULL%1,             Xin%Tan%NULL%1,             Zhiguo%Zhou%13807311490@163.com%1,             Hong%Peng%penghong66@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Ya\u2010nan%Han%xref no email%1,         Zhan\u2010wei%Feng%xref no email%1,         Li\u2010na%Sun%xref no email%1,         Xiao\u2010xia%Ren%xref no email%1,         Hua%Wang%xref no email%1,         Yong\u2010ming%Xue%xref no email%1,         Yi%Wang%xref no email%1,         Ying%Fang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Zhang%NULL%1,             Songming%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lu%Lin%NULL%1,             Xiayang%Jiang%NULL%1,             Zhenling%Zhang%NULL%1,             Siwen%Huang%NULL%1,             Zhenyi%Zhang%NULL%1,             Zhaoxiong%Fang%NULL%1,             Zhiqiang%Gu%NULL%1,             Liangqing%Gao%NULL%1,             Honggang%Shi%NULL%1,             Lei%Mai%NULL%1,             Yuan%Liu%NULL%1,             Xianqi%Lin%NULL%1,             Renxu%Lai%NULL%1,             Zhixiang%Yan%NULL%1,             Xiaofeng%Li%NULL%2,             Xiaofeng%Li%NULL%0,             Hong%Shan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,             Hui%Li%NULL%1,             Xiao-Xia%Lu%NULL%1,             Han%Xiao%NULL%1,             Jie%Ren%NULL%1,             Fu-Rong%Zhang%792523496@qq.com%1,             Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Xu%NULL%1,             Xufang%Li%NULL%1,             Bing%Zhu%NULL%1,             Huiying%Liang%NULL%1,             Chunxiao%Fang%NULL%1,             Yu%Gong%NULL%1,             Qiaozhi%Guo%NULL%1,             Xin%Sun%NULL%1,             Danyang%Zhao%NULL%1,             Jun%Shen%NULL%1,             Huayan%Zhang%NULL%1,             Hongsheng%Liu%NULL%2,             Hongsheng%Liu%NULL%0,             Huimin%Xia%huiminxia@hotmail.com%1,             Jinling%Tang%jltang@cuhk.edu.hk%1,             Kang%Zhang%kang.zhang@gmail.com%1,             Sitang%Gong%sitangg@126.com%2,             Sitang%Gong%sitangg@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Alfredo%Tagarro%xref no email%1,         Cristina%Epalza%xref no email%1,         Mar%Santos%xref no email%1,         Francisco Jos\u00e9%Sanz-Santaeufemia%xref no email%1,         Enrique%Otheo%xref no email%1,         Cinta%Moraleda%xref no email%1,         Cristina%Calvo%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yuhan%Xing%NULL%1,             Wei%Ni%NULL%1,             Qin%Wu%NULL%1,             Wenjie%Li%NULL%1,             Guoju%Li%NULL%1,             Wendi%Wang%NULL%1,             Jianning%Tong%NULL%1,             Xiufeng%Song%NULL%1,             Gary Wing Kin%Wong%NULL%1,             Quansheng%Xing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giacomo%Brisca%giacomobrisca@gmail.com%1,             Marta%Ferretti%NULL%2,             Marta%Ferretti%NULL%0,             Giulia%Sartoris%NULL%1,             Maria Beatrice%Damasio%NULL%1,             Isabella%Buffoni%NULL%2,             Isabella%Buffoni%NULL%0,             Daniela%Pirlo%NULL%1,             Marta%Romanengo%NULL%2,             Emanuela%Piccotti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Louise%Gaborieau%NULL%1,             Celine%Delestrain%NULL%1,             Philippe%Bensaid%NULL%1,             Audrey%Vizeneux%NULL%1,             Philippe%Blanc%NULL%1,             Aurélie%Garraffo%NULL%1,             Emilie%Georget%NULL%1,             Arnaud%Chalvon%NULL%1,             Nathalie%Garrec%NULL%1,             Yacine%Laoudi%NULL%1,             Emmanuelle%Varon%NULL%1,             Sébastien%Rouget%NULL%1,             Alexandre%Pupin%NULL%1,             Khaled%Abdel Aal%NULL%1,             David%Toulorge%NULL%1,             Sarah%Ducrocq%NULL%1,             Catherine%Barrey%NULL%1,             Letitia%Pantalone%NULL%1,             Blandine%Robert%NULL%1,             Lydie%Joly-Sanchez%NULL%1,             Caroline%Thach%NULL%2,             Caroline%Thach%NULL%0,             Caroline%Masserot-Lureau%NULL%1,             Jamilé%Chahine%NULL%1,             Veronica%Risso Garcia-Roudaut%NULL%1,             Jonathan%Rozental%NULL%1,             Sylvie%Nathanson%NULL%1,             Mohamed%Khaled%NULL%1,             Alexis%Mandelcwajg%NULL%1,             Nadia%Demayer%NULL%1,             Stéphanie%Muller%NULL%1,             Mustapha%Mazerghane%NULL%1,             Ralph%Epaud%NULL%1,             Béatrice%Pellegrino%NULL%2,             Béatrice%Pellegrino%NULL%0,             Fouad%Madhi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chun‐Zhen%Hua%NULL%1,             Zi‐Ping%Miao%NULL%1,             Ji‐Shan%Zheng%NULL%2,             Ji‐Shan%Zheng%NULL%0,             Qian%Huang%NULL%1,             Qing‐Feng%Sun%NULL%1,             Hong‐Ping%Lu%NULL%1,             Fei‐Fei%Su%NULL%1,             Wei‐Hong%Wang%NULL%1,             Lie‐Ping%Huang%NULL%1,             Da‐Qing%Chen%NULL%1,             Zhi‐Wei%Xu%NULL%1,             Le‐Dan%Ji%NULL%1,             Hong‐Ping%Zhang%NULL%1,             Xiao‐Wei%Yang%NULL%1,             Ming‐Hui%Li%NULL%1,             Yue‐Yan%Mao%NULL%1,             Man‐Zhen%Ying%NULL%1,             Sheng%Ye%NULL%1,             Qiang%Shu%shuqiang@zju.edu.cn%1,             En‐Fu%Chen%enfchen@cdc.zj.cn%2,             En‐Fu%Chen%enfchen@cdc.zj.cn%0,             Jian‐Feng%Liang%NULL%1,             Wei%Wang%NULL%1,             Zhi‐Min%Chen%NULL%1,             Wei%Li%NULL%1,             Jun‐Fen%Fu%fjf68@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[María%de Ceano-Vivas%NULL%1,             Irene%Martín-Espín%NULL%1,             Teresa%del Rosal%NULL%1,             Marta%Bueno-Barriocanal%NULL%2,             Marta%Bueno-Barriocanal%NULL%0,             Marta%Plata-Gallardo%NULL%1,             José Antonio%Ruiz-Domínguez%NULL%1,             Rosario%López-López%NULL%2,             Rosario%López-López%NULL%0,             Miguel Ángel%Molina-Gutiérrez%NULL%1,             Patricia%Bote-Gascón%NULL%2,             Patricia%Bote-Gascón%NULL%0,             Isabel%González-Bertolín%NULL%1,             Paula%García-Sánchez%NULL%2,             Paula%García-Sánchez%NULL%0,             Julia%Martín-Sánchez%NULL%1,             Begoña%de Miguel-Lavisier%NULL%1,             Talía%Sainz%NULL%1,             Fernando%Baquero-Artigao%NULL%1,             Ana%Méndez-Echevarría%NULL%1,             Cristina%Calvo%NULL%2,             Cristina%Calvo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,             Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,             Federico%Marchetti%federico.marchetti@auslromagna.it%1,             Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,             Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,             Marta%Romanengo%marta.romanengo@gmail.com%0,             Enrico%Felici%enrico.felici@ospedale.al.it%1,             Antonio%Urbino%afurbino@icloud.com%1,             Liviana%Da Dalt%liviana.dadalt@unipd.it%1,             Lucio%Verdoni%lverdoni@asst-pg23.it%1,             Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,             Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,             Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,             Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,             Anna Maria%Musolino%annamaria.musolino@opbg.net%1,             Marco%Binotti%marco.binotti@med.uniupo.it%1,             Paolo%Biban%paolo.biban@aovr.veneto.it%1,             Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,             Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,             Flavia%Nicoloso%flavianicoloso@gmail.com%1,             Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,             Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,             Danilo%Buonsenso%danilobuonsenso@gmail.com%1,             Massimo%Chiossi%max.chiossi@gmail.com%1,             Rino%Agostiniani%rinoagostiniani@gmail.com%1,             Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,             Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,             Marcello%Lanari%marcello.lanari@unibo.it%1,             Serena%Arrigo%arrigoserena@gmail.com%1,             Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,             Matteo%Lenge%matteo.lenge@meyer.it%1,             Stefano%Masi%stefano.masi@meyer.it%1,             Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,             Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,             NULL%NULL%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%2,              Jianbo%Shao%xzhuge27@163.com%2,              Yu%Guo%NULL%4,              Yu%Guo%NULL%0,              Xuehua%Peng%NULL%4,              Xuehua%Peng%NULL%0,              Zhen%Li%NULL%2,              Daoyu%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%0,              Jianbo%Shao%xzhuge27@163.com%0,              Yu%Guo%NULL%0,              Yu%Guo%NULL%0,              Xuehua%Peng%NULL%0,              Xuehua%Peng%NULL%0,              Zhen%Li%NULL%0,              Daoyu%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michela%Antonelli%NULL%1,              Rose S%Penfold%NULL%1,              Jordi%Merino%NULL%1,              Carole H%Sudre%NULL%1,              Erika%Molteni%NULL%1,              Sarah%Berry%NULL%1,              Liane S%Canas%NULL%1,              Mark S%Graham%NULL%1,              Kerstin%Klaser%NULL%1,              Marc%Modat%NULL%1,              Benjamin%Murray%NULL%1,              Eric%Kerfoot%NULL%1,              Liyuan%Chen%NULL%1,              Jie%Deng%NULL%1,              Marc F%Österdahl%NULL%1,              Nathan J%Cheetham%NULL%1,              David A%Drew%NULL%1,              Long H%Nguyen%NULL%1,              Joan Capdevila%Pujol%NULL%1,              Christina%Hu%NULL%1,              Somesh%Selvachandran%NULL%1,              Lorenzo%Polidori%NULL%1,              Anna%May%NULL%1,              Jonathan%Wolf%NULL%1,              Andrew T%Chan%NULL%1,              Alexander%Hammers%NULL%1,              Emma L%Duncan%NULL%1,              Tim D%Spector%NULL%1,              Sebastien%Ourselin%NULL%1,              Claire J%Steves%claire.j.steves@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Qinxue%Shen%NULL%1,              Wei%Guo%NULL%1,              Ting%Guo%NULL%1,              Jinhua%Li%NULL%1,              Wenlong%He%NULL%1,              Shanshan%Ni%NULL%1,              Xiaoli%Ouyang%NULL%1,              Jiyang%Liu%NULL%1,              Yuanlin%Xie%NULL%1,              Xin%Tan%NULL%1,              Zhiguo%Zhou%13807311490@163.com%1,              Hong%Peng%penghong66@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Ya\u2010nan%Han%xref no email%1,          Zhan\u2010wei%Feng%xref no email%1,          Li\u2010na%Sun%xref no email%1,          Xiao\u2010xia%Ren%xref no email%1,          Hua%Wang%xref no email%1,          Yong\u2010ming%Xue%xref no email%1,          Yi%Wang%xref no email%1,          Ying%Fang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Zhang%NULL%1,              Songming%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lu%Lin%NULL%1,              Xiayang%Jiang%NULL%1,              Zhenling%Zhang%NULL%1,              Siwen%Huang%NULL%1,              Zhenyi%Zhang%NULL%1,              Zhaoxiong%Fang%NULL%1,              Zhiqiang%Gu%NULL%1,              Liangqing%Gao%NULL%1,              Honggang%Shi%NULL%1,              Lei%Mai%NULL%1,              Yuan%Liu%NULL%1,              Xianqi%Lin%NULL%1,              Renxu%Lai%NULL%1,              Zhixiang%Yan%NULL%1,              Xiaofeng%Li%NULL%2,              Xiaofeng%Li%NULL%0,              Hong%Shan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,              Hui%Li%NULL%1,              Xiao-Xia%Lu%NULL%1,              Han%Xiao%NULL%1,              Jie%Ren%NULL%1,              Fu-Rong%Zhang%792523496@qq.com%1,              Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Xu%NULL%1,              Xufang%Li%NULL%1,              Bing%Zhu%NULL%1,              Huiying%Liang%NULL%1,              Chunxiao%Fang%NULL%1,              Yu%Gong%NULL%1,              Qiaozhi%Guo%NULL%1,              Xin%Sun%NULL%1,              Danyang%Zhao%NULL%1,              Jun%Shen%NULL%1,              Huayan%Zhang%NULL%1,              Hongsheng%Liu%NULL%2,              Hongsheng%Liu%NULL%0,              Huimin%Xia%huiminxia@hotmail.com%1,              Jinling%Tang%jltang@cuhk.edu.hk%1,              Kang%Zhang%kang.zhang@gmail.com%1,              Sitang%Gong%sitangg@126.com%2,              Sitang%Gong%sitangg@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Alfredo%Tagarro%xref no email%1,          Cristina%Epalza%xref no email%1,          Mar%Santos%xref no email%1,          Francisco Jos\u00e9%Sanz-Santaeufemia%xref no email%1,          Enrique%Otheo%xref no email%1,          Cinta%Moraleda%xref no email%1,          Cristina%Calvo%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yuhan%Xing%NULL%1,              Wei%Ni%NULL%1,              Qin%Wu%NULL%1,              Wenjie%Li%NULL%1,              Guoju%Li%NULL%1,              Wendi%Wang%NULL%1,              Jianning%Tong%NULL%1,              Xiufeng%Song%NULL%1,              Gary Wing Kin%Wong%NULL%1,              Quansheng%Xing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giacomo%Brisca%giacomobrisca@gmail.com%1,              Marta%Ferretti%NULL%2,              Marta%Ferretti%NULL%0,              Giulia%Sartoris%NULL%1,              Maria Beatrice%Damasio%NULL%1,              Isabella%Buffoni%NULL%2,              Isabella%Buffoni%NULL%0,              Daniela%Pirlo%NULL%1,              Marta%Romanengo%NULL%2,              Emanuela%Piccotti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Louise%Gaborieau%NULL%1,              Celine%Delestrain%NULL%1,              Philippe%Bensaid%NULL%1,              Audrey%Vizeneux%NULL%1,              Philippe%Blanc%NULL%1,              Aurélie%Garraffo%NULL%1,              Emilie%Georget%NULL%1,              Arnaud%Chalvon%NULL%1,              Nathalie%Garrec%NULL%1,              Yacine%Laoudi%NULL%1,              Emmanuelle%Varon%NULL%1,              Sébastien%Rouget%NULL%1,              Alexandre%Pupin%NULL%1,              Khaled%Abdel Aal%NULL%1,              David%Toulorge%NULL%1,              Sarah%Ducrocq%NULL%1,              Catherine%Barrey%NULL%1,              Letitia%Pantalone%NULL%1,              Blandine%Robert%NULL%1,              Lydie%Joly-Sanchez%NULL%1,              Caroline%Thach%NULL%2,              Caroline%Thach%NULL%0,              Caroline%Masserot-Lureau%NULL%1,              Jamilé%Chahine%NULL%1,              Veronica%Risso Garcia-Roudaut%NULL%1,              Jonathan%Rozental%NULL%1,              Sylvie%Nathanson%NULL%1,              Mohamed%Khaled%NULL%1,              Alexis%Mandelcwajg%NULL%1,              Nadia%Demayer%NULL%1,              Stéphanie%Muller%NULL%1,              Mustapha%Mazerghane%NULL%1,              Ralph%Epaud%NULL%1,              Béatrice%Pellegrino%NULL%2,              Béatrice%Pellegrino%NULL%0,              Fouad%Madhi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chun‐Zhen%Hua%NULL%1,              Zi‐Ping%Miao%NULL%1,              Ji‐Shan%Zheng%NULL%2,              Ji‐Shan%Zheng%NULL%0,              Qian%Huang%NULL%1,              Qing‐Feng%Sun%NULL%1,              Hong‐Ping%Lu%NULL%1,              Fei‐Fei%Su%NULL%1,              Wei‐Hong%Wang%NULL%1,              Lie‐Ping%Huang%NULL%1,              Da‐Qing%Chen%NULL%1,              Zhi‐Wei%Xu%NULL%1,              Le‐Dan%Ji%NULL%1,              Hong‐Ping%Zhang%NULL%1,              Xiao‐Wei%Yang%NULL%1,              Ming‐Hui%Li%NULL%1,              Yue‐Yan%Mao%NULL%1,              Man‐Zhen%Ying%NULL%1,              Sheng%Ye%NULL%1,              Qiang%Shu%shuqiang@zju.edu.cn%1,              En‐Fu%Chen%enfchen@cdc.zj.cn%2,              En‐Fu%Chen%enfchen@cdc.zj.cn%0,              Jian‐Feng%Liang%NULL%1,              Wei%Wang%NULL%1,              Zhi‐Min%Chen%NULL%1,              Wei%Li%NULL%1,              Jun‐Fen%Fu%fjf68@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[María%de Ceano-Vivas%NULL%1,              Irene%Martín-Espín%NULL%1,              Teresa%del Rosal%NULL%1,              Marta%Bueno-Barriocanal%NULL%2,              Marta%Bueno-Barriocanal%NULL%0,              Marta%Plata-Gallardo%NULL%1,              José Antonio%Ruiz-Domínguez%NULL%1,              Rosario%López-López%NULL%2,              Rosario%López-López%NULL%0,              Miguel Ángel%Molina-Gutiérrez%NULL%1,              Patricia%Bote-Gascón%NULL%2,              Patricia%Bote-Gascón%NULL%0,              Isabel%González-Bertolín%NULL%1,              Paula%García-Sánchez%NULL%2,              Paula%García-Sánchez%NULL%0,              Julia%Martín-Sánchez%NULL%1,              Begoña%de Miguel-Lavisier%NULL%1,              Talía%Sainz%NULL%1,              Fernando%Baquero-Artigao%NULL%1,              Ana%Méndez-Echevarría%NULL%1,              Cristina%Calvo%NULL%2,              Cristina%Calvo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,              Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,              Federico%Marchetti%federico.marchetti@auslromagna.it%1,              Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,              Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,              Marta%Romanengo%marta.romanengo@gmail.com%0,              Enrico%Felici%enrico.felici@ospedale.al.it%1,              Antonio%Urbino%afurbino@icloud.com%1,              Liviana%Da Dalt%liviana.dadalt@unipd.it%1,              Lucio%Verdoni%lverdoni@asst-pg23.it%1,              Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,              Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,              Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,              Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,              Anna Maria%Musolino%annamaria.musolino@opbg.net%1,              Marco%Binotti%marco.binotti@med.uniupo.it%1,              Paolo%Biban%paolo.biban@aovr.veneto.it%1,              Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,              Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,              Flavia%Nicoloso%flavianicoloso@gmail.com%1,              Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,              Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,              Danilo%Buonsenso%danilobuonsenso@gmail.com%1,              Massimo%Chiossi%max.chiossi@gmail.com%1,              Rino%Agostiniani%rinoagostiniani@gmail.com%1,              Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,              Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,              Marcello%Lanari%marcello.lanari@unibo.it%1,              Serena%Arrigo%arrigoserena@gmail.com%1,              Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,              Matteo%Lenge%matteo.lenge@meyer.it%1,              Stefano%Masi%stefano.masi@meyer.it%1,              Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,              Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,              NULL%NULL%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1413,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1346,7 +1442,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -1375,7 +1471,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -1404,7 +1500,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1433,7 +1529,7 @@
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -1462,7 +1558,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -1491,7 +1587,7 @@
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -1520,7 +1616,7 @@
         <v>214</v>
       </c>
       <c r="E9" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -1549,7 +1645,7 @@
         <v>216</v>
       </c>
       <c r="E10" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1578,7 +1674,7 @@
         <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -1665,7 +1761,7 @@
         <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="F14" t="s">
         <v>72</v>
@@ -1694,7 +1790,7 @@
         <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="F15" t="s">
         <v>76</v>
@@ -1723,7 +1819,7 @@
         <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="F16" t="s">
         <v>80</v>
@@ -1752,7 +1848,7 @@
         <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="F17" t="s">
         <v>85</v>
@@ -1781,7 +1877,7 @@
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="F18" t="s">
         <v>89</v>
@@ -1810,7 +1906,7 @@
         <v>92</v>
       </c>
       <c r="E19" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="F19" t="s">
         <v>94</v>

--- a/Covid_19_Dataset_and_References/References/82.xlsx
+++ b/Covid_19_Dataset_and_References/References/82.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="321">
   <si>
     <t>Doi</t>
   </si>
@@ -1079,6 +1079,54 @@
   </si>
   <si>
     <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,              Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,              Federico%Marchetti%federico.marchetti@auslromagna.it%1,              Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,              Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,              Marta%Romanengo%marta.romanengo@gmail.com%0,              Enrico%Felici%enrico.felici@ospedale.al.it%1,              Antonio%Urbino%afurbino@icloud.com%1,              Liviana%Da Dalt%liviana.dadalt@unipd.it%1,              Lucio%Verdoni%lverdoni@asst-pg23.it%1,              Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,              Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,              Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,              Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,              Anna Maria%Musolino%annamaria.musolino@opbg.net%1,              Marco%Binotti%marco.binotti@med.uniupo.it%1,              Paolo%Biban%paolo.biban@aovr.veneto.it%1,              Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,              Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,              Flavia%Nicoloso%flavianicoloso@gmail.com%1,              Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,              Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,              Danilo%Buonsenso%danilobuonsenso@gmail.com%1,              Massimo%Chiossi%max.chiossi@gmail.com%1,              Rino%Agostiniani%rinoagostiniani@gmail.com%1,              Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,              Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,              Marcello%Lanari%marcello.lanari@unibo.it%1,              Serena%Arrigo%arrigoserena@gmail.com%1,              Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,              Matteo%Lenge%matteo.lenge@meyer.it%1,              Stefano%Masi%stefano.masi@meyer.it%1,              Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,              Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,              NULL%NULL%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%2,               Jianbo%Shao%xzhuge27@163.com%2,               Yu%Guo%NULL%4,               Yu%Guo%NULL%0,               Xuehua%Peng%NULL%4,               Xuehua%Peng%NULL%0,               Zhen%Li%NULL%2,               Daoyu%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%0,               Jianbo%Shao%xzhuge27@163.com%0,               Yu%Guo%NULL%0,               Yu%Guo%NULL%0,               Xuehua%Peng%NULL%0,               Xuehua%Peng%NULL%0,               Zhen%Li%NULL%0,               Daoyu%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michela%Antonelli%NULL%1,               Rose S%Penfold%NULL%1,               Jordi%Merino%NULL%1,               Carole H%Sudre%NULL%1,               Erika%Molteni%NULL%1,               Sarah%Berry%NULL%1,               Liane S%Canas%NULL%1,               Mark S%Graham%NULL%1,               Kerstin%Klaser%NULL%1,               Marc%Modat%NULL%1,               Benjamin%Murray%NULL%1,               Eric%Kerfoot%NULL%1,               Liyuan%Chen%NULL%1,               Jie%Deng%NULL%1,               Marc F%Österdahl%NULL%1,               Nathan J%Cheetham%NULL%1,               David A%Drew%NULL%1,               Long H%Nguyen%NULL%1,               Joan Capdevila%Pujol%NULL%1,               Christina%Hu%NULL%1,               Somesh%Selvachandran%NULL%1,               Lorenzo%Polidori%NULL%1,               Anna%May%NULL%1,               Jonathan%Wolf%NULL%1,               Andrew T%Chan%NULL%1,               Alexander%Hammers%NULL%1,               Emma L%Duncan%NULL%1,               Tim D%Spector%NULL%1,               Sebastien%Ourselin%NULL%1,               Claire J%Steves%claire.j.steves@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Qinxue%Shen%NULL%1,               Wei%Guo%NULL%1,               Ting%Guo%NULL%1,               Jinhua%Li%NULL%1,               Wenlong%He%NULL%1,               Shanshan%Ni%NULL%1,               Xiaoli%Ouyang%NULL%1,               Jiyang%Liu%NULL%1,               Yuanlin%Xie%NULL%1,               Xin%Tan%NULL%1,               Zhiguo%Zhou%13807311490@163.com%1,               Hong%Peng%penghong66@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Ya\u2010nan%Han%xref no email%1,           Zhan\u2010wei%Feng%xref no email%1,           Li\u2010na%Sun%xref no email%1,           Xiao\u2010xia%Ren%xref no email%1,           Hua%Wang%xref no email%0,           Yong\u2010ming%Xue%xref no email%1,           Yi%Wang%xref no email%1,           Ying%Fang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Zhang%NULL%1,               Songming%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lu%Lin%NULL%1,               Xiayang%Jiang%NULL%1,               Zhenling%Zhang%NULL%1,               Siwen%Huang%NULL%1,               Zhenyi%Zhang%NULL%1,               Zhaoxiong%Fang%NULL%1,               Zhiqiang%Gu%NULL%1,               Liangqing%Gao%NULL%1,               Honggang%Shi%NULL%1,               Lei%Mai%NULL%1,               Yuan%Liu%NULL%1,               Xianqi%Lin%NULL%1,               Renxu%Lai%NULL%1,               Zhixiang%Yan%NULL%1,               Xiaofeng%Li%NULL%2,               Xiaofeng%Li%NULL%0,               Hong%Shan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,               Hui%Li%NULL%1,               Xiao-Xia%Lu%NULL%1,               Han%Xiao%NULL%1,               Jie%Ren%NULL%1,               Fu-Rong%Zhang%792523496@qq.com%1,               Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Xu%NULL%1,               Xufang%Li%NULL%1,               Bing%Zhu%NULL%1,               Huiying%Liang%NULL%1,               Chunxiao%Fang%NULL%1,               Yu%Gong%NULL%1,               Qiaozhi%Guo%NULL%1,               Xin%Sun%NULL%1,               Danyang%Zhao%NULL%1,               Jun%Shen%NULL%1,               Huayan%Zhang%NULL%1,               Hongsheng%Liu%NULL%2,               Hongsheng%Liu%NULL%0,               Huimin%Xia%huiminxia@hotmail.com%1,               Jinling%Tang%jltang@cuhk.edu.hk%1,               Kang%Zhang%kang.zhang@gmail.com%1,               Sitang%Gong%sitangg@126.com%2,               Sitang%Gong%sitangg@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Alfredo%Tagarro%xref no email%1,           Cristina%Epalza%xref no email%1,           Mar%Santos%xref no email%1,           Francisco Jos\u00e9%Sanz-Santaeufemia%xref no email%1,           Enrique%Otheo%xref no email%1,           Cinta%Moraleda%xref no email%1,           Cristina%Calvo%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yuhan%Xing%NULL%1,               Wei%Ni%NULL%1,               Qin%Wu%NULL%1,               Wenjie%Li%NULL%1,               Guoju%Li%NULL%1,               Wendi%Wang%NULL%1,               Jianning%Tong%NULL%1,               Xiufeng%Song%NULL%1,               Gary Wing Kin%Wong%NULL%1,               Quansheng%Xing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giacomo%Brisca%giacomobrisca@gmail.com%1,               Marta%Ferretti%NULL%2,               Marta%Ferretti%NULL%0,               Giulia%Sartoris%NULL%1,               Maria Beatrice%Damasio%NULL%1,               Isabella%Buffoni%NULL%2,               Isabella%Buffoni%NULL%0,               Daniela%Pirlo%NULL%1,               Marta%Romanengo%NULL%2,               Emanuela%Piccotti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Louise%Gaborieau%NULL%1,               Celine%Delestrain%NULL%1,               Philippe%Bensaid%NULL%1,               Audrey%Vizeneux%NULL%1,               Philippe%Blanc%NULL%1,               Aurélie%Garraffo%NULL%1,               Emilie%Georget%NULL%1,               Arnaud%Chalvon%NULL%1,               Nathalie%Garrec%NULL%1,               Yacine%Laoudi%NULL%1,               Emmanuelle%Varon%NULL%1,               Sébastien%Rouget%NULL%1,               Alexandre%Pupin%NULL%1,               Khaled%Abdel Aal%NULL%1,               David%Toulorge%NULL%1,               Sarah%Ducrocq%NULL%1,               Catherine%Barrey%NULL%1,               Letitia%Pantalone%NULL%1,               Blandine%Robert%NULL%1,               Lydie%Joly-Sanchez%NULL%1,               Caroline%Thach%NULL%2,               Caroline%Thach%NULL%0,               Caroline%Masserot-Lureau%NULL%1,               Jamilé%Chahine%NULL%1,               Veronica%Risso Garcia-Roudaut%NULL%1,               Jonathan%Rozental%NULL%1,               Sylvie%Nathanson%NULL%1,               Mohamed%Khaled%NULL%1,               Alexis%Mandelcwajg%NULL%1,               Nadia%Demayer%NULL%1,               Stéphanie%Muller%NULL%1,               Mustapha%Mazerghane%NULL%1,               Ralph%Epaud%NULL%1,               Béatrice%Pellegrino%NULL%2,               Béatrice%Pellegrino%NULL%0,               Fouad%Madhi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chun‐Zhen%Hua%NULL%1,               Zi‐Ping%Miao%NULL%1,               Ji‐Shan%Zheng%NULL%2,               Ji‐Shan%Zheng%NULL%0,               Qian%Huang%NULL%1,               Qing‐Feng%Sun%NULL%1,               Hong‐Ping%Lu%NULL%1,               Fei‐Fei%Su%NULL%1,               Wei‐Hong%Wang%NULL%1,               Lie‐Ping%Huang%NULL%1,               Da‐Qing%Chen%NULL%1,               Zhi‐Wei%Xu%NULL%1,               Le‐Dan%Ji%NULL%1,               Hong‐Ping%Zhang%NULL%1,               Xiao‐Wei%Yang%NULL%1,               Ming‐Hui%Li%NULL%1,               Yue‐Yan%Mao%NULL%1,               Man‐Zhen%Ying%NULL%1,               Sheng%Ye%NULL%1,               Qiang%Shu%shuqiang@zju.edu.cn%1,               En‐Fu%Chen%enfchen@cdc.zj.cn%2,               En‐Fu%Chen%enfchen@cdc.zj.cn%0,               Jian‐Feng%Liang%NULL%1,               Wei%Wang%NULL%1,               Zhi‐Min%Chen%NULL%1,               Wei%Li%NULL%1,               Jun‐Fen%Fu%fjf68@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[María%de Ceano-Vivas%NULL%1,               Irene%Martín-Espín%NULL%1,               Teresa%del Rosal%NULL%1,               Marta%Bueno-Barriocanal%NULL%2,               Marta%Bueno-Barriocanal%NULL%0,               Marta%Plata-Gallardo%NULL%1,               José Antonio%Ruiz-Domínguez%NULL%1,               Rosario%López-López%NULL%2,               Rosario%López-López%NULL%0,               Miguel Ángel%Molina-Gutiérrez%NULL%1,               Patricia%Bote-Gascón%NULL%2,               Patricia%Bote-Gascón%NULL%0,               Isabel%González-Bertolín%NULL%1,               Paula%García-Sánchez%NULL%2,               Paula%García-Sánchez%NULL%0,               Julia%Martín-Sánchez%NULL%1,               Begoña%de Miguel-Lavisier%NULL%1,               Talía%Sainz%NULL%1,               Fernando%Baquero-Artigao%NULL%1,               Ana%Méndez-Echevarría%NULL%1,               Cristina%Calvo%NULL%2,               Cristina%Calvo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,               Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,               Federico%Marchetti%federico.marchetti@auslromagna.it%1,               Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,               Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,               Marta%Romanengo%marta.romanengo@gmail.com%0,               Enrico%Felici%enrico.felici@ospedale.al.it%1,               Antonio%Urbino%afurbino@icloud.com%1,               Liviana%Da Dalt%liviana.dadalt@unipd.it%1,               Lucio%Verdoni%lverdoni@asst-pg23.it%1,               Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,               Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,               Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,               Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,               Anna Maria%Musolino%annamaria.musolino@opbg.net%1,               Marco%Binotti%marco.binotti@med.uniupo.it%1,               Paolo%Biban%paolo.biban@aovr.veneto.it%1,               Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,               Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,               Flavia%Nicoloso%flavianicoloso@gmail.com%1,               Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,               Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,               Danilo%Buonsenso%danilobuonsenso@gmail.com%1,               Massimo%Chiossi%max.chiossi@gmail.com%1,               Rino%Agostiniani%rinoagostiniani@gmail.com%1,               Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,               Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,               Marcello%Lanari%marcello.lanari@unibo.it%1,               Serena%Arrigo%arrigoserena@gmail.com%1,               Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,               Matteo%Lenge%matteo.lenge@meyer.it%1,               Stefano%Masi%stefano.masi@meyer.it%1,               Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,               Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,               NULL%NULL%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1413,7 +1461,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1442,7 +1490,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -1471,7 +1519,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -1500,7 +1548,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1529,7 +1577,7 @@
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -1558,7 +1606,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -1587,7 +1635,7 @@
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -1616,7 +1664,7 @@
         <v>214</v>
       </c>
       <c r="E9" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -1645,7 +1693,7 @@
         <v>216</v>
       </c>
       <c r="E10" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1674,7 +1722,7 @@
         <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -1761,7 +1809,7 @@
         <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="F14" t="s">
         <v>72</v>
@@ -1790,7 +1838,7 @@
         <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="F15" t="s">
         <v>76</v>
@@ -1819,7 +1867,7 @@
         <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="F16" t="s">
         <v>80</v>
@@ -1848,7 +1896,7 @@
         <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="F17" t="s">
         <v>85</v>
@@ -1877,7 +1925,7 @@
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="F18" t="s">
         <v>89</v>
@@ -1906,7 +1954,7 @@
         <v>92</v>
       </c>
       <c r="E19" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="F19" t="s">
         <v>94</v>

--- a/Covid_19_Dataset_and_References/References/82.xlsx
+++ b/Covid_19_Dataset_and_References/References/82.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="340">
   <si>
     <t>Doi</t>
   </si>
@@ -1127,6 +1127,63 @@
   </si>
   <si>
     <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,               Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,               Federico%Marchetti%federico.marchetti@auslromagna.it%1,               Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,               Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,               Marta%Romanengo%marta.romanengo@gmail.com%0,               Enrico%Felici%enrico.felici@ospedale.al.it%1,               Antonio%Urbino%afurbino@icloud.com%1,               Liviana%Da Dalt%liviana.dadalt@unipd.it%1,               Lucio%Verdoni%lverdoni@asst-pg23.it%1,               Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,               Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,               Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,               Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,               Anna Maria%Musolino%annamaria.musolino@opbg.net%1,               Marco%Binotti%marco.binotti@med.uniupo.it%1,               Paolo%Biban%paolo.biban@aovr.veneto.it%1,               Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,               Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,               Flavia%Nicoloso%flavianicoloso@gmail.com%1,               Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,               Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,               Danilo%Buonsenso%danilobuonsenso@gmail.com%1,               Massimo%Chiossi%max.chiossi@gmail.com%1,               Rino%Agostiniani%rinoagostiniani@gmail.com%1,               Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,               Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,               Marcello%Lanari%marcello.lanari@unibo.it%1,               Serena%Arrigo%arrigoserena@gmail.com%1,               Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,               Matteo%Lenge%matteo.lenge@meyer.it%1,               Stefano%Masi%stefano.masi@meyer.it%1,               Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,               Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,               NULL%NULL%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%2,                Jianbo%Shao%xzhuge27@163.com%2,                Yu%Guo%NULL%4,                Yu%Guo%NULL%0,                Xuehua%Peng%NULL%4,                Xuehua%Peng%NULL%0,                Zhen%Li%NULL%2,                Daoyu%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%0,                Jianbo%Shao%xzhuge27@163.com%0,                Yu%Guo%NULL%0,                Yu%Guo%NULL%0,                Xuehua%Peng%NULL%0,                Xuehua%Peng%NULL%0,                Zhen%Li%NULL%0,                Daoyu%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michela%Antonelli%NULL%1,                Rose S%Penfold%NULL%1,                Jordi%Merino%NULL%1,                Carole H%Sudre%NULL%1,                Erika%Molteni%NULL%1,                Sarah%Berry%NULL%1,                Liane S%Canas%NULL%1,                Mark S%Graham%NULL%1,                Kerstin%Klaser%NULL%1,                Marc%Modat%NULL%1,                Benjamin%Murray%NULL%1,                Eric%Kerfoot%NULL%1,                Liyuan%Chen%NULL%1,                Jie%Deng%NULL%1,                Marc F%Österdahl%NULL%1,                Nathan J%Cheetham%NULL%1,                David A%Drew%NULL%1,                Long H%Nguyen%NULL%1,                Joan Capdevila%Pujol%NULL%1,                Christina%Hu%NULL%1,                Somesh%Selvachandran%NULL%1,                Lorenzo%Polidori%NULL%1,                Anna%May%NULL%1,                Jonathan%Wolf%NULL%1,                Andrew T%Chan%NULL%1,                Alexander%Hammers%NULL%1,                Emma L%Duncan%NULL%1,                Tim D%Spector%NULL%1,                Sebastien%Ourselin%NULL%1,                Claire J%Steves%claire.j.steves@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Qinxue%Shen%NULL%1,                Wei%Guo%NULL%1,                Ting%Guo%NULL%1,                Jinhua%Li%NULL%1,                Wenlong%He%NULL%1,                Shanshan%Ni%NULL%1,                Xiaoli%Ouyang%NULL%1,                Jiyang%Liu%NULL%1,                Yuanlin%Xie%NULL%1,                Xin%Tan%NULL%1,                Zhiguo%Zhou%13807311490@163.com%1,                Hong%Peng%penghong66@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Ya\u2010nan%Han%xref no email%1,            Zhan\u2010wei%Feng%xref no email%1,            Li\u2010na%Sun%xref no email%1,            Xiao\u2010xia%Ren%xref no email%1,            Hua%Wang%xref no email%1,            Yong\u2010ming%Xue%xref no email%1,            Yi%Wang%xref no email%1,            Ying%Fang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Zhang%NULL%1,                Songming%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lu%Lin%NULL%1,                Xiayang%Jiang%NULL%1,                Zhenling%Zhang%NULL%1,                Siwen%Huang%NULL%1,                Zhenyi%Zhang%NULL%1,                Zhaoxiong%Fang%NULL%1,                Zhiqiang%Gu%NULL%1,                Liangqing%Gao%NULL%1,                Honggang%Shi%NULL%1,                Lei%Mai%NULL%1,                Yuan%Liu%NULL%1,                Xianqi%Lin%NULL%1,                Renxu%Lai%NULL%1,                Zhixiang%Yan%NULL%1,                Xiaofeng%Li%NULL%2,                Xiaofeng%Li%NULL%0,                Hong%Shan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,                Hui%Li%NULL%1,                Xiao-Xia%Lu%NULL%1,                Han%Xiao%NULL%1,                Jie%Ren%NULL%1,                Fu-Rong%Zhang%792523496@qq.com%1,                Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Yi%Xu%NULL%1,                Xufang%Li%NULL%1,                Bing%Zhu%NULL%1,                Huiying%Liang%NULL%1,                Chunxiao%Fang%NULL%1,                Yu%Gong%NULL%1,                Qiaozhi%Guo%NULL%1,                Xin%Sun%NULL%1,                Danyang%Zhao%NULL%1,                Jun%Shen%NULL%1,                Huayan%Zhang%NULL%1,                Hongsheng%Liu%NULL%2,                Hongsheng%Liu%NULL%0,                Huimin%Xia%huiminxia@hotmail.com%1,                Jinling%Tang%jltang@cuhk.edu.hk%1,                Kang%Zhang%kang.zhang@gmail.com%1,                Sitang%Gong%sitangg@126.com%2,                Sitang%Gong%sitangg@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Alfredo%Tagarro%xref no email%1,            Cristina%Epalza%xref no email%1,            Mar%Santos%xref no email%1,            Francisco Jos\u00e9%Sanz-Santaeufemia%xref no email%1,            Enrique%Otheo%xref no email%1,            Cinta%Moraleda%xref no email%1,            Cristina%Calvo%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yuhan%Xing%NULL%1,                Wei%Ni%NULL%1,                Qin%Wu%NULL%1,                Wenjie%Li%NULL%1,                Guoju%Li%NULL%1,                Wendi%Wang%NULL%1,                Jianning%Tong%NULL%1,                Xiufeng%Song%NULL%1,                Gary Wing Kin%Wong%NULL%1,                Quansheng%Xing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giacomo%Brisca%giacomobrisca@gmail.com%1,                Marta%Ferretti%NULL%2,                Marta%Ferretti%NULL%0,                Giulia%Sartoris%NULL%1,                Maria Beatrice%Damasio%NULL%1,                Isabella%Buffoni%NULL%2,                Isabella%Buffoni%NULL%0,                Daniela%Pirlo%NULL%1,                Marta%Romanengo%NULL%2,                Emanuela%Piccotti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Louise%Gaborieau%NULL%1,                Celine%Delestrain%NULL%1,                Philippe%Bensaid%NULL%1,                Audrey%Vizeneux%NULL%1,                Philippe%Blanc%NULL%1,                Aurélie%Garraffo%NULL%1,                Emilie%Georget%NULL%1,                Arnaud%Chalvon%NULL%1,                Nathalie%Garrec%NULL%1,                Yacine%Laoudi%NULL%1,                Emmanuelle%Varon%NULL%1,                Sébastien%Rouget%NULL%1,                Alexandre%Pupin%NULL%1,                Khaled%Abdel Aal%NULL%1,                David%Toulorge%NULL%1,                Sarah%Ducrocq%NULL%1,                Catherine%Barrey%NULL%1,                Letitia%Pantalone%NULL%1,                Blandine%Robert%NULL%1,                Lydie%Joly-Sanchez%NULL%1,                Caroline%Thach%NULL%2,                Caroline%Thach%NULL%0,                Caroline%Masserot-Lureau%NULL%1,                Jamilé%Chahine%NULL%1,                Veronica%Risso Garcia-Roudaut%NULL%1,                Jonathan%Rozental%NULL%1,                Sylvie%Nathanson%NULL%1,                Mohamed%Khaled%NULL%1,                Alexis%Mandelcwajg%NULL%1,                Nadia%Demayer%NULL%1,                Stéphanie%Muller%NULL%1,                Mustapha%Mazerghane%NULL%1,                Ralph%Epaud%NULL%1,                Béatrice%Pellegrino%NULL%2,                Béatrice%Pellegrino%NULL%0,                Fouad%Madhi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chun‐Zhen%Hua%NULL%1,                Zi‐Ping%Miao%NULL%1,                Ji‐Shan%Zheng%NULL%2,                Ji‐Shan%Zheng%NULL%0,                Qian%Huang%NULL%1,                Qing‐Feng%Sun%NULL%1,                Hong‐Ping%Lu%NULL%1,                Fei‐Fei%Su%NULL%1,                Wei‐Hong%Wang%NULL%1,                Lie‐Ping%Huang%NULL%1,                Da‐Qing%Chen%NULL%1,                Zhi‐Wei%Xu%NULL%1,                Le‐Dan%Ji%NULL%1,                Hong‐Ping%Zhang%NULL%1,                Xiao‐Wei%Yang%NULL%1,                Ming‐Hui%Li%NULL%1,                Yue‐Yan%Mao%NULL%1,                Man‐Zhen%Ying%NULL%1,                Sheng%Ye%NULL%1,                Qiang%Shu%shuqiang@zju.edu.cn%1,                En‐Fu%Chen%enfchen@cdc.zj.cn%2,                En‐Fu%Chen%enfchen@cdc.zj.cn%0,                Jian‐Feng%Liang%NULL%1,                Wei%Wang%NULL%1,                Zhi‐Min%Chen%NULL%1,                Wei%Li%NULL%1,                Jun‐Fen%Fu%fjf68@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[María%de Ceano-Vivas%NULL%1,                Irene%Martín-Espín%NULL%1,                Teresa%del Rosal%NULL%1,                Marta%Bueno-Barriocanal%NULL%2,                Marta%Bueno-Barriocanal%NULL%0,                Marta%Plata-Gallardo%NULL%1,                José Antonio%Ruiz-Domínguez%NULL%1,                Rosario%López-López%NULL%2,                Rosario%López-López%NULL%0,                Miguel Ángel%Molina-Gutiérrez%NULL%1,                Patricia%Bote-Gascón%NULL%2,                Patricia%Bote-Gascón%NULL%0,                Isabel%González-Bertolín%NULL%1,                Paula%García-Sánchez%NULL%2,                Paula%García-Sánchez%NULL%0,                Julia%Martín-Sánchez%NULL%1,                Begoña%de Miguel-Lavisier%NULL%1,                Talía%Sainz%NULL%1,                Fernando%Baquero-Artigao%NULL%1,                Ana%Méndez-Echevarría%NULL%1,                Cristina%Calvo%NULL%2,                Cristina%Calvo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,                Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,                Federico%Marchetti%federico.marchetti@auslromagna.it%1,                Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,                Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,                Marta%Romanengo%marta.romanengo@gmail.com%0,                Enrico%Felici%enrico.felici@ospedale.al.it%1,                Antonio%Urbino%afurbino@icloud.com%1,                Liviana%Da Dalt%liviana.dadalt@unipd.it%1,                Lucio%Verdoni%lverdoni@asst-pg23.it%1,                Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,                Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,                Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,                Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,                Anna Maria%Musolino%annamaria.musolino@opbg.net%1,                Marco%Binotti%marco.binotti@med.uniupo.it%1,                Paolo%Biban%paolo.biban@aovr.veneto.it%1,                Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,                Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,                Flavia%Nicoloso%flavianicoloso@gmail.com%1,                Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,                Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,                Danilo%Buonsenso%danilobuonsenso@gmail.com%1,                Massimo%Chiossi%max.chiossi@gmail.com%1,                Rino%Agostiniani%rinoagostiniani@gmail.com%1,                Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,                Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,                Marcello%Lanari%marcello.lanari@unibo.it%1,                Serena%Arrigo%arrigoserena@gmail.com%1,                Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,                Matteo%Lenge%matteo.lenge@meyer.it%1,                Stefano%Masi%stefano.masi@meyer.it%1,                Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,                Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,                NULL%NULL%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1461,7 +1518,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1473,7 +1530,7 @@
         <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1490,7 +1547,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -1502,7 +1559,7 @@
         <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1519,7 +1576,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -1531,7 +1588,7 @@
         <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1548,7 +1605,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1560,7 +1617,7 @@
         <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1577,7 +1634,7 @@
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -1589,7 +1646,7 @@
         <v>145</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1606,7 +1663,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -1618,7 +1675,7 @@
         <v>54</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1635,7 +1692,7 @@
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -1647,7 +1704,7 @@
         <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1664,7 +1721,7 @@
         <v>214</v>
       </c>
       <c r="E9" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -1676,7 +1733,7 @@
         <v>64</v>
       </c>
       <c r="I9" t="s">
-        <v>65</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1693,7 +1750,7 @@
         <v>216</v>
       </c>
       <c r="E10" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1705,7 +1762,7 @@
         <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1722,7 +1779,7 @@
         <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -1734,7 +1791,7 @@
         <v>152</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1809,7 +1866,7 @@
         <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="F14" t="s">
         <v>72</v>
@@ -1821,7 +1878,7 @@
         <v>73</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1838,7 +1895,7 @@
         <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="F15" t="s">
         <v>76</v>
@@ -1850,7 +1907,7 @@
         <v>38</v>
       </c>
       <c r="I15" t="s">
-        <v>32</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1867,7 +1924,7 @@
         <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="F16" t="s">
         <v>80</v>
@@ -1879,7 +1936,7 @@
         <v>81</v>
       </c>
       <c r="I16" t="s">
-        <v>32</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1896,7 +1953,7 @@
         <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="F17" t="s">
         <v>85</v>
@@ -1908,7 +1965,7 @@
         <v>86</v>
       </c>
       <c r="I17" t="s">
-        <v>32</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1925,7 +1982,7 @@
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="F18" t="s">
         <v>89</v>
@@ -1937,7 +1994,7 @@
         <v>90</v>
       </c>
       <c r="I18" t="s">
-        <v>32</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1954,7 +2011,7 @@
         <v>92</v>
       </c>
       <c r="E19" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="F19" t="s">
         <v>94</v>
@@ -1966,7 +2023,7 @@
         <v>95</v>
       </c>
       <c r="I19" t="s">
-        <v>65</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/82.xlsx
+++ b/Covid_19_Dataset_and_References/References/82.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="356">
   <si>
     <t>Doi</t>
   </si>
@@ -1184,6 +1184,54 @@
   </si>
   <si>
     <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,                Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,                Federico%Marchetti%federico.marchetti@auslromagna.it%1,                Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,                Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,                Marta%Romanengo%marta.romanengo@gmail.com%0,                Enrico%Felici%enrico.felici@ospedale.al.it%1,                Antonio%Urbino%afurbino@icloud.com%1,                Liviana%Da Dalt%liviana.dadalt@unipd.it%1,                Lucio%Verdoni%lverdoni@asst-pg23.it%1,                Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,                Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,                Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,                Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,                Anna Maria%Musolino%annamaria.musolino@opbg.net%1,                Marco%Binotti%marco.binotti@med.uniupo.it%1,                Paolo%Biban%paolo.biban@aovr.veneto.it%1,                Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,                Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,                Flavia%Nicoloso%flavianicoloso@gmail.com%1,                Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,                Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,                Danilo%Buonsenso%danilobuonsenso@gmail.com%1,                Massimo%Chiossi%max.chiossi@gmail.com%1,                Rino%Agostiniani%rinoagostiniani@gmail.com%1,                Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,                Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,                Marcello%Lanari%marcello.lanari@unibo.it%1,                Serena%Arrigo%arrigoserena@gmail.com%1,                Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,                Matteo%Lenge%matteo.lenge@meyer.it%1,                Stefano%Masi%stefano.masi@meyer.it%1,                Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,                Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,                NULL%NULL%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%2,                 Jianbo%Shao%xzhuge27@163.com%2,                 Yu%Guo%NULL%4,                 Yu%Guo%NULL%0,                 Xuehua%Peng%NULL%4,                 Xuehua%Peng%NULL%0,                 Zhen%Li%NULL%2,                 Daoyu%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%0,                 Jianbo%Shao%xzhuge27@163.com%0,                 Yu%Guo%NULL%0,                 Yu%Guo%NULL%0,                 Xuehua%Peng%NULL%0,                 Xuehua%Peng%NULL%0,                 Zhen%Li%NULL%0,                 Daoyu%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michela%Antonelli%NULL%1,                 Rose S%Penfold%NULL%1,                 Jordi%Merino%NULL%1,                 Carole H%Sudre%NULL%1,                 Erika%Molteni%NULL%1,                 Sarah%Berry%NULL%1,                 Liane S%Canas%NULL%1,                 Mark S%Graham%NULL%1,                 Kerstin%Klaser%NULL%1,                 Marc%Modat%NULL%1,                 Benjamin%Murray%NULL%1,                 Eric%Kerfoot%NULL%1,                 Liyuan%Chen%NULL%1,                 Jie%Deng%NULL%1,                 Marc F%Österdahl%NULL%1,                 Nathan J%Cheetham%NULL%1,                 David A%Drew%NULL%1,                 Long H%Nguyen%NULL%1,                 Joan Capdevila%Pujol%NULL%1,                 Christina%Hu%NULL%1,                 Somesh%Selvachandran%NULL%1,                 Lorenzo%Polidori%NULL%1,                 Anna%May%NULL%1,                 Jonathan%Wolf%NULL%1,                 Andrew T%Chan%NULL%1,                 Alexander%Hammers%NULL%1,                 Emma L%Duncan%NULL%1,                 Tim D%Spector%NULL%1,                 Sebastien%Ourselin%NULL%1,                 Claire J%Steves%claire.j.steves@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Qinxue%Shen%NULL%1,                 Wei%Guo%NULL%1,                 Ting%Guo%NULL%1,                 Jinhua%Li%NULL%1,                 Wenlong%He%NULL%1,                 Shanshan%Ni%NULL%1,                 Xiaoli%Ouyang%NULL%1,                 Jiyang%Liu%NULL%1,                 Yuanlin%Xie%NULL%1,                 Xin%Tan%NULL%1,                 Zhiguo%Zhou%13807311490@163.com%1,                 Hong%Peng%penghong66@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Ya\u2010nan%Han%xref no email%1,             Zhan\u2010wei%Feng%xref no email%1,             Li\u2010na%Sun%xref no email%1,             Xiao\u2010xia%Ren%xref no email%1,             Hua%Wang%xref no email%1,             Yong\u2010ming%Xue%xref no email%1,             Yi%Wang%xref no email%1,             Ying%Fang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Zhang%NULL%1,                 Songming%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lu%Lin%NULL%1,                 Xiayang%Jiang%NULL%1,                 Zhenling%Zhang%NULL%1,                 Siwen%Huang%NULL%1,                 Zhenyi%Zhang%NULL%1,                 Zhaoxiong%Fang%NULL%1,                 Zhiqiang%Gu%NULL%1,                 Liangqing%Gao%NULL%1,                 Honggang%Shi%NULL%1,                 Lei%Mai%NULL%1,                 Yuan%Liu%NULL%1,                 Xianqi%Lin%NULL%1,                 Renxu%Lai%NULL%1,                 Zhixiang%Yan%NULL%1,                 Xiaofeng%Li%NULL%2,                 Xiaofeng%Li%NULL%0,                 Hong%Shan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,                 Hui%Li%NULL%1,                 Xiao-Xia%Lu%NULL%1,                 Han%Xiao%NULL%1,                 Jie%Ren%NULL%1,                 Fu-Rong%Zhang%792523496@qq.com%1,                 Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Xu%NULL%1,                 Xufang%Li%NULL%1,                 Bing%Zhu%NULL%1,                 Huiying%Liang%NULL%1,                 Chunxiao%Fang%NULL%1,                 Yu%Gong%NULL%1,                 Qiaozhi%Guo%NULL%1,                 Xin%Sun%NULL%1,                 Danyang%Zhao%NULL%1,                 Jun%Shen%NULL%1,                 Huayan%Zhang%NULL%1,                 Hongsheng%Liu%NULL%2,                 Hongsheng%Liu%NULL%0,                 Huimin%Xia%huiminxia@hotmail.com%1,                 Jinling%Tang%jltang@cuhk.edu.hk%1,                 Kang%Zhang%kang.zhang@gmail.com%1,                 Sitang%Gong%sitangg@126.com%2,                 Sitang%Gong%sitangg@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Alfredo%Tagarro%xref no email%1,             Cristina%Epalza%xref no email%1,             Mar%Santos%xref no email%1,             Francisco Jos\u00e9%Sanz-Santaeufemia%xref no email%1,             Enrique%Otheo%xref no email%1,             Cinta%Moraleda%xref no email%1,             Cristina%Calvo%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yuhan%Xing%NULL%1,                 Wei%Ni%NULL%1,                 Qin%Wu%NULL%1,                 Wenjie%Li%NULL%1,                 Guoju%Li%NULL%1,                 Wendi%Wang%NULL%1,                 Jianning%Tong%NULL%1,                 Xiufeng%Song%NULL%1,                 Gary Wing Kin%Wong%NULL%1,                 Quansheng%Xing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giacomo%Brisca%giacomobrisca@gmail.com%1,                 Marta%Ferretti%NULL%2,                 Marta%Ferretti%NULL%0,                 Giulia%Sartoris%NULL%1,                 Maria Beatrice%Damasio%NULL%1,                 Isabella%Buffoni%NULL%2,                 Isabella%Buffoni%NULL%0,                 Daniela%Pirlo%NULL%1,                 Marta%Romanengo%NULL%2,                 Emanuela%Piccotti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Louise%Gaborieau%NULL%1,                 Celine%Delestrain%NULL%1,                 Philippe%Bensaid%NULL%1,                 Audrey%Vizeneux%NULL%1,                 Philippe%Blanc%NULL%1,                 Aurélie%Garraffo%NULL%1,                 Emilie%Georget%NULL%1,                 Arnaud%Chalvon%NULL%1,                 Nathalie%Garrec%NULL%1,                 Yacine%Laoudi%NULL%1,                 Emmanuelle%Varon%NULL%1,                 Sébastien%Rouget%NULL%1,                 Alexandre%Pupin%NULL%1,                 Khaled%Abdel Aal%NULL%1,                 David%Toulorge%NULL%1,                 Sarah%Ducrocq%NULL%1,                 Catherine%Barrey%NULL%1,                 Letitia%Pantalone%NULL%1,                 Blandine%Robert%NULL%1,                 Lydie%Joly-Sanchez%NULL%1,                 Caroline%Thach%NULL%2,                 Caroline%Thach%NULL%0,                 Caroline%Masserot-Lureau%NULL%1,                 Jamilé%Chahine%NULL%1,                 Veronica%Risso Garcia-Roudaut%NULL%1,                 Jonathan%Rozental%NULL%1,                 Sylvie%Nathanson%NULL%1,                 Mohamed%Khaled%NULL%1,                 Alexis%Mandelcwajg%NULL%1,                 Nadia%Demayer%NULL%1,                 Stéphanie%Muller%NULL%1,                 Mustapha%Mazerghane%NULL%1,                 Ralph%Epaud%NULL%1,                 Béatrice%Pellegrino%NULL%2,                 Béatrice%Pellegrino%NULL%0,                 Fouad%Madhi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chun‐Zhen%Hua%NULL%1,                 Zi‐Ping%Miao%NULL%1,                 Ji‐Shan%Zheng%NULL%2,                 Ji‐Shan%Zheng%NULL%0,                 Qian%Huang%NULL%1,                 Qing‐Feng%Sun%NULL%1,                 Hong‐Ping%Lu%NULL%1,                 Fei‐Fei%Su%NULL%1,                 Wei‐Hong%Wang%NULL%1,                 Lie‐Ping%Huang%NULL%1,                 Da‐Qing%Chen%NULL%1,                 Zhi‐Wei%Xu%NULL%1,                 Le‐Dan%Ji%NULL%1,                 Hong‐Ping%Zhang%NULL%1,                 Xiao‐Wei%Yang%NULL%1,                 Ming‐Hui%Li%NULL%1,                 Yue‐Yan%Mao%NULL%1,                 Man‐Zhen%Ying%NULL%1,                 Sheng%Ye%NULL%1,                 Qiang%Shu%shuqiang@zju.edu.cn%1,                 En‐Fu%Chen%enfchen@cdc.zj.cn%2,                 En‐Fu%Chen%enfchen@cdc.zj.cn%0,                 Jian‐Feng%Liang%NULL%1,                 Wei%Wang%NULL%1,                 Zhi‐Min%Chen%NULL%1,                 Wei%Li%NULL%1,                 Jun‐Fen%Fu%fjf68@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[María%de Ceano-Vivas%NULL%1,                 Irene%Martín-Espín%NULL%1,                 Teresa%del Rosal%NULL%1,                 Marta%Bueno-Barriocanal%NULL%2,                 Marta%Bueno-Barriocanal%NULL%0,                 Marta%Plata-Gallardo%NULL%1,                 José Antonio%Ruiz-Domínguez%NULL%1,                 Rosario%López-López%NULL%2,                 Rosario%López-López%NULL%0,                 Miguel Ángel%Molina-Gutiérrez%NULL%1,                 Patricia%Bote-Gascón%NULL%2,                 Patricia%Bote-Gascón%NULL%0,                 Isabel%González-Bertolín%NULL%1,                 Paula%García-Sánchez%NULL%2,                 Paula%García-Sánchez%NULL%0,                 Julia%Martín-Sánchez%NULL%1,                 Begoña%de Miguel-Lavisier%NULL%1,                 Talía%Sainz%NULL%1,                 Fernando%Baquero-Artigao%NULL%1,                 Ana%Méndez-Echevarría%NULL%1,                 Cristina%Calvo%NULL%2,                 Cristina%Calvo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,                 Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,                 Federico%Marchetti%federico.marchetti@auslromagna.it%1,                 Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,                 Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,                 Marta%Romanengo%marta.romanengo@gmail.com%0,                 Enrico%Felici%enrico.felici@ospedale.al.it%1,                 Antonio%Urbino%afurbino@icloud.com%1,                 Liviana%Da Dalt%liviana.dadalt@unipd.it%1,                 Lucio%Verdoni%lverdoni@asst-pg23.it%1,                 Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,                 Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,                 Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,                 Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,                 Anna Maria%Musolino%annamaria.musolino@opbg.net%1,                 Marco%Binotti%marco.binotti@med.uniupo.it%1,                 Paolo%Biban%paolo.biban@aovr.veneto.it%1,                 Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,                 Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,                 Flavia%Nicoloso%flavianicoloso@gmail.com%1,                 Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,                 Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,                 Danilo%Buonsenso%danilobuonsenso@gmail.com%1,                 Massimo%Chiossi%max.chiossi@gmail.com%1,                 Rino%Agostiniani%rinoagostiniani@gmail.com%1,                 Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,                 Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,                 Marcello%Lanari%marcello.lanari@unibo.it%1,                 Serena%Arrigo%arrigoserena@gmail.com%1,                 Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,                 Matteo%Lenge%matteo.lenge@meyer.it%1,                 Stefano%Masi%stefano.masi@meyer.it%1,                 Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,                 Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,                 NULL%NULL%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1518,7 +1566,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1547,7 +1595,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -1576,7 +1624,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -1605,7 +1653,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1634,7 +1682,7 @@
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -1663,7 +1711,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -1692,7 +1740,7 @@
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -1721,7 +1769,7 @@
         <v>214</v>
       </c>
       <c r="E9" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -1750,7 +1798,7 @@
         <v>216</v>
       </c>
       <c r="E10" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1779,7 +1827,7 @@
         <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -1866,7 +1914,7 @@
         <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="F14" t="s">
         <v>72</v>
@@ -1895,7 +1943,7 @@
         <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="F15" t="s">
         <v>76</v>
@@ -1924,7 +1972,7 @@
         <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="F16" t="s">
         <v>80</v>
@@ -1953,7 +2001,7 @@
         <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="F17" t="s">
         <v>85</v>
@@ -1982,7 +2030,7 @@
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="F18" t="s">
         <v>89</v>
@@ -2011,7 +2059,7 @@
         <v>92</v>
       </c>
       <c r="E19" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="F19" t="s">
         <v>94</v>

--- a/Covid_19_Dataset_and_References/References/82.xlsx
+++ b/Covid_19_Dataset_and_References/References/82.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3047" uniqueCount="432">
   <si>
     <t>Doi</t>
   </si>
@@ -1232,6 +1232,234 @@
   </si>
   <si>
     <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,                 Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,                 Federico%Marchetti%federico.marchetti@auslromagna.it%1,                 Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,                 Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,                 Marta%Romanengo%marta.romanengo@gmail.com%0,                 Enrico%Felici%enrico.felici@ospedale.al.it%1,                 Antonio%Urbino%afurbino@icloud.com%1,                 Liviana%Da Dalt%liviana.dadalt@unipd.it%1,                 Lucio%Verdoni%lverdoni@asst-pg23.it%1,                 Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,                 Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,                 Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,                 Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,                 Anna Maria%Musolino%annamaria.musolino@opbg.net%1,                 Marco%Binotti%marco.binotti@med.uniupo.it%1,                 Paolo%Biban%paolo.biban@aovr.veneto.it%1,                 Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,                 Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,                 Flavia%Nicoloso%flavianicoloso@gmail.com%1,                 Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,                 Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,                 Danilo%Buonsenso%danilobuonsenso@gmail.com%1,                 Massimo%Chiossi%max.chiossi@gmail.com%1,                 Rino%Agostiniani%rinoagostiniani@gmail.com%1,                 Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,                 Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,                 Marcello%Lanari%marcello.lanari@unibo.it%1,                 Serena%Arrigo%arrigoserena@gmail.com%1,                 Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,                 Matteo%Lenge%matteo.lenge@meyer.it%1,                 Stefano%Masi%stefano.masi@meyer.it%1,                 Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,                 Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,                 NULL%NULL%NULL%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%2,                  Jianbo%Shao%xzhuge27@163.com%2,                  Yu%Guo%NULL%4,                  Yu%Guo%NULL%0,                  Xuehua%Peng%NULL%4,                  Xuehua%Peng%NULL%0,                  Zhen%Li%NULL%2,                  Daoyu%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%0,                  Jianbo%Shao%xzhuge27@163.com%0,                  Yu%Guo%NULL%0,                  Yu%Guo%NULL%0,                  Xuehua%Peng%NULL%0,                  Xuehua%Peng%NULL%0,                  Zhen%Li%NULL%0,                  Daoyu%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michela%Antonelli%NULL%1,                  Rose S%Penfold%NULL%1,                  Jordi%Merino%NULL%1,                  Carole H%Sudre%NULL%1,                  Erika%Molteni%NULL%1,                  Sarah%Berry%NULL%1,                  Liane S%Canas%NULL%1,                  Mark S%Graham%NULL%1,                  Kerstin%Klaser%NULL%1,                  Marc%Modat%NULL%1,                  Benjamin%Murray%NULL%1,                  Eric%Kerfoot%NULL%1,                  Liyuan%Chen%NULL%1,                  Jie%Deng%NULL%1,                  Marc F%Österdahl%NULL%1,                  Nathan J%Cheetham%NULL%1,                  David A%Drew%NULL%1,                  Long H%Nguyen%NULL%1,                  Joan Capdevila%Pujol%NULL%1,                  Christina%Hu%NULL%1,                  Somesh%Selvachandran%NULL%1,                  Lorenzo%Polidori%NULL%1,                  Anna%May%NULL%1,                  Jonathan%Wolf%NULL%1,                  Andrew T%Chan%NULL%1,                  Alexander%Hammers%NULL%1,                  Emma L%Duncan%NULL%1,                  Tim D%Spector%NULL%1,                  Sebastien%Ourselin%NULL%1,                  Claire J%Steves%claire.j.steves@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Qinxue%Shen%NULL%1,                  Wei%Guo%NULL%1,                  Ting%Guo%NULL%1,                  Jinhua%Li%NULL%1,                  Wenlong%He%NULL%1,                  Shanshan%Ni%NULL%1,                  Xiaoli%Ouyang%NULL%1,                  Jiyang%Liu%NULL%1,                  Yuanlin%Xie%NULL%1,                  Xin%Tan%NULL%1,                  Zhiguo%Zhou%13807311490@163.com%1,                  Hong%Peng%penghong66@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Ya\u2010nan%Han%xref no email%0, Zhan\u2010wei%Feng%xref no email%1, Li\u2010na%Sun%xref no email%1, Xiao\u2010xia%Ren%xref no email%1, Hua%Wang%xref no email%1, Yong\u2010ming%Xue%xref no email%1, Yi%Wang%xref no email%1, Ying%Fang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-06-02</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Wiley</t>
+  </si>
+  <si>
+    <t>[Lan%Zhang%NULL%1,                  Songming%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lu%Lin%NULL%1,                  Xiayang%Jiang%NULL%1,                  Zhenling%Zhang%NULL%1,                  Siwen%Huang%NULL%1,                  Zhenyi%Zhang%NULL%1,                  Zhaoxiong%Fang%NULL%1,                  Zhiqiang%Gu%NULL%1,                  Liangqing%Gao%NULL%1,                  Honggang%Shi%NULL%1,                  Lei%Mai%NULL%1,                  Yuan%Liu%NULL%1,                  Xianqi%Lin%NULL%1,                  Renxu%Lai%NULL%1,                  Zhixiang%Yan%NULL%1,                  Xiaofeng%Li%NULL%2,                  Xiaofeng%Li%NULL%0,                  Hong%Shan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,                  Hui%Li%NULL%1,                  Xiao-Xia%Lu%NULL%1,                  Han%Xiao%NULL%1,                  Jie%Ren%NULL%1,                  Fu-Rong%Zhang%792523496@qq.com%1,                  Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Xu%NULL%1,                  Xufang%Li%NULL%1,                  Bing%Zhu%NULL%1,                  Huiying%Liang%NULL%1,                  Chunxiao%Fang%NULL%1,                  Yu%Gong%NULL%1,                  Qiaozhi%Guo%NULL%1,                  Xin%Sun%NULL%1,                  Danyang%Zhao%NULL%1,                  Jun%Shen%NULL%1,                  Huayan%Zhang%NULL%1,                  Hongsheng%Liu%NULL%2,                  Hongsheng%Liu%NULL%0,                  Huimin%Xia%huiminxia@hotmail.com%1,                  Jinling%Tang%jltang@cuhk.edu.hk%1,                  Kang%Zhang%kang.zhang@gmail.com%1,                  Sitang%Gong%sitangg@126.com%2,                  Sitang%Gong%sitangg@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Alfredo%Tagarro%xref no email%0, Cristina%Epalza%xref no email%1, Mar%Santos%xref no email%1, Francisco Jos\u00e9%Sanz-Santaeufemia%xref no email%1, Enrique%Otheo%xref no email%1, Cinta%Moraleda%xref no email%1, Cristina%Calvo%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Medical Association (AMA)</t>
+  </si>
+  <si>
+    <t>[Yuhan%Xing%NULL%1,                  Wei%Ni%NULL%1,                  Qin%Wu%NULL%1,                  Wenjie%Li%NULL%1,                  Guoju%Li%NULL%1,                  Wendi%Wang%NULL%1,                  Jianning%Tong%NULL%1,                  Xiufeng%Song%NULL%1,                  Gary Wing Kin%Wong%NULL%1,                  Quansheng%Xing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giacomo%Brisca%giacomobrisca@gmail.com%1,                  Marta%Ferretti%NULL%2,                  Marta%Ferretti%NULL%0,                  Giulia%Sartoris%NULL%1,                  Maria Beatrice%Damasio%NULL%1,                  Isabella%Buffoni%NULL%2,                  Isabella%Buffoni%NULL%0,                  Daniela%Pirlo%NULL%1,                  Marta%Romanengo%NULL%2,                  Emanuela%Piccotti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Louise%Gaborieau%NULL%1,                  Celine%Delestrain%NULL%1,                  Philippe%Bensaid%NULL%1,                  Audrey%Vizeneux%NULL%1,                  Philippe%Blanc%NULL%1,                  Aurélie%Garraffo%NULL%1,                  Emilie%Georget%NULL%1,                  Arnaud%Chalvon%NULL%1,                  Nathalie%Garrec%NULL%1,                  Yacine%Laoudi%NULL%1,                  Emmanuelle%Varon%NULL%1,                  Sébastien%Rouget%NULL%1,                  Alexandre%Pupin%NULL%1,                  Khaled%Abdel Aal%NULL%1,                  David%Toulorge%NULL%1,                  Sarah%Ducrocq%NULL%1,                  Catherine%Barrey%NULL%1,                  Letitia%Pantalone%NULL%1,                  Blandine%Robert%NULL%1,                  Lydie%Joly-Sanchez%NULL%1,                  Caroline%Thach%NULL%2,                  Caroline%Thach%NULL%0,                  Caroline%Masserot-Lureau%NULL%1,                  Jamilé%Chahine%NULL%1,                  Veronica%Risso Garcia-Roudaut%NULL%1,                  Jonathan%Rozental%NULL%1,                  Sylvie%Nathanson%NULL%1,                  Mohamed%Khaled%NULL%1,                  Alexis%Mandelcwajg%NULL%1,                  Nadia%Demayer%NULL%1,                  Stéphanie%Muller%NULL%1,                  Mustapha%Mazerghane%NULL%1,                  Ralph%Epaud%NULL%1,                  Béatrice%Pellegrino%NULL%2,                  Béatrice%Pellegrino%NULL%0,                  Fouad%Madhi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chun‐Zhen%Hua%NULL%1,                  Zi‐Ping%Miao%NULL%1,                  Ji‐Shan%Zheng%NULL%2,                  Ji‐Shan%Zheng%NULL%0,                  Qian%Huang%NULL%1,                  Qing‐Feng%Sun%NULL%1,                  Hong‐Ping%Lu%NULL%1,                  Fei‐Fei%Su%NULL%1,                  Wei‐Hong%Wang%NULL%1,                  Lie‐Ping%Huang%NULL%1,                  Da‐Qing%Chen%NULL%1,                  Zhi‐Wei%Xu%NULL%1,                  Le‐Dan%Ji%NULL%1,                  Hong‐Ping%Zhang%NULL%1,                  Xiao‐Wei%Yang%NULL%1,                  Ming‐Hui%Li%NULL%1,                  Yue‐Yan%Mao%NULL%1,                  Man‐Zhen%Ying%NULL%1,                  Sheng%Ye%NULL%1,                  Qiang%Shu%shuqiang@zju.edu.cn%1,                  En‐Fu%Chen%enfchen@cdc.zj.cn%2,                  En‐Fu%Chen%enfchen@cdc.zj.cn%0,                  Jian‐Feng%Liang%NULL%1,                  Wei%Wang%NULL%1,                  Zhi‐Min%Chen%NULL%1,                  Wei%Li%NULL%1,                  Jun‐Fen%Fu%fjf68@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[María%de Ceano-Vivas%NULL%1,                  Irene%Martín-Espín%NULL%1,                  Teresa%del Rosal%NULL%1,                  Marta%Bueno-Barriocanal%NULL%2,                  Marta%Bueno-Barriocanal%NULL%0,                  Marta%Plata-Gallardo%NULL%1,                  José Antonio%Ruiz-Domínguez%NULL%1,                  Rosario%López-López%NULL%2,                  Rosario%López-López%NULL%0,                  Miguel Ángel%Molina-Gutiérrez%NULL%1,                  Patricia%Bote-Gascón%NULL%2,                  Patricia%Bote-Gascón%NULL%0,                  Isabel%González-Bertolín%NULL%1,                  Paula%García-Sánchez%NULL%2,                  Paula%García-Sánchez%NULL%0,                  Julia%Martín-Sánchez%NULL%1,                  Begoña%de Miguel-Lavisier%NULL%1,                  Talía%Sainz%NULL%1,                  Fernando%Baquero-Artigao%NULL%1,                  Ana%Méndez-Echevarría%NULL%1,                  Cristina%Calvo%NULL%2,                  Cristina%Calvo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,                  Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,                  Federico%Marchetti%federico.marchetti@auslromagna.it%1,                  Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,                  Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,                  Marta%Romanengo%marta.romanengo@gmail.com%0,                  Enrico%Felici%enrico.felici@ospedale.al.it%1,                  Antonio%Urbino%afurbino@icloud.com%1,                  Liviana%Da Dalt%liviana.dadalt@unipd.it%1,                  Lucio%Verdoni%lverdoni@asst-pg23.it%1,                  Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,                  Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,                  Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,                  Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,                  Anna Maria%Musolino%annamaria.musolino@opbg.net%1,                  Marco%Binotti%marco.binotti@med.uniupo.it%1,                  Paolo%Biban%paolo.biban@aovr.veneto.it%1,                  Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,                  Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,                  Flavia%Nicoloso%flavianicoloso@gmail.com%1,                  Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,                  Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,                  Danilo%Buonsenso%danilobuonsenso@gmail.com%1,                  Massimo%Chiossi%max.chiossi@gmail.com%1,                  Rino%Agostiniani%rinoagostiniani@gmail.com%1,                  Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,                  Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,                  Marcello%Lanari%marcello.lanari@unibo.it%1,                  Serena%Arrigo%arrigoserena@gmail.com%1,                  Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,                  Matteo%Lenge%matteo.lenge@meyer.it%1,                  Stefano%Masi%stefano.masi@meyer.it%1,                  Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,                  Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,                  NULL%NULL%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%2,                   Jianbo%Shao%xzhuge27@163.com%2,                   Yu%Guo%NULL%4,                   Yu%Guo%NULL%0,                   Xuehua%Peng%NULL%4,                   Xuehua%Peng%NULL%0,                   Zhen%Li%NULL%2,                   Daoyu%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%0,                   Jianbo%Shao%xzhuge27@163.com%0,                   Yu%Guo%NULL%0,                   Yu%Guo%NULL%0,                   Xuehua%Peng%NULL%0,                   Xuehua%Peng%NULL%0,                   Zhen%Li%NULL%0,                   Daoyu%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michela%Antonelli%NULL%1,                   Rose S%Penfold%NULL%1,                   Jordi%Merino%NULL%1,                   Carole H%Sudre%NULL%1,                   Erika%Molteni%NULL%1,                   Sarah%Berry%NULL%1,                   Liane S%Canas%NULL%1,                   Mark S%Graham%NULL%1,                   Kerstin%Klaser%NULL%1,                   Marc%Modat%NULL%1,                   Benjamin%Murray%NULL%1,                   Eric%Kerfoot%NULL%1,                   Liyuan%Chen%NULL%1,                   Jie%Deng%NULL%1,                   Marc F%Österdahl%NULL%1,                   Nathan J%Cheetham%NULL%1,                   David A%Drew%NULL%1,                   Long H%Nguyen%NULL%1,                   Joan Capdevila%Pujol%NULL%1,                   Christina%Hu%NULL%1,                   Somesh%Selvachandran%NULL%1,                   Lorenzo%Polidori%NULL%1,                   Anna%May%NULL%1,                   Jonathan%Wolf%NULL%1,                   Andrew T%Chan%NULL%1,                   Alexander%Hammers%NULL%1,                   Emma L%Duncan%NULL%1,                   Tim D%Spector%NULL%1,                   Sebastien%Ourselin%NULL%1,                   Claire J%Steves%claire.j.steves@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Qinxue%Shen%NULL%1,                   Wei%Guo%NULL%1,                   Ting%Guo%NULL%1,                   Jinhua%Li%NULL%1,                   Wenlong%He%NULL%1,                   Shanshan%Ni%NULL%1,                   Xiaoli%Ouyang%NULL%1,                   Jiyang%Liu%NULL%1,                   Yuanlin%Xie%NULL%1,                   Xin%Tan%NULL%1,                   Zhiguo%Zhou%13807311490@163.com%1,                   Hong%Peng%penghong66@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Zhang%NULL%1,                   Songming%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lu%Lin%NULL%1,                   Xiayang%Jiang%NULL%1,                   Zhenling%Zhang%NULL%1,                   Siwen%Huang%NULL%1,                   Zhenyi%Zhang%NULL%1,                   Zhaoxiong%Fang%NULL%1,                   Zhiqiang%Gu%NULL%1,                   Liangqing%Gao%NULL%1,                   Honggang%Shi%NULL%1,                   Lei%Mai%NULL%1,                   Yuan%Liu%NULL%1,                   Xianqi%Lin%NULL%1,                   Renxu%Lai%NULL%1,                   Zhixiang%Yan%NULL%1,                   Xiaofeng%Li%NULL%2,                   Xiaofeng%Li%NULL%0,                   Hong%Shan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,                   Hui%Li%NULL%1,                   Xiao-Xia%Lu%NULL%1,                   Han%Xiao%NULL%1,                   Jie%Ren%NULL%1,                   Fu-Rong%Zhang%792523496@qq.com%1,                   Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Xu%NULL%1,                   Xufang%Li%NULL%1,                   Bing%Zhu%NULL%1,                   Huiying%Liang%NULL%1,                   Chunxiao%Fang%NULL%1,                   Yu%Gong%NULL%1,                   Qiaozhi%Guo%NULL%1,                   Xin%Sun%NULL%1,                   Danyang%Zhao%NULL%1,                   Jun%Shen%NULL%1,                   Huayan%Zhang%NULL%1,                   Hongsheng%Liu%NULL%2,                   Hongsheng%Liu%NULL%0,                   Huimin%Xia%huiminxia@hotmail.com%1,                   Jinling%Tang%jltang@cuhk.edu.hk%1,                   Kang%Zhang%kang.zhang@gmail.com%1,                   Sitang%Gong%sitangg@126.com%2,                   Sitang%Gong%sitangg@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yuhan%Xing%NULL%1,                   Wei%Ni%NULL%1,                   Qin%Wu%NULL%1,                   Wenjie%Li%NULL%1,                   Guoju%Li%NULL%1,                   Wendi%Wang%NULL%1,                   Jianning%Tong%NULL%1,                   Xiufeng%Song%NULL%1,                   Gary Wing Kin%Wong%NULL%1,                   Quansheng%Xing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giacomo%Brisca%giacomobrisca@gmail.com%1,                   Marta%Ferretti%NULL%2,                   Marta%Ferretti%NULL%0,                   Giulia%Sartoris%NULL%1,                   Maria Beatrice%Damasio%NULL%1,                   Isabella%Buffoni%NULL%2,                   Isabella%Buffoni%NULL%0,                   Daniela%Pirlo%NULL%1,                   Marta%Romanengo%NULL%2,                   Emanuela%Piccotti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Louise%Gaborieau%NULL%1,                   Celine%Delestrain%NULL%1,                   Philippe%Bensaid%NULL%1,                   Audrey%Vizeneux%NULL%1,                   Philippe%Blanc%NULL%1,                   Aurélie%Garraffo%NULL%1,                   Emilie%Georget%NULL%1,                   Arnaud%Chalvon%NULL%1,                   Nathalie%Garrec%NULL%1,                   Yacine%Laoudi%NULL%1,                   Emmanuelle%Varon%NULL%1,                   Sébastien%Rouget%NULL%1,                   Alexandre%Pupin%NULL%1,                   Khaled%Abdel Aal%NULL%1,                   David%Toulorge%NULL%1,                   Sarah%Ducrocq%NULL%1,                   Catherine%Barrey%NULL%1,                   Letitia%Pantalone%NULL%1,                   Blandine%Robert%NULL%1,                   Lydie%Joly-Sanchez%NULL%1,                   Caroline%Thach%NULL%2,                   Caroline%Thach%NULL%0,                   Caroline%Masserot-Lureau%NULL%1,                   Jamilé%Chahine%NULL%1,                   Veronica%Risso Garcia-Roudaut%NULL%1,                   Jonathan%Rozental%NULL%1,                   Sylvie%Nathanson%NULL%1,                   Mohamed%Khaled%NULL%1,                   Alexis%Mandelcwajg%NULL%1,                   Nadia%Demayer%NULL%1,                   Stéphanie%Muller%NULL%1,                   Mustapha%Mazerghane%NULL%1,                   Ralph%Epaud%NULL%1,                   Béatrice%Pellegrino%NULL%2,                   Béatrice%Pellegrino%NULL%0,                   Fouad%Madhi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chun‐Zhen%Hua%NULL%1,                   Zi‐Ping%Miao%NULL%1,                   Ji‐Shan%Zheng%NULL%2,                   Ji‐Shan%Zheng%NULL%0,                   Qian%Huang%NULL%1,                   Qing‐Feng%Sun%NULL%1,                   Hong‐Ping%Lu%NULL%1,                   Fei‐Fei%Su%NULL%1,                   Wei‐Hong%Wang%NULL%1,                   Lie‐Ping%Huang%NULL%1,                   Da‐Qing%Chen%NULL%1,                   Zhi‐Wei%Xu%NULL%1,                   Le‐Dan%Ji%NULL%1,                   Hong‐Ping%Zhang%NULL%1,                   Xiao‐Wei%Yang%NULL%1,                   Ming‐Hui%Li%NULL%1,                   Yue‐Yan%Mao%NULL%1,                   Man‐Zhen%Ying%NULL%1,                   Sheng%Ye%NULL%1,                   Qiang%Shu%shuqiang@zju.edu.cn%1,                   En‐Fu%Chen%enfchen@cdc.zj.cn%2,                   En‐Fu%Chen%enfchen@cdc.zj.cn%0,                   Jian‐Feng%Liang%NULL%1,                   Wei%Wang%NULL%1,                   Zhi‐Min%Chen%NULL%1,                   Wei%Li%NULL%1,                   Jun‐Fen%Fu%fjf68@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[María%de Ceano-Vivas%NULL%1,                   Irene%Martín-Espín%NULL%1,                   Teresa%del Rosal%NULL%1,                   Marta%Bueno-Barriocanal%NULL%2,                   Marta%Bueno-Barriocanal%NULL%0,                   Marta%Plata-Gallardo%NULL%1,                   José Antonio%Ruiz-Domínguez%NULL%1,                   Rosario%López-López%NULL%2,                   Rosario%López-López%NULL%0,                   Miguel Ángel%Molina-Gutiérrez%NULL%1,                   Patricia%Bote-Gascón%NULL%2,                   Patricia%Bote-Gascón%NULL%0,                   Isabel%González-Bertolín%NULL%1,                   Paula%García-Sánchez%NULL%2,                   Paula%García-Sánchez%NULL%0,                   Julia%Martín-Sánchez%NULL%1,                   Begoña%de Miguel-Lavisier%NULL%1,                   Talía%Sainz%NULL%1,                   Fernando%Baquero-Artigao%NULL%1,                   Ana%Méndez-Echevarría%NULL%1,                   Cristina%Calvo%NULL%2,                   Cristina%Calvo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,                   Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,                   Federico%Marchetti%federico.marchetti@auslromagna.it%1,                   Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,                   Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,                   Marta%Romanengo%marta.romanengo@gmail.com%0,                   Enrico%Felici%enrico.felici@ospedale.al.it%1,                   Antonio%Urbino%afurbino@icloud.com%1,                   Liviana%Da Dalt%liviana.dadalt@unipd.it%1,                   Lucio%Verdoni%lverdoni@asst-pg23.it%1,                   Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,                   Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,                   Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,                   Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,                   Anna Maria%Musolino%annamaria.musolino@opbg.net%1,                   Marco%Binotti%marco.binotti@med.uniupo.it%1,                   Paolo%Biban%paolo.biban@aovr.veneto.it%1,                   Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,                   Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,                   Flavia%Nicoloso%flavianicoloso@gmail.com%1,                   Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,                   Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,                   Danilo%Buonsenso%danilobuonsenso@gmail.com%1,                   Massimo%Chiossi%max.chiossi@gmail.com%1,                   Rino%Agostiniani%rinoagostiniani@gmail.com%1,                   Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,                   Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,                   Marcello%Lanari%marcello.lanari@unibo.it%1,                   Serena%Arrigo%arrigoserena@gmail.com%1,                   Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,                   Matteo%Lenge%matteo.lenge@meyer.it%1,                   Stefano%Masi%stefano.masi@meyer.it%1,                   Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,                   Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,                   NULL%NULL%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%2,                    Jianbo%Shao%xzhuge27@163.com%2,                    Yu%Guo%NULL%4,                    Yu%Guo%NULL%0,                    Xuehua%Peng%NULL%4,                    Xuehua%Peng%NULL%0,                    Zhen%Li%NULL%2,                    Daoyu%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%0,                    Jianbo%Shao%xzhuge27@163.com%0,                    Yu%Guo%NULL%0,                    Yu%Guo%NULL%0,                    Xuehua%Peng%NULL%0,                    Xuehua%Peng%NULL%0,                    Zhen%Li%NULL%0,                    Daoyu%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michela%Antonelli%NULL%1,                    Rose S%Penfold%NULL%1,                    Jordi%Merino%NULL%1,                    Carole H%Sudre%NULL%1,                    Erika%Molteni%NULL%1,                    Sarah%Berry%NULL%1,                    Liane S%Canas%NULL%1,                    Mark S%Graham%NULL%1,                    Kerstin%Klaser%NULL%1,                    Marc%Modat%NULL%1,                    Benjamin%Murray%NULL%1,                    Eric%Kerfoot%NULL%1,                    Liyuan%Chen%NULL%1,                    Jie%Deng%NULL%1,                    Marc F%Österdahl%NULL%1,                    Nathan J%Cheetham%NULL%1,                    David A%Drew%NULL%1,                    Long H%Nguyen%NULL%1,                    Joan Capdevila%Pujol%NULL%1,                    Christina%Hu%NULL%1,                    Somesh%Selvachandran%NULL%1,                    Lorenzo%Polidori%NULL%1,                    Anna%May%NULL%1,                    Jonathan%Wolf%NULL%1,                    Andrew T%Chan%NULL%1,                    Alexander%Hammers%NULL%1,                    Emma L%Duncan%NULL%1,                    Tim D%Spector%NULL%1,                    Sebastien%Ourselin%NULL%1,                    Claire J%Steves%claire.j.steves@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Qinxue%Shen%NULL%1,                    Wei%Guo%NULL%1,                    Ting%Guo%NULL%1,                    Jinhua%Li%NULL%1,                    Wenlong%He%NULL%1,                    Shanshan%Ni%NULL%1,                    Xiaoli%Ouyang%NULL%1,                    Jiyang%Liu%NULL%1,                    Yuanlin%Xie%NULL%1,                    Xin%Tan%NULL%1,                    Zhiguo%Zhou%13807311490@163.com%1,                    Hong%Peng%penghong66@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Zhang%NULL%1,                    Songming%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lu%Lin%NULL%1,                    Xiayang%Jiang%NULL%1,                    Zhenling%Zhang%NULL%1,                    Siwen%Huang%NULL%1,                    Zhenyi%Zhang%NULL%1,                    Zhaoxiong%Fang%NULL%1,                    Zhiqiang%Gu%NULL%1,                    Liangqing%Gao%NULL%1,                    Honggang%Shi%NULL%1,                    Lei%Mai%NULL%1,                    Yuan%Liu%NULL%1,                    Xianqi%Lin%NULL%1,                    Renxu%Lai%NULL%1,                    Zhixiang%Yan%NULL%1,                    Xiaofeng%Li%NULL%2,                    Xiaofeng%Li%NULL%0,                    Hong%Shan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,                    Hui%Li%NULL%1,                    Xiao-Xia%Lu%NULL%1,                    Han%Xiao%NULL%1,                    Jie%Ren%NULL%1,                    Fu-Rong%Zhang%792523496@qq.com%1,                    Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Xu%NULL%1,                    Xufang%Li%NULL%1,                    Bing%Zhu%NULL%1,                    Huiying%Liang%NULL%1,                    Chunxiao%Fang%NULL%1,                    Yu%Gong%NULL%1,                    Qiaozhi%Guo%NULL%1,                    Xin%Sun%NULL%1,                    Danyang%Zhao%NULL%1,                    Jun%Shen%NULL%1,                    Huayan%Zhang%NULL%1,                    Hongsheng%Liu%NULL%2,                    Hongsheng%Liu%NULL%0,                    Huimin%Xia%huiminxia@hotmail.com%1,                    Jinling%Tang%jltang@cuhk.edu.hk%1,                    Kang%Zhang%kang.zhang@gmail.com%1,                    Sitang%Gong%sitangg@126.com%2,                    Sitang%Gong%sitangg@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yuhan%Xing%NULL%1,                    Wei%Ni%NULL%1,                    Qin%Wu%NULL%1,                    Wenjie%Li%NULL%1,                    Guoju%Li%NULL%1,                    Wendi%Wang%NULL%1,                    Jianning%Tong%NULL%1,                    Xiufeng%Song%NULL%1,                    Gary Wing Kin%Wong%NULL%1,                    Quansheng%Xing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giacomo%Brisca%giacomobrisca@gmail.com%1,                    Marta%Ferretti%NULL%2,                    Marta%Ferretti%NULL%0,                    Giulia%Sartoris%NULL%1,                    Maria Beatrice%Damasio%NULL%1,                    Isabella%Buffoni%NULL%2,                    Isabella%Buffoni%NULL%0,                    Daniela%Pirlo%NULL%1,                    Marta%Romanengo%NULL%2,                    Emanuela%Piccotti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Louise%Gaborieau%NULL%1,                    Celine%Delestrain%NULL%1,                    Philippe%Bensaid%NULL%1,                    Audrey%Vizeneux%NULL%1,                    Philippe%Blanc%NULL%1,                    Aurélie%Garraffo%NULL%1,                    Emilie%Georget%NULL%1,                    Arnaud%Chalvon%NULL%1,                    Nathalie%Garrec%NULL%1,                    Yacine%Laoudi%NULL%1,                    Emmanuelle%Varon%NULL%1,                    Sébastien%Rouget%NULL%1,                    Alexandre%Pupin%NULL%1,                    Khaled%Abdel Aal%NULL%1,                    David%Toulorge%NULL%1,                    Sarah%Ducrocq%NULL%1,                    Catherine%Barrey%NULL%1,                    Letitia%Pantalone%NULL%1,                    Blandine%Robert%NULL%1,                    Lydie%Joly-Sanchez%NULL%1,                    Caroline%Thach%NULL%2,                    Caroline%Thach%NULL%0,                    Caroline%Masserot-Lureau%NULL%1,                    Jamilé%Chahine%NULL%1,                    Veronica%Risso Garcia-Roudaut%NULL%1,                    Jonathan%Rozental%NULL%1,                    Sylvie%Nathanson%NULL%1,                    Mohamed%Khaled%NULL%1,                    Alexis%Mandelcwajg%NULL%1,                    Nadia%Demayer%NULL%1,                    Stéphanie%Muller%NULL%1,                    Mustapha%Mazerghane%NULL%1,                    Ralph%Epaud%NULL%1,                    Béatrice%Pellegrino%NULL%2,                    Béatrice%Pellegrino%NULL%0,                    Fouad%Madhi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chun‐Zhen%Hua%NULL%1,                    Zi‐Ping%Miao%NULL%1,                    Ji‐Shan%Zheng%NULL%2,                    Ji‐Shan%Zheng%NULL%0,                    Qian%Huang%NULL%1,                    Qing‐Feng%Sun%NULL%1,                    Hong‐Ping%Lu%NULL%1,                    Fei‐Fei%Su%NULL%1,                    Wei‐Hong%Wang%NULL%1,                    Lie‐Ping%Huang%NULL%1,                    Da‐Qing%Chen%NULL%1,                    Zhi‐Wei%Xu%NULL%1,                    Le‐Dan%Ji%NULL%1,                    Hong‐Ping%Zhang%NULL%1,                    Xiao‐Wei%Yang%NULL%1,                    Ming‐Hui%Li%NULL%1,                    Yue‐Yan%Mao%NULL%1,                    Man‐Zhen%Ying%NULL%1,                    Sheng%Ye%NULL%1,                    Qiang%Shu%shuqiang@zju.edu.cn%1,                    En‐Fu%Chen%enfchen@cdc.zj.cn%2,                    En‐Fu%Chen%enfchen@cdc.zj.cn%0,                    Jian‐Feng%Liang%NULL%1,                    Wei%Wang%NULL%1,                    Zhi‐Min%Chen%NULL%1,                    Wei%Li%NULL%1,                    Jun‐Fen%Fu%fjf68@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[María%de Ceano-Vivas%NULL%1,                    Irene%Martín-Espín%NULL%1,                    Teresa%del Rosal%NULL%1,                    Marta%Bueno-Barriocanal%NULL%2,                    Marta%Bueno-Barriocanal%NULL%0,                    Marta%Plata-Gallardo%NULL%1,                    José Antonio%Ruiz-Domínguez%NULL%1,                    Rosario%López-López%NULL%2,                    Rosario%López-López%NULL%0,                    Miguel Ángel%Molina-Gutiérrez%NULL%1,                    Patricia%Bote-Gascón%NULL%2,                    Patricia%Bote-Gascón%NULL%0,                    Isabel%González-Bertolín%NULL%1,                    Paula%García-Sánchez%NULL%2,                    Paula%García-Sánchez%NULL%0,                    Julia%Martín-Sánchez%NULL%1,                    Begoña%de Miguel-Lavisier%NULL%1,                    Talía%Sainz%NULL%1,                    Fernando%Baquero-Artigao%NULL%1,                    Ana%Méndez-Echevarría%NULL%1,                    Cristina%Calvo%NULL%2,                    Cristina%Calvo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,                    Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,                    Federico%Marchetti%federico.marchetti@auslromagna.it%1,                    Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,                    Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,                    Marta%Romanengo%marta.romanengo@gmail.com%0,                    Enrico%Felici%enrico.felici@ospedale.al.it%1,                    Antonio%Urbino%afurbino@icloud.com%1,                    Liviana%Da Dalt%liviana.dadalt@unipd.it%1,                    Lucio%Verdoni%lverdoni@asst-pg23.it%1,                    Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,                    Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,                    Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,                    Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,                    Anna Maria%Musolino%annamaria.musolino@opbg.net%1,                    Marco%Binotti%marco.binotti@med.uniupo.it%1,                    Paolo%Biban%paolo.biban@aovr.veneto.it%1,                    Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,                    Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,                    Flavia%Nicoloso%flavianicoloso@gmail.com%1,                    Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,                    Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,                    Danilo%Buonsenso%danilobuonsenso@gmail.com%1,                    Massimo%Chiossi%max.chiossi@gmail.com%1,                    Rino%Agostiniani%rinoagostiniani@gmail.com%1,                    Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,                    Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,                    Marcello%Lanari%marcello.lanari@unibo.it%1,                    Serena%Arrigo%arrigoserena@gmail.com%1,                    Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,                    Matteo%Lenge%matteo.lenge@meyer.it%1,                    Stefano%Masi%stefano.masi@meyer.it%1,                    Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,                    Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,                    NULL%NULL%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%2,                     Jianbo%Shao%xzhuge27@163.com%2,                     Yu%Guo%NULL%4,                     Yu%Guo%NULL%0,                     Xuehua%Peng%NULL%4,                     Xuehua%Peng%NULL%0,                     Zhen%Li%NULL%2,                     Daoyu%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%0,                     Jianbo%Shao%xzhuge27@163.com%0,                     Yu%Guo%NULL%0,                     Yu%Guo%NULL%0,                     Xuehua%Peng%NULL%0,                     Xuehua%Peng%NULL%0,                     Zhen%Li%NULL%0,                     Daoyu%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michela%Antonelli%NULL%1,                     Rose S%Penfold%NULL%1,                     Jordi%Merino%NULL%1,                     Carole H%Sudre%NULL%1,                     Erika%Molteni%NULL%1,                     Sarah%Berry%NULL%1,                     Liane S%Canas%NULL%1,                     Mark S%Graham%NULL%1,                     Kerstin%Klaser%NULL%1,                     Marc%Modat%NULL%1,                     Benjamin%Murray%NULL%1,                     Eric%Kerfoot%NULL%1,                     Liyuan%Chen%NULL%1,                     Jie%Deng%NULL%1,                     Marc F%Österdahl%NULL%1,                     Nathan J%Cheetham%NULL%1,                     David A%Drew%NULL%1,                     Long H%Nguyen%NULL%1,                     Joan Capdevila%Pujol%NULL%1,                     Christina%Hu%NULL%1,                     Somesh%Selvachandran%NULL%1,                     Lorenzo%Polidori%NULL%1,                     Anna%May%NULL%1,                     Jonathan%Wolf%NULL%1,                     Andrew T%Chan%NULL%1,                     Alexander%Hammers%NULL%1,                     Emma L%Duncan%NULL%1,                     Tim D%Spector%NULL%1,                     Sebastien%Ourselin%NULL%1,                     Claire J%Steves%claire.j.steves@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Qinxue%Shen%NULL%1,                     Wei%Guo%NULL%1,                     Ting%Guo%NULL%1,                     Jinhua%Li%NULL%1,                     Wenlong%He%NULL%1,                     Shanshan%Ni%NULL%1,                     Xiaoli%Ouyang%NULL%1,                     Jiyang%Liu%NULL%1,                     Yuanlin%Xie%NULL%1,                     Xin%Tan%NULL%1,                     Zhiguo%Zhou%13807311490@163.com%1,                     Hong%Peng%penghong66@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Zhang%NULL%1,                     Songming%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lu%Lin%NULL%1,                     Xiayang%Jiang%NULL%1,                     Zhenling%Zhang%NULL%1,                     Siwen%Huang%NULL%1,                     Zhenyi%Zhang%NULL%1,                     Zhaoxiong%Fang%NULL%1,                     Zhiqiang%Gu%NULL%1,                     Liangqing%Gao%NULL%1,                     Honggang%Shi%NULL%1,                     Lei%Mai%NULL%1,                     Yuan%Liu%NULL%1,                     Xianqi%Lin%NULL%1,                     Renxu%Lai%NULL%1,                     Zhixiang%Yan%NULL%1,                     Xiaofeng%Li%NULL%2,                     Xiaofeng%Li%NULL%0,                     Hong%Shan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,                     Hui%Li%NULL%1,                     Xiao-Xia%Lu%NULL%1,                     Han%Xiao%NULL%1,                     Jie%Ren%NULL%1,                     Fu-Rong%Zhang%792523496@qq.com%1,                     Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Xu%NULL%1,                     Xufang%Li%NULL%1,                     Bing%Zhu%NULL%1,                     Huiying%Liang%NULL%1,                     Chunxiao%Fang%NULL%1,                     Yu%Gong%NULL%1,                     Qiaozhi%Guo%NULL%1,                     Xin%Sun%NULL%1,                     Danyang%Zhao%NULL%1,                     Jun%Shen%NULL%1,                     Huayan%Zhang%NULL%1,                     Hongsheng%Liu%NULL%2,                     Hongsheng%Liu%NULL%0,                     Huimin%Xia%huiminxia@hotmail.com%1,                     Jinling%Tang%jltang@cuhk.edu.hk%1,                     Kang%Zhang%kang.zhang@gmail.com%1,                     Sitang%Gong%sitangg@126.com%2,                     Sitang%Gong%sitangg@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yuhan%Xing%NULL%1,                     Wei%Ni%NULL%1,                     Qin%Wu%NULL%1,                     Wenjie%Li%NULL%1,                     Guoju%Li%NULL%1,                     Wendi%Wang%NULL%1,                     Jianning%Tong%NULL%1,                     Xiufeng%Song%NULL%1,                     Gary Wing Kin%Wong%NULL%1,                     Quansheng%Xing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giacomo%Brisca%giacomobrisca@gmail.com%1,                     Marta%Ferretti%NULL%2,                     Marta%Ferretti%NULL%0,                     Giulia%Sartoris%NULL%1,                     Maria Beatrice%Damasio%NULL%1,                     Isabella%Buffoni%NULL%2,                     Isabella%Buffoni%NULL%0,                     Daniela%Pirlo%NULL%1,                     Marta%Romanengo%NULL%2,                     Emanuela%Piccotti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Louise%Gaborieau%NULL%1,                     Celine%Delestrain%NULL%1,                     Philippe%Bensaid%NULL%1,                     Audrey%Vizeneux%NULL%1,                     Philippe%Blanc%NULL%1,                     Aurélie%Garraffo%NULL%1,                     Emilie%Georget%NULL%1,                     Arnaud%Chalvon%NULL%1,                     Nathalie%Garrec%NULL%1,                     Yacine%Laoudi%NULL%1,                     Emmanuelle%Varon%NULL%1,                     Sébastien%Rouget%NULL%1,                     Alexandre%Pupin%NULL%1,                     Khaled%Abdel Aal%NULL%1,                     David%Toulorge%NULL%1,                     Sarah%Ducrocq%NULL%1,                     Catherine%Barrey%NULL%1,                     Letitia%Pantalone%NULL%1,                     Blandine%Robert%NULL%1,                     Lydie%Joly-Sanchez%NULL%1,                     Caroline%Thach%NULL%2,                     Caroline%Thach%NULL%0,                     Caroline%Masserot-Lureau%NULL%1,                     Jamilé%Chahine%NULL%1,                     Veronica%Risso Garcia-Roudaut%NULL%1,                     Jonathan%Rozental%NULL%1,                     Sylvie%Nathanson%NULL%1,                     Mohamed%Khaled%NULL%1,                     Alexis%Mandelcwajg%NULL%1,                     Nadia%Demayer%NULL%1,                     Stéphanie%Muller%NULL%1,                     Mustapha%Mazerghane%NULL%1,                     Ralph%Epaud%NULL%1,                     Béatrice%Pellegrino%NULL%2,                     Béatrice%Pellegrino%NULL%0,                     Fouad%Madhi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chun‐Zhen%Hua%NULL%1,                     Zi‐Ping%Miao%NULL%1,                     Ji‐Shan%Zheng%NULL%2,                     Ji‐Shan%Zheng%NULL%0,                     Qian%Huang%NULL%1,                     Qing‐Feng%Sun%NULL%1,                     Hong‐Ping%Lu%NULL%1,                     Fei‐Fei%Su%NULL%1,                     Wei‐Hong%Wang%NULL%1,                     Lie‐Ping%Huang%NULL%1,                     Da‐Qing%Chen%NULL%1,                     Zhi‐Wei%Xu%NULL%1,                     Le‐Dan%Ji%NULL%1,                     Hong‐Ping%Zhang%NULL%1,                     Xiao‐Wei%Yang%NULL%1,                     Ming‐Hui%Li%NULL%1,                     Yue‐Yan%Mao%NULL%1,                     Man‐Zhen%Ying%NULL%1,                     Sheng%Ye%NULL%1,                     Qiang%Shu%shuqiang@zju.edu.cn%1,                     En‐Fu%Chen%enfchen@cdc.zj.cn%2,                     En‐Fu%Chen%enfchen@cdc.zj.cn%0,                     Jian‐Feng%Liang%NULL%1,                     Wei%Wang%NULL%1,                     Zhi‐Min%Chen%NULL%1,                     Wei%Li%NULL%1,                     Jun‐Fen%Fu%fjf68@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[María%de Ceano-Vivas%NULL%1,                     Irene%Martín-Espín%NULL%1,                     Teresa%del Rosal%NULL%1,                     Marta%Bueno-Barriocanal%NULL%2,                     Marta%Bueno-Barriocanal%NULL%0,                     Marta%Plata-Gallardo%NULL%1,                     José Antonio%Ruiz-Domínguez%NULL%1,                     Rosario%López-López%NULL%2,                     Rosario%López-López%NULL%0,                     Miguel Ángel%Molina-Gutiérrez%NULL%1,                     Patricia%Bote-Gascón%NULL%2,                     Patricia%Bote-Gascón%NULL%0,                     Isabel%González-Bertolín%NULL%1,                     Paula%García-Sánchez%NULL%2,                     Paula%García-Sánchez%NULL%0,                     Julia%Martín-Sánchez%NULL%1,                     Begoña%de Miguel-Lavisier%NULL%1,                     Talía%Sainz%NULL%1,                     Fernando%Baquero-Artigao%NULL%1,                     Ana%Méndez-Echevarría%NULL%1,                     Cristina%Calvo%NULL%2,                     Cristina%Calvo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,                     Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,                     Federico%Marchetti%federico.marchetti@auslromagna.it%1,                     Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,                     Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,                     Marta%Romanengo%marta.romanengo@gmail.com%0,                     Enrico%Felici%enrico.felici@ospedale.al.it%1,                     Antonio%Urbino%afurbino@icloud.com%1,                     Liviana%Da Dalt%liviana.dadalt@unipd.it%1,                     Lucio%Verdoni%lverdoni@asst-pg23.it%1,                     Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,                     Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,                     Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,                     Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,                     Anna Maria%Musolino%annamaria.musolino@opbg.net%1,                     Marco%Binotti%marco.binotti@med.uniupo.it%1,                     Paolo%Biban%paolo.biban@aovr.veneto.it%1,                     Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,                     Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,                     Flavia%Nicoloso%flavianicoloso@gmail.com%1,                     Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,                     Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,                     Danilo%Buonsenso%danilobuonsenso@gmail.com%1,                     Massimo%Chiossi%max.chiossi@gmail.com%1,                     Rino%Agostiniani%rinoagostiniani@gmail.com%1,                     Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,                     Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,                     Marcello%Lanari%marcello.lanari@unibo.it%1,                     Serena%Arrigo%arrigoserena@gmail.com%1,                     Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,                     Matteo%Lenge%matteo.lenge@meyer.it%1,                     Stefano%Masi%stefano.masi@meyer.it%1,                     Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,                     Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,                     NULL%NULL%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%2,                      Jianbo%Shao%xzhuge27@163.com%2,                      Yu%Guo%NULL%4,                      Yu%Guo%NULL%0,                      Xuehua%Peng%NULL%4,                      Xuehua%Peng%NULL%0,                      Zhen%Li%NULL%2,                      Daoyu%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%0,                      Jianbo%Shao%xzhuge27@163.com%0,                      Yu%Guo%NULL%0,                      Yu%Guo%NULL%0,                      Xuehua%Peng%NULL%0,                      Xuehua%Peng%NULL%0,                      Zhen%Li%NULL%0,                      Daoyu%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michela%Antonelli%NULL%1,                      Rose S%Penfold%NULL%1,                      Jordi%Merino%NULL%1,                      Carole H%Sudre%NULL%1,                      Erika%Molteni%NULL%1,                      Sarah%Berry%NULL%1,                      Liane S%Canas%NULL%1,                      Mark S%Graham%NULL%1,                      Kerstin%Klaser%NULL%1,                      Marc%Modat%NULL%1,                      Benjamin%Murray%NULL%1,                      Eric%Kerfoot%NULL%1,                      Liyuan%Chen%NULL%1,                      Jie%Deng%NULL%1,                      Marc F%Österdahl%NULL%1,                      Nathan J%Cheetham%NULL%1,                      David A%Drew%NULL%1,                      Long H%Nguyen%NULL%1,                      Joan Capdevila%Pujol%NULL%1,                      Christina%Hu%NULL%1,                      Somesh%Selvachandran%NULL%1,                      Lorenzo%Polidori%NULL%1,                      Anna%May%NULL%1,                      Jonathan%Wolf%NULL%1,                      Andrew T%Chan%NULL%1,                      Alexander%Hammers%NULL%1,                      Emma L%Duncan%NULL%1,                      Tim D%Spector%NULL%1,                      Sebastien%Ourselin%NULL%1,                      Claire J%Steves%claire.j.steves@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Qinxue%Shen%NULL%1,                      Wei%Guo%NULL%1,                      Ting%Guo%NULL%1,                      Jinhua%Li%NULL%1,                      Wenlong%He%NULL%1,                      Shanshan%Ni%NULL%1,                      Xiaoli%Ouyang%NULL%1,                      Jiyang%Liu%NULL%1,                      Yuanlin%Xie%NULL%1,                      Xin%Tan%NULL%1,                      Zhiguo%Zhou%13807311490@163.com%1,                      Hong%Peng%penghong66@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Zhang%NULL%1,                      Songming%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lu%Lin%NULL%1,                      Xiayang%Jiang%NULL%1,                      Zhenling%Zhang%NULL%1,                      Siwen%Huang%NULL%1,                      Zhenyi%Zhang%NULL%1,                      Zhaoxiong%Fang%NULL%1,                      Zhiqiang%Gu%NULL%1,                      Liangqing%Gao%NULL%1,                      Honggang%Shi%NULL%1,                      Lei%Mai%NULL%1,                      Yuan%Liu%NULL%1,                      Xianqi%Lin%NULL%1,                      Renxu%Lai%NULL%1,                      Zhixiang%Yan%NULL%1,                      Xiaofeng%Li%NULL%2,                      Xiaofeng%Li%NULL%0,                      Hong%Shan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,                      Hui%Li%NULL%1,                      Xiao-Xia%Lu%NULL%1,                      Han%Xiao%NULL%1,                      Jie%Ren%NULL%1,                      Fu-Rong%Zhang%792523496@qq.com%1,                      Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Xu%NULL%1,                      Xufang%Li%NULL%1,                      Bing%Zhu%NULL%1,                      Huiying%Liang%NULL%1,                      Chunxiao%Fang%NULL%1,                      Yu%Gong%NULL%1,                      Qiaozhi%Guo%NULL%1,                      Xin%Sun%NULL%1,                      Danyang%Zhao%NULL%1,                      Jun%Shen%NULL%1,                      Huayan%Zhang%NULL%1,                      Hongsheng%Liu%NULL%2,                      Hongsheng%Liu%NULL%0,                      Huimin%Xia%huiminxia@hotmail.com%1,                      Jinling%Tang%jltang@cuhk.edu.hk%1,                      Kang%Zhang%kang.zhang@gmail.com%1,                      Sitang%Gong%sitangg@126.com%2,                      Sitang%Gong%sitangg@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yuhan%Xing%NULL%1,                      Wei%Ni%NULL%1,                      Qin%Wu%NULL%1,                      Wenjie%Li%NULL%1,                      Guoju%Li%NULL%1,                      Wendi%Wang%NULL%1,                      Jianning%Tong%NULL%1,                      Xiufeng%Song%NULL%1,                      Gary Wing Kin%Wong%NULL%1,                      Quansheng%Xing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giacomo%Brisca%giacomobrisca@gmail.com%1,                      Marta%Ferretti%NULL%2,                      Marta%Ferretti%NULL%0,                      Giulia%Sartoris%NULL%1,                      Maria Beatrice%Damasio%NULL%1,                      Isabella%Buffoni%NULL%2,                      Isabella%Buffoni%NULL%0,                      Daniela%Pirlo%NULL%1,                      Marta%Romanengo%NULL%2,                      Emanuela%Piccotti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Louise%Gaborieau%NULL%1,                      Celine%Delestrain%NULL%1,                      Philippe%Bensaid%NULL%1,                      Audrey%Vizeneux%NULL%1,                      Philippe%Blanc%NULL%1,                      Aurélie%Garraffo%NULL%1,                      Emilie%Georget%NULL%1,                      Arnaud%Chalvon%NULL%1,                      Nathalie%Garrec%NULL%1,                      Yacine%Laoudi%NULL%1,                      Emmanuelle%Varon%NULL%1,                      Sébastien%Rouget%NULL%1,                      Alexandre%Pupin%NULL%1,                      Khaled%Abdel Aal%NULL%1,                      David%Toulorge%NULL%1,                      Sarah%Ducrocq%NULL%1,                      Catherine%Barrey%NULL%1,                      Letitia%Pantalone%NULL%1,                      Blandine%Robert%NULL%1,                      Lydie%Joly-Sanchez%NULL%1,                      Caroline%Thach%NULL%2,                      Caroline%Thach%NULL%0,                      Caroline%Masserot-Lureau%NULL%1,                      Jamilé%Chahine%NULL%1,                      Veronica%Risso Garcia-Roudaut%NULL%1,                      Jonathan%Rozental%NULL%1,                      Sylvie%Nathanson%NULL%1,                      Mohamed%Khaled%NULL%1,                      Alexis%Mandelcwajg%NULL%1,                      Nadia%Demayer%NULL%1,                      Stéphanie%Muller%NULL%1,                      Mustapha%Mazerghane%NULL%1,                      Ralph%Epaud%NULL%1,                      Béatrice%Pellegrino%NULL%2,                      Béatrice%Pellegrino%NULL%0,                      Fouad%Madhi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chun‐Zhen%Hua%NULL%1,                      Zi‐Ping%Miao%NULL%1,                      Ji‐Shan%Zheng%NULL%2,                      Ji‐Shan%Zheng%NULL%0,                      Qian%Huang%NULL%1,                      Qing‐Feng%Sun%NULL%1,                      Hong‐Ping%Lu%NULL%1,                      Fei‐Fei%Su%NULL%1,                      Wei‐Hong%Wang%NULL%1,                      Lie‐Ping%Huang%NULL%1,                      Da‐Qing%Chen%NULL%1,                      Zhi‐Wei%Xu%NULL%1,                      Le‐Dan%Ji%NULL%1,                      Hong‐Ping%Zhang%NULL%1,                      Xiao‐Wei%Yang%NULL%1,                      Ming‐Hui%Li%NULL%1,                      Yue‐Yan%Mao%NULL%1,                      Man‐Zhen%Ying%NULL%1,                      Sheng%Ye%NULL%1,                      Qiang%Shu%shuqiang@zju.edu.cn%1,                      En‐Fu%Chen%enfchen@cdc.zj.cn%2,                      En‐Fu%Chen%enfchen@cdc.zj.cn%0,                      Jian‐Feng%Liang%NULL%1,                      Wei%Wang%NULL%1,                      Zhi‐Min%Chen%NULL%1,                      Wei%Li%NULL%1,                      Jun‐Fen%Fu%fjf68@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[María%de Ceano-Vivas%NULL%1,                      Irene%Martín-Espín%NULL%1,                      Teresa%del Rosal%NULL%1,                      Marta%Bueno-Barriocanal%NULL%2,                      Marta%Bueno-Barriocanal%NULL%0,                      Marta%Plata-Gallardo%NULL%1,                      José Antonio%Ruiz-Domínguez%NULL%1,                      Rosario%López-López%NULL%2,                      Rosario%López-López%NULL%0,                      Miguel Ángel%Molina-Gutiérrez%NULL%1,                      Patricia%Bote-Gascón%NULL%2,                      Patricia%Bote-Gascón%NULL%0,                      Isabel%González-Bertolín%NULL%1,                      Paula%García-Sánchez%NULL%2,                      Paula%García-Sánchez%NULL%0,                      Julia%Martín-Sánchez%NULL%1,                      Begoña%de Miguel-Lavisier%NULL%1,                      Talía%Sainz%NULL%1,                      Fernando%Baquero-Artigao%NULL%1,                      Ana%Méndez-Echevarría%NULL%1,                      Cristina%Calvo%NULL%2,                      Cristina%Calvo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,                      Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,                      Federico%Marchetti%federico.marchetti@auslromagna.it%1,                      Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,                      Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,                      Marta%Romanengo%marta.romanengo@gmail.com%0,                      Enrico%Felici%enrico.felici@ospedale.al.it%1,                      Antonio%Urbino%afurbino@icloud.com%1,                      Liviana%Da Dalt%liviana.dadalt@unipd.it%1,                      Lucio%Verdoni%lverdoni@asst-pg23.it%1,                      Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,                      Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,                      Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,                      Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,                      Anna Maria%Musolino%annamaria.musolino@opbg.net%1,                      Marco%Binotti%marco.binotti@med.uniupo.it%1,                      Paolo%Biban%paolo.biban@aovr.veneto.it%1,                      Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,                      Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,                      Flavia%Nicoloso%flavianicoloso@gmail.com%1,                      Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,                      Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,                      Danilo%Buonsenso%danilobuonsenso@gmail.com%1,                      Massimo%Chiossi%max.chiossi@gmail.com%1,                      Rino%Agostiniani%rinoagostiniani@gmail.com%1,                      Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,                      Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,                      Marcello%Lanari%marcello.lanari@unibo.it%1,                      Serena%Arrigo%arrigoserena@gmail.com%1,                      Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,                      Matteo%Lenge%matteo.lenge@meyer.it%1,                      Stefano%Masi%stefano.masi@meyer.it%1,                      Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,                      Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,                      NULL%NULL%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1551,6 +1779,9 @@
       <c r="I1" t="s">
         <v>25</v>
       </c>
+      <c r="J1" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
@@ -1566,7 +1797,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>340</v>
+        <v>418</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1579,6 +1810,9 @@
       </c>
       <c r="I2" t="s">
         <v>322</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1595,7 +1829,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>341</v>
+        <v>419</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -1608,6 +1842,9 @@
       </c>
       <c r="I3" t="s">
         <v>322</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1624,7 +1861,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>342</v>
+        <v>420</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -1637,6 +1874,9 @@
       </c>
       <c r="I4" t="s">
         <v>325</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1653,7 +1893,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>343</v>
+        <v>421</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1666,6 +1906,9 @@
       </c>
       <c r="I5" t="s">
         <v>322</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1682,7 +1925,7 @@
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>344</v>
+        <v>211</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -1691,10 +1934,13 @@
         <v>144</v>
       </c>
       <c r="H6" t="s">
-        <v>145</v>
+        <v>362</v>
       </c>
       <c r="I6" t="s">
-        <v>322</v>
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1711,7 +1957,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>345</v>
+        <v>422</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -1724,6 +1970,9 @@
       </c>
       <c r="I7" t="s">
         <v>322</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1740,7 +1989,7 @@
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>346</v>
+        <v>423</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -1753,6 +2002,9 @@
       </c>
       <c r="I8" t="s">
         <v>322</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1769,7 +2021,7 @@
         <v>214</v>
       </c>
       <c r="E9" t="s">
-        <v>347</v>
+        <v>424</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -1782,6 +2034,9 @@
       </c>
       <c r="I9" t="s">
         <v>331</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1798,7 +2053,7 @@
         <v>216</v>
       </c>
       <c r="E10" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1811,6 +2066,9 @@
       </c>
       <c r="I10" t="s">
         <v>331</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1827,7 +2085,7 @@
         <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>349</v>
+        <v>218</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -1836,10 +2094,13 @@
         <v>144</v>
       </c>
       <c r="H11" t="s">
-        <v>152</v>
+        <v>362</v>
       </c>
       <c r="I11" t="s">
-        <v>322</v>
+        <v>32</v>
+      </c>
+      <c r="J11" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1870,6 +2131,9 @@
       <c r="I12" t="s">
         <v>32</v>
       </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
@@ -1899,6 +2163,9 @@
       <c r="I13" t="s">
         <v>32</v>
       </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
@@ -1914,7 +2181,7 @@
         <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>350</v>
+        <v>426</v>
       </c>
       <c r="F14" t="s">
         <v>72</v>
@@ -1927,6 +2194,9 @@
       </c>
       <c r="I14" t="s">
         <v>325</v>
+      </c>
+      <c r="J14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1943,7 +2213,7 @@
         <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>351</v>
+        <v>427</v>
       </c>
       <c r="F15" t="s">
         <v>76</v>
@@ -1956,6 +2226,9 @@
       </c>
       <c r="I15" t="s">
         <v>322</v>
+      </c>
+      <c r="J15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1972,7 +2245,7 @@
         <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>352</v>
+        <v>428</v>
       </c>
       <c r="F16" t="s">
         <v>80</v>
@@ -1985,6 +2258,9 @@
       </c>
       <c r="I16" t="s">
         <v>322</v>
+      </c>
+      <c r="J16" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2001,7 +2277,7 @@
         <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>353</v>
+        <v>429</v>
       </c>
       <c r="F17" t="s">
         <v>85</v>
@@ -2014,6 +2290,9 @@
       </c>
       <c r="I17" t="s">
         <v>322</v>
+      </c>
+      <c r="J17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2030,7 +2309,7 @@
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>354</v>
+        <v>430</v>
       </c>
       <c r="F18" t="s">
         <v>89</v>
@@ -2043,6 +2322,9 @@
       </c>
       <c r="I18" t="s">
         <v>322</v>
+      </c>
+      <c r="J18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2059,7 +2341,7 @@
         <v>92</v>
       </c>
       <c r="E19" t="s">
-        <v>355</v>
+        <v>431</v>
       </c>
       <c r="F19" t="s">
         <v>94</v>
@@ -2072,6 +2354,9 @@
       </c>
       <c r="I19" t="s">
         <v>331</v>
+      </c>
+      <c r="J19" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/82.xlsx
+++ b/Covid_19_Dataset_and_References/References/82.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3047" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3351" uniqueCount="467">
   <si>
     <t>Doi</t>
   </si>
@@ -1460,6 +1460,121 @@
   </si>
   <si>
     <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,                      Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,                      Federico%Marchetti%federico.marchetti@auslromagna.it%1,                      Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,                      Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,                      Marta%Romanengo%marta.romanengo@gmail.com%0,                      Enrico%Felici%enrico.felici@ospedale.al.it%1,                      Antonio%Urbino%afurbino@icloud.com%1,                      Liviana%Da Dalt%liviana.dadalt@unipd.it%1,                      Lucio%Verdoni%lverdoni@asst-pg23.it%1,                      Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,                      Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,                      Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,                      Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,                      Anna Maria%Musolino%annamaria.musolino@opbg.net%1,                      Marco%Binotti%marco.binotti@med.uniupo.it%1,                      Paolo%Biban%paolo.biban@aovr.veneto.it%1,                      Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,                      Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,                      Flavia%Nicoloso%flavianicoloso@gmail.com%1,                      Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,                      Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,                      Danilo%Buonsenso%danilobuonsenso@gmail.com%1,                      Massimo%Chiossi%max.chiossi@gmail.com%1,                      Rino%Agostiniani%rinoagostiniani@gmail.com%1,                      Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,                      Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,                      Marcello%Lanari%marcello.lanari@unibo.it%1,                      Serena%Arrigo%arrigoserena@gmail.com%1,                      Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,                      Matteo%Lenge%matteo.lenge@meyer.it%1,                      Stefano%Masi%stefano.masi@meyer.it%1,                      Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,                      Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,                      NULL%NULL%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%2,                       Jianbo%Shao%xzhuge27@163.com%2,                       Yu%Guo%NULL%4,                       Yu%Guo%NULL%0,                       Xuehua%Peng%NULL%4,                       Xuehua%Peng%NULL%0,                       Zhen%Li%NULL%2,                       Daoyu%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%0,                       Jianbo%Shao%xzhuge27@163.com%0,                       Yu%Guo%NULL%0,                       Yu%Guo%NULL%0,                       Xuehua%Peng%NULL%0,                       Xuehua%Peng%NULL%0,                       Zhen%Li%NULL%0,                       Daoyu%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michela%Antonelli%NULL%1,                       Rose S%Penfold%NULL%1,                       Jordi%Merino%NULL%1,                       Carole H%Sudre%NULL%1,                       Erika%Molteni%NULL%1,                       Sarah%Berry%NULL%1,                       Liane S%Canas%NULL%1,                       Mark S%Graham%NULL%1,                       Kerstin%Klaser%NULL%1,                       Marc%Modat%NULL%1,                       Benjamin%Murray%NULL%1,                       Eric%Kerfoot%NULL%1,                       Liyuan%Chen%NULL%1,                       Jie%Deng%NULL%1,                       Marc F%Österdahl%NULL%1,                       Nathan J%Cheetham%NULL%1,                       David A%Drew%NULL%1,                       Long H%Nguyen%NULL%1,                       Joan Capdevila%Pujol%NULL%1,                       Christina%Hu%NULL%1,                       Somesh%Selvachandran%NULL%1,                       Lorenzo%Polidori%NULL%1,                       Anna%May%NULL%1,                       Jonathan%Wolf%NULL%1,                       Andrew T%Chan%NULL%1,                       Alexander%Hammers%NULL%1,                       Emma L%Duncan%NULL%1,                       Tim D%Spector%NULL%1,                       Sebastien%Ourselin%NULL%1,                       Claire J%Steves%claire.j.steves@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Qinxue%Shen%NULL%1,                       Wei%Guo%NULL%1,                       Ting%Guo%NULL%1,                       Jinhua%Li%NULL%1,                       Wenlong%He%NULL%1,                       Shanshan%Ni%NULL%1,                       Xiaoli%Ouyang%NULL%1,                       Jiyang%Liu%NULL%1,                       Yuanlin%Xie%NULL%1,                       Xin%Tan%NULL%1,                       Zhiguo%Zhou%13807311490@163.com%1,                       Hong%Peng%penghong66@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Zhang%NULL%1,                       Songming%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lu%Lin%NULL%1,                       Xiayang%Jiang%NULL%1,                       Zhenling%Zhang%NULL%1,                       Siwen%Huang%NULL%1,                       Zhenyi%Zhang%NULL%1,                       Zhaoxiong%Fang%NULL%1,                       Zhiqiang%Gu%NULL%1,                       Liangqing%Gao%NULL%1,                       Honggang%Shi%NULL%1,                       Lei%Mai%NULL%1,                       Yuan%Liu%NULL%1,                       Xianqi%Lin%NULL%1,                       Renxu%Lai%NULL%1,                       Zhixiang%Yan%NULL%1,                       Xiaofeng%Li%NULL%2,                       Xiaofeng%Li%NULL%0,                       Hong%Shan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,                       Hui%Li%NULL%1,                       Xiao-Xia%Lu%NULL%1,                       Han%Xiao%NULL%1,                       Jie%Ren%NULL%1,                       Fu-Rong%Zhang%792523496@qq.com%1,                       Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Xu%NULL%1,                       Xufang%Li%NULL%1,                       Bing%Zhu%NULL%1,                       Huiying%Liang%NULL%1,                       Chunxiao%Fang%NULL%1,                       Yu%Gong%NULL%1,                       Qiaozhi%Guo%NULL%1,                       Xin%Sun%NULL%1,                       Danyang%Zhao%NULL%1,                       Jun%Shen%NULL%1,                       Huayan%Zhang%NULL%1,                       Hongsheng%Liu%NULL%2,                       Hongsheng%Liu%NULL%0,                       Huimin%Xia%huiminxia@hotmail.com%1,                       Jinling%Tang%jltang@cuhk.edu.hk%1,                       Kang%Zhang%kang.zhang@gmail.com%1,                       Sitang%Gong%sitangg@126.com%2,                       Sitang%Gong%sitangg@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Clinical analysis of 150 cases of 2019 novel coronavirus infection in Nanyang City, Henan Province].</t>
+  </si>
+  <si>
+    <t>Objective: To analyze the epidemiological characteristics and clinical features of the patients with 2019-nCoV infection in Nanyang City, so as to provide evidence for clinical diagnosis and treatment. Methods: The epidemiology, clinical symptoms, atory and radiologic data of 150 patients with 2019-nCoV infection admitted to the designated hospitals in Nanyang City from January 24,2020 to February 16, 2020 were retrospectively analyzed. Results: The 150 patients with 2019 nCov infection consisted of 67 men and 83 women, and the median age was 45±16 years; 69 of them were the first generation case,60 of them were the second generation case, 6 of them were the third generation case,the median incubation period of the first generation case was 5.4±2.2 days, and the second generation case was 6.7±3.1 days, and the first-generation cases are the majority in severe patients (69%) . The most common basic disease was hypertension (13 cases, 9%), diabetes (9 cases, 6%), and the most common symptom is fever(142 cases, 95%, 63% showed moderate fever) , cough and sputum(108 cases,72%), fatigue(23 cases,15%), anorexia(20 cases, 13%), headache, diarrhea, muscle soreness, sore throat as the first symptoms. The average time from onset of symptoms to consultation was 4.2±2.2 days for all patients. The changes in peripheral blood cells were mainly lymphonpenia (83 cases, 55%) and eosinophilia (95 cases, 63%), The lymphocyte count of the severe and critically ill patients was more significantly reduced, and some patients had increased myocardial enzymes, mainly LDH (47 cases, 31%), and a few patients had liver function damage, mainly manifested in ALT and AST. High, very few patients have renal impairment. Among the inflammation-related indicators, the main manifestations are increased CRP (66 cases, 43%) and ESR (86 cases, 57%), elevated D-Dimer in 29% of patients. 144 cases have different degrees of infective lesions in chest CT examination, with 30 cases (21%) on one side and 144 cases (79%) on both sides. Morphologically, most of the lesions were patchy ground glass lesions, which could be accompanied by air bronchus signs and some consolidation and paving stone signs. Of the cases showing \"white lung\</t>
+  </si>
+  <si>
+    <t>[ C%Sun%elasticNoEmail%1,  X B% Zhang%elasticNoEmail%1,  Y% Dai%elasticNoEmail%1,  X Z% Xu%elasticNoEmail%1,  J% Zhao%elasticNoEmail%1]</t>
+  </si>
+  <si>
+    <t>ELASTIC</t>
+  </si>
+  <si>
+    <t>2020-04-15</t>
+  </si>
+  <si>
+    <t>[Yuhan%Xing%NULL%1,                       Wei%Ni%NULL%1,                       Qin%Wu%NULL%1,                       Wenjie%Li%NULL%1,                       Guoju%Li%NULL%1,                       Wendi%Wang%NULL%1,                       Jianning%Tong%NULL%1,                       Xiufeng%Song%NULL%1,                       Gary Wing Kin%Wong%NULL%1,                       Quansheng%Xing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giacomo%Brisca%giacomobrisca@gmail.com%1,                       Marta%Ferretti%NULL%2,                       Marta%Ferretti%NULL%0,                       Giulia%Sartoris%NULL%1,                       Maria Beatrice%Damasio%NULL%1,                       Isabella%Buffoni%NULL%2,                       Isabella%Buffoni%NULL%0,                       Daniela%Pirlo%NULL%1,                       Marta%Romanengo%NULL%2,                       Emanuela%Piccotti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Louise%Gaborieau%NULL%1,                       Celine%Delestrain%NULL%1,                       Philippe%Bensaid%NULL%1,                       Audrey%Vizeneux%NULL%1,                       Philippe%Blanc%NULL%1,                       Aurélie%Garraffo%NULL%1,                       Emilie%Georget%NULL%1,                       Arnaud%Chalvon%NULL%1,                       Nathalie%Garrec%NULL%1,                       Yacine%Laoudi%NULL%1,                       Emmanuelle%Varon%NULL%1,                       Sébastien%Rouget%NULL%1,                       Alexandre%Pupin%NULL%1,                       Khaled%Abdel Aal%NULL%1,                       David%Toulorge%NULL%1,                       Sarah%Ducrocq%NULL%1,                       Catherine%Barrey%NULL%1,                       Letitia%Pantalone%NULL%1,                       Blandine%Robert%NULL%1,                       Lydie%Joly-Sanchez%NULL%1,                       Caroline%Thach%NULL%2,                       Caroline%Thach%NULL%0,                       Caroline%Masserot-Lureau%NULL%1,                       Jamilé%Chahine%NULL%1,                       Veronica%Risso Garcia-Roudaut%NULL%1,                       Jonathan%Rozental%NULL%1,                       Sylvie%Nathanson%NULL%1,                       Mohamed%Khaled%NULL%1,                       Alexis%Mandelcwajg%NULL%1,                       Nadia%Demayer%NULL%1,                       Stéphanie%Muller%NULL%1,                       Mustapha%Mazerghane%NULL%1,                       Ralph%Epaud%NULL%1,                       Béatrice%Pellegrino%NULL%2,                       Béatrice%Pellegrino%NULL%0,                       Fouad%Madhi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chun‐Zhen%Hua%NULL%1,                       Zi‐Ping%Miao%NULL%1,                       Ji‐Shan%Zheng%NULL%2,                       Ji‐Shan%Zheng%NULL%0,                       Qian%Huang%NULL%1,                       Qing‐Feng%Sun%NULL%1,                       Hong‐Ping%Lu%NULL%1,                       Fei‐Fei%Su%NULL%1,                       Wei‐Hong%Wang%NULL%1,                       Lie‐Ping%Huang%NULL%1,                       Da‐Qing%Chen%NULL%1,                       Zhi‐Wei%Xu%NULL%1,                       Le‐Dan%Ji%NULL%1,                       Hong‐Ping%Zhang%NULL%1,                       Xiao‐Wei%Yang%NULL%1,                       Ming‐Hui%Li%NULL%1,                       Yue‐Yan%Mao%NULL%1,                       Man‐Zhen%Ying%NULL%1,                       Sheng%Ye%NULL%1,                       Qiang%Shu%shuqiang@zju.edu.cn%1,                       En‐Fu%Chen%enfchen@cdc.zj.cn%2,                       En‐Fu%Chen%enfchen@cdc.zj.cn%0,                       Jian‐Feng%Liang%NULL%1,                       Wei%Wang%NULL%1,                       Zhi‐Min%Chen%NULL%1,                       Wei%Li%NULL%1,                       Jun‐Fen%Fu%fjf68@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[María%de Ceano-Vivas%NULL%1,                       Irene%Martín-Espín%NULL%1,                       Teresa%del Rosal%NULL%1,                       Marta%Bueno-Barriocanal%NULL%2,                       Marta%Bueno-Barriocanal%NULL%0,                       Marta%Plata-Gallardo%NULL%1,                       José Antonio%Ruiz-Domínguez%NULL%1,                       Rosario%López-López%NULL%2,                       Rosario%López-López%NULL%0,                       Miguel Ángel%Molina-Gutiérrez%NULL%1,                       Patricia%Bote-Gascón%NULL%2,                       Patricia%Bote-Gascón%NULL%0,                       Isabel%González-Bertolín%NULL%1,                       Paula%García-Sánchez%NULL%2,                       Paula%García-Sánchez%NULL%0,                       Julia%Martín-Sánchez%NULL%1,                       Begoña%de Miguel-Lavisier%NULL%1,                       Talía%Sainz%NULL%1,                       Fernando%Baquero-Artigao%NULL%1,                       Ana%Méndez-Echevarría%NULL%1,                       Cristina%Calvo%NULL%2,                       Cristina%Calvo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,                       Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,                       Federico%Marchetti%federico.marchetti@auslromagna.it%1,                       Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,                       Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,                       Marta%Romanengo%marta.romanengo@gmail.com%0,                       Enrico%Felici%enrico.felici@ospedale.al.it%1,                       Antonio%Urbino%afurbino@icloud.com%1,                       Liviana%Da Dalt%liviana.dadalt@unipd.it%1,                       Lucio%Verdoni%lverdoni@asst-pg23.it%1,                       Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,                       Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,                       Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,                       Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,                       Anna Maria%Musolino%annamaria.musolino@opbg.net%1,                       Marco%Binotti%marco.binotti@med.uniupo.it%1,                       Paolo%Biban%paolo.biban@aovr.veneto.it%1,                       Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,                       Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,                       Flavia%Nicoloso%flavianicoloso@gmail.com%1,                       Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,                       Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,                       Danilo%Buonsenso%danilobuonsenso@gmail.com%1,                       Massimo%Chiossi%max.chiossi@gmail.com%1,                       Rino%Agostiniani%rinoagostiniani@gmail.com%1,                       Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,                       Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,                       Marcello%Lanari%marcello.lanari@unibo.it%1,                       Serena%Arrigo%arrigoserena@gmail.com%1,                       Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,                       Matteo%Lenge%matteo.lenge@meyer.it%1,                       Stefano%Masi%stefano.masi@meyer.it%1,                       Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,                       Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,                       NULL%NULL%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%2,                        Jianbo%Shao%xzhuge27@163.com%2,                        Yu%Guo%NULL%4,                        Yu%Guo%NULL%0,                        Xuehua%Peng%NULL%4,                        Xuehua%Peng%NULL%0,                        Zhen%Li%NULL%2,                        Daoyu%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%0,                        Jianbo%Shao%xzhuge27@163.com%0,                        Yu%Guo%NULL%0,                        Yu%Guo%NULL%0,                        Xuehua%Peng%NULL%0,                        Xuehua%Peng%NULL%0,                        Zhen%Li%NULL%0,                        Daoyu%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michela%Antonelli%NULL%1,                        Rose S%Penfold%NULL%1,                        Jordi%Merino%NULL%1,                        Carole H%Sudre%NULL%1,                        Erika%Molteni%NULL%1,                        Sarah%Berry%NULL%1,                        Liane S%Canas%NULL%1,                        Mark S%Graham%NULL%1,                        Kerstin%Klaser%NULL%1,                        Marc%Modat%NULL%1,                        Benjamin%Murray%NULL%1,                        Eric%Kerfoot%NULL%1,                        Liyuan%Chen%NULL%1,                        Jie%Deng%NULL%1,                        Marc F%Österdahl%NULL%1,                        Nathan J%Cheetham%NULL%1,                        David A%Drew%NULL%1,                        Long H%Nguyen%NULL%1,                        Joan Capdevila%Pujol%NULL%1,                        Christina%Hu%NULL%1,                        Somesh%Selvachandran%NULL%1,                        Lorenzo%Polidori%NULL%1,                        Anna%May%NULL%1,                        Jonathan%Wolf%NULL%1,                        Andrew T%Chan%NULL%1,                        Alexander%Hammers%NULL%1,                        Emma L%Duncan%NULL%1,                        Tim D%Spector%NULL%1,                        Sebastien%Ourselin%NULL%1,                        Claire J%Steves%claire.j.steves@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Qinxue%Shen%NULL%1,                        Wei%Guo%NULL%1,                        Ting%Guo%NULL%1,                        Jinhua%Li%NULL%1,                        Wenlong%He%NULL%1,                        Shanshan%Ni%NULL%1,                        Xiaoli%Ouyang%NULL%1,                        Jiyang%Liu%NULL%1,                        Yuanlin%Xie%NULL%1,                        Xin%Tan%NULL%1,                        Zhiguo%Zhou%13807311490@163.com%1,                        Hong%Peng%penghong66@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Zhang%NULL%1,                        Songming%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lu%Lin%NULL%1,                        Xiayang%Jiang%NULL%1,                        Zhenling%Zhang%NULL%1,                        Siwen%Huang%NULL%1,                        Zhenyi%Zhang%NULL%1,                        Zhaoxiong%Fang%NULL%1,                        Zhiqiang%Gu%NULL%1,                        Liangqing%Gao%NULL%1,                        Honggang%Shi%NULL%1,                        Lei%Mai%NULL%1,                        Yuan%Liu%NULL%1,                        Xianqi%Lin%NULL%1,                        Renxu%Lai%NULL%1,                        Zhixiang%Yan%NULL%1,                        Xiaofeng%Li%NULL%2,                        Xiaofeng%Li%NULL%0,                        Hong%Shan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,                        Hui%Li%NULL%1,                        Xiao-Xia%Lu%NULL%1,                        Han%Xiao%NULL%1,                        Jie%Ren%NULL%1,                        Fu-Rong%Zhang%792523496@qq.com%1,                        Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Xu%NULL%1,                        Xufang%Li%NULL%1,                        Bing%Zhu%NULL%1,                        Huiying%Liang%NULL%1,                        Chunxiao%Fang%NULL%1,                        Yu%Gong%NULL%1,                        Qiaozhi%Guo%NULL%1,                        Xin%Sun%NULL%1,                        Danyang%Zhao%NULL%1,                        Jun%Shen%NULL%1,                        Huayan%Zhang%NULL%1,                        Hongsheng%Liu%NULL%2,                        Hongsheng%Liu%NULL%0,                        Huimin%Xia%huiminxia@hotmail.com%1,                        Jinling%Tang%jltang@cuhk.edu.hk%1,                        Kang%Zhang%kang.zhang@gmail.com%1,                        Sitang%Gong%sitangg@126.com%2,                        Sitang%Gong%sitangg@126.com%0]</t>
+  </si>
+  <si>
+    <t>Objective: To analyze the epidemiological characteristics and clinical features of the patients with 2019-nCoV infection in Nanyang City, so as to provide evidence for clinical diagnosis and treatment.
+ Methods: The epidemiology, clinical symptoms, atory and radiologic data of 150 patients with 2019-nCoV infection admitted to the designated hospitals in Nanyang City from January 24,2020 to February 16, 2020 were retrospectively analyzed.
+ Results: The 150 patients with 2019 nCov infection consisted of 67 men and 83 women, and the median age was 45±16 years; 69 of them were the first generation case,60 of them were the second generation case, 6 of them were the third generation case,the median incubation period of the first generation case was 5.4±2.2 days, and the second generation case was 6.7±3.1 days, and the first-generation cases are the majority in severe patients (69%) .
+ The most common basic disease was hypertension (13 cases, 9%), diabetes (9 cases, 6%), and the most common symptom is fever(142 cases, 95%, 63% showed moderate fever) , cough and sputum(108 cases,72%), fatigue(23 cases,15%), anorexia(20 cases, 13%), headache, diarrhea, muscle soreness, sore throat as the first symptoms.
+ The average time from onset of symptoms to consultation was 4.2±2.2 days for all patients.
+ The changes in peripheral blood cells were mainly lymphonpenia (83 cases, 55%) and eosinophilia (95 cases, 63%), The lymphocyte count of the severe and critically ill patients was more significantly reduced, and some patients had increased myocardial enzymes, mainly LDH (47 cases, 31%), and a few patients had liver function damage, mainly manifested in ALT and AST.
+ High, very few patients have renal impairment.
+ Among the inflammation-related indicators, the main manifestations are increased CRP (66 cases, 43%) and ESR (86 cases, 57%), elevated D-Dimer in 29% of patients.
+ 144 cases have different degrees of infective lesions in chest CT examination, with 30 cases (21%) on one side and 144 cases (79%) on both sides.
+ Morphologically, most of the lesions were patchy ground glass lesions, which could be accompanied by air bronchus signs and some consolidation and paving stone signs.
+ Of the cases showing \"white lung\</t>
+  </si>
+  <si>
+    <t>[ C%Sun%elasticNoEmail%1,   X B% Zhang%elasticNoEmail%1,   Y% Dai%elasticNoEmail%1,   X Z% Xu%elasticNoEmail%1,   J% Zhao%elasticNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yuhan%Xing%NULL%1,                        Wei%Ni%NULL%1,                        Qin%Wu%NULL%1,                        Wenjie%Li%NULL%1,                        Guoju%Li%NULL%1,                        Wendi%Wang%NULL%1,                        Jianning%Tong%NULL%1,                        Xiufeng%Song%NULL%1,                        Gary Wing Kin%Wong%NULL%1,                        Quansheng%Xing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giacomo%Brisca%giacomobrisca@gmail.com%1,                        Marta%Ferretti%NULL%2,                        Marta%Ferretti%NULL%0,                        Giulia%Sartoris%NULL%1,                        Maria Beatrice%Damasio%NULL%1,                        Isabella%Buffoni%NULL%2,                        Isabella%Buffoni%NULL%0,                        Daniela%Pirlo%NULL%1,                        Marta%Romanengo%NULL%2,                        Emanuela%Piccotti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Louise%Gaborieau%NULL%1,                        Celine%Delestrain%NULL%1,                        Philippe%Bensaid%NULL%1,                        Audrey%Vizeneux%NULL%1,                        Philippe%Blanc%NULL%1,                        Aurélie%Garraffo%NULL%1,                        Emilie%Georget%NULL%1,                        Arnaud%Chalvon%NULL%1,                        Nathalie%Garrec%NULL%1,                        Yacine%Laoudi%NULL%1,                        Emmanuelle%Varon%NULL%1,                        Sébastien%Rouget%NULL%1,                        Alexandre%Pupin%NULL%1,                        Khaled%Abdel Aal%NULL%1,                        David%Toulorge%NULL%1,                        Sarah%Ducrocq%NULL%1,                        Catherine%Barrey%NULL%1,                        Letitia%Pantalone%NULL%1,                        Blandine%Robert%NULL%1,                        Lydie%Joly-Sanchez%NULL%1,                        Caroline%Thach%NULL%2,                        Caroline%Thach%NULL%0,                        Caroline%Masserot-Lureau%NULL%1,                        Jamilé%Chahine%NULL%1,                        Veronica%Risso Garcia-Roudaut%NULL%1,                        Jonathan%Rozental%NULL%1,                        Sylvie%Nathanson%NULL%1,                        Mohamed%Khaled%NULL%1,                        Alexis%Mandelcwajg%NULL%1,                        Nadia%Demayer%NULL%1,                        Stéphanie%Muller%NULL%1,                        Mustapha%Mazerghane%NULL%1,                        Ralph%Epaud%NULL%1,                        Béatrice%Pellegrino%NULL%2,                        Béatrice%Pellegrino%NULL%0,                        Fouad%Madhi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chun‐Zhen%Hua%NULL%1,                        Zi‐Ping%Miao%NULL%1,                        Ji‐Shan%Zheng%NULL%2,                        Ji‐Shan%Zheng%NULL%0,                        Qian%Huang%NULL%1,                        Qing‐Feng%Sun%NULL%1,                        Hong‐Ping%Lu%NULL%1,                        Fei‐Fei%Su%NULL%1,                        Wei‐Hong%Wang%NULL%1,                        Lie‐Ping%Huang%NULL%1,                        Da‐Qing%Chen%NULL%1,                        Zhi‐Wei%Xu%NULL%1,                        Le‐Dan%Ji%NULL%1,                        Hong‐Ping%Zhang%NULL%1,                        Xiao‐Wei%Yang%NULL%1,                        Ming‐Hui%Li%NULL%1,                        Yue‐Yan%Mao%NULL%1,                        Man‐Zhen%Ying%NULL%1,                        Sheng%Ye%NULL%1,                        Qiang%Shu%shuqiang@zju.edu.cn%1,                        En‐Fu%Chen%enfchen@cdc.zj.cn%2,                        En‐Fu%Chen%enfchen@cdc.zj.cn%0,                        Jian‐Feng%Liang%NULL%1,                        Wei%Wang%NULL%1,                        Zhi‐Min%Chen%NULL%1,                        Wei%Li%NULL%1,                        Jun‐Fen%Fu%fjf68@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[María%de Ceano-Vivas%NULL%1,                        Irene%Martín-Espín%NULL%1,                        Teresa%del Rosal%NULL%1,                        Marta%Bueno-Barriocanal%NULL%2,                        Marta%Bueno-Barriocanal%NULL%0,                        Marta%Plata-Gallardo%NULL%1,                        José Antonio%Ruiz-Domínguez%NULL%1,                        Rosario%López-López%NULL%2,                        Rosario%López-López%NULL%0,                        Miguel Ángel%Molina-Gutiérrez%NULL%1,                        Patricia%Bote-Gascón%NULL%2,                        Patricia%Bote-Gascón%NULL%0,                        Isabel%González-Bertolín%NULL%1,                        Paula%García-Sánchez%NULL%2,                        Paula%García-Sánchez%NULL%0,                        Julia%Martín-Sánchez%NULL%1,                        Begoña%de Miguel-Lavisier%NULL%1,                        Talía%Sainz%NULL%1,                        Fernando%Baquero-Artigao%NULL%1,                        Ana%Méndez-Echevarría%NULL%1,                        Cristina%Calvo%NULL%2,                        Cristina%Calvo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,                        Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,                        Federico%Marchetti%federico.marchetti@auslromagna.it%1,                        Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,                        Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,                        Marta%Romanengo%marta.romanengo@gmail.com%0,                        Enrico%Felici%enrico.felici@ospedale.al.it%1,                        Antonio%Urbino%afurbino@icloud.com%1,                        Liviana%Da Dalt%liviana.dadalt@unipd.it%1,                        Lucio%Verdoni%lverdoni@asst-pg23.it%1,                        Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,                        Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,                        Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,                        Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,                        Anna Maria%Musolino%annamaria.musolino@opbg.net%1,                        Marco%Binotti%marco.binotti@med.uniupo.it%1,                        Paolo%Biban%paolo.biban@aovr.veneto.it%1,                        Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,                        Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,                        Flavia%Nicoloso%flavianicoloso@gmail.com%1,                        Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,                        Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,                        Danilo%Buonsenso%danilobuonsenso@gmail.com%1,                        Massimo%Chiossi%max.chiossi@gmail.com%1,                        Rino%Agostiniani%rinoagostiniani@gmail.com%1,                        Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,                        Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,                        Marcello%Lanari%marcello.lanari@unibo.it%1,                        Serena%Arrigo%arrigoserena@gmail.com%1,                        Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,                        Matteo%Lenge%matteo.lenge@meyer.it%1,                        Stefano%Masi%stefano.masi@meyer.it%1,                        Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,                        Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,                        NULL%NULL%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1797,7 +1912,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>418</v>
+        <v>451</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1829,7 +1944,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>419</v>
+        <v>452</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -1861,7 +1976,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>420</v>
+        <v>453</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -1893,7 +2008,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>421</v>
+        <v>454</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1925,7 +2040,7 @@
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -1957,7 +2072,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>422</v>
+        <v>455</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -1989,7 +2104,7 @@
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>423</v>
+        <v>456</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -2021,7 +2136,7 @@
         <v>214</v>
       </c>
       <c r="E9" t="s">
-        <v>424</v>
+        <v>457</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -2053,7 +2168,7 @@
         <v>216</v>
       </c>
       <c r="E10" t="s">
-        <v>425</v>
+        <v>458</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -2085,7 +2200,7 @@
         <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -2143,22 +2258,22 @@
         <v>2020</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>440</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>459</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>460</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>443</v>
       </c>
       <c r="H13" t="s">
-        <v>38</v>
+        <v>444</v>
       </c>
       <c r="I13" t="s">
         <v>32</v>
@@ -2181,7 +2296,7 @@
         <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>426</v>
+        <v>461</v>
       </c>
       <c r="F14" t="s">
         <v>72</v>
@@ -2213,7 +2328,7 @@
         <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>427</v>
+        <v>462</v>
       </c>
       <c r="F15" t="s">
         <v>76</v>
@@ -2245,7 +2360,7 @@
         <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>428</v>
+        <v>463</v>
       </c>
       <c r="F16" t="s">
         <v>80</v>
@@ -2277,7 +2392,7 @@
         <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>429</v>
+        <v>464</v>
       </c>
       <c r="F17" t="s">
         <v>85</v>
@@ -2309,7 +2424,7 @@
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>430</v>
+        <v>465</v>
       </c>
       <c r="F18" t="s">
         <v>89</v>
@@ -2341,7 +2456,7 @@
         <v>92</v>
       </c>
       <c r="E19" t="s">
-        <v>431</v>
+        <v>466</v>
       </c>
       <c r="F19" t="s">
         <v>94</v>
